--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/0/Output_19_17.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/0/Output_19_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1790080.897832466</v>
+        <v>-1790306.098352307</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>244259.5951960773</v>
+        <v>244259.5951960765</v>
       </c>
     </row>
     <row r="9">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.806980428499394</v>
+        <v>6.806980428500824</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1376,16 +1376,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>5.724670540368026</v>
+        <v>6.806980428500824</v>
       </c>
       <c r="F11" t="n">
-        <v>6.806980428499394</v>
+        <v>6.806980428500824</v>
       </c>
       <c r="G11" t="n">
-        <v>6.806980428499394</v>
+        <v>4.178846096408279</v>
       </c>
       <c r="H11" t="n">
-        <v>6.806980428499394</v>
+        <v>6.806980428500824</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>6.806980428499394</v>
+        <v>6.806980428500824</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1406,13 +1406,13 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0.9416473292167211</v>
+        <v>0.941647329216039</v>
       </c>
       <c r="P11" t="n">
-        <v>6.806980428499394</v>
+        <v>6.806980428500824</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.1444611395164905</v>
+        <v>0.1444611395159292</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1433,10 +1433,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1.545824443960953</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.806980428499394</v>
+        <v>6.806980428500824</v>
       </c>
     </row>
     <row r="12">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.43588838622603</v>
+        <v>7.435888386225828</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1613,16 +1613,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>7.43588838622603</v>
+        <v>4.899417437554785</v>
       </c>
       <c r="F14" t="n">
-        <v>6.253582132816091</v>
+        <v>7.435888386225828</v>
       </c>
       <c r="G14" t="n">
-        <v>7.43588838622603</v>
+        <v>7.435888386225828</v>
       </c>
       <c r="H14" t="n">
-        <v>7.43588838622603</v>
+        <v>7.435888386225828</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1634,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>7.43588838622603</v>
+        <v>7.435888386225828</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1643,10 +1643,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0.7499875805164606</v>
+        <v>0.7499875805162333</v>
       </c>
       <c r="P14" t="n">
-        <v>7.43588838622603</v>
+        <v>7.435888386225828</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>1.354164695261147</v>
       </c>
       <c r="Y14" t="n">
-        <v>7.43588838622603</v>
+        <v>7.435888386225828</v>
       </c>
     </row>
     <row r="15">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16.18349058332103</v>
+        <v>16.18349058332115</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1850,16 +1850,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>10.25258511432247</v>
+        <v>10.25258511432259</v>
       </c>
       <c r="F17" t="n">
-        <v>16.18349058332103</v>
+        <v>16.18349058332115</v>
       </c>
       <c r="G17" t="n">
-        <v>16.18349058332103</v>
+        <v>16.18349058332115</v>
       </c>
       <c r="H17" t="n">
-        <v>16.18349058332103</v>
+        <v>16.18349058332115</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>10.18402773359156</v>
+        <v>10.18402773359126</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -1883,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>5.564220169627731</v>
+        <v>5.564220169627504</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>16.18349058332103</v>
+        <v>16.18349058332115</v>
       </c>
     </row>
     <row r="18">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>15.77517835630465</v>
+        <v>15.77517835630493</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2087,16 +2087,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>9.84427288730609</v>
+        <v>9.844272887306374</v>
       </c>
       <c r="F20" t="n">
-        <v>19.31468193469906</v>
+        <v>19.31468193469853</v>
       </c>
       <c r="G20" t="n">
-        <v>19.31468193469906</v>
+        <v>19.31468193469853</v>
       </c>
       <c r="H20" t="n">
-        <v>19.31468193469906</v>
+        <v>19.31468193469853</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2108,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>9.775715506575164</v>
+        <v>9.775715506575125</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -2120,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>5.15590794261135</v>
+        <v>5.155907942611361</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>19.31468193469906</v>
+        <v>19.31468193469853</v>
       </c>
     </row>
     <row r="21">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>14.36402601869821</v>
+        <v>14.36402601869815</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2324,16 +2324,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>8.433120549699652</v>
+        <v>8.433120549699595</v>
       </c>
       <c r="F23" t="n">
-        <v>31.20400382957661</v>
+        <v>31.20400382957655</v>
       </c>
       <c r="G23" t="n">
-        <v>31.20400382957661</v>
+        <v>31.20400382957655</v>
       </c>
       <c r="H23" t="n">
-        <v>26.93308097422954</v>
+        <v>26.93308097422943</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2345,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>8.364563168968726</v>
+        <v>8.364563168968346</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -2357,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>3.744755605004912</v>
+        <v>3.74475560500457</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -2384,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.20400382957661</v>
+        <v>31.20400382957655</v>
       </c>
     </row>
     <row r="24">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>14.36402601869804</v>
+        <v>14.36402601869827</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2561,16 +2561,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>8.433120549699481</v>
+        <v>8.433120549699709</v>
       </c>
       <c r="F26" t="n">
-        <v>31.20400382957661</v>
+        <v>31.20400382957666</v>
       </c>
       <c r="G26" t="n">
-        <v>31.20400382957661</v>
+        <v>31.20400382957666</v>
       </c>
       <c r="H26" t="n">
-        <v>26.93308097422937</v>
+        <v>26.93308097422954</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2582,7 +2582,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>8.364563168968555</v>
+        <v>8.364563168968459</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -2594,7 +2594,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>3.744755605004741</v>
+        <v>3.744755605004684</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.20400382957644</v>
+        <v>31.20400382957666</v>
       </c>
     </row>
     <row r="27">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>14.3640260186981</v>
+        <v>14.36402601869827</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2798,16 +2798,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>8.433120549699538</v>
+        <v>8.433120549699709</v>
       </c>
       <c r="F29" t="n">
-        <v>31.20400382957661</v>
+        <v>31.20400382957666</v>
       </c>
       <c r="G29" t="n">
-        <v>31.20400382957661</v>
+        <v>31.20400382957666</v>
       </c>
       <c r="H29" t="n">
-        <v>26.93308097422943</v>
+        <v>26.93308097422954</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2819,7 +2819,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>8.36456316896863</v>
+        <v>8.364563168968459</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -2831,7 +2831,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>3.744755605004798</v>
+        <v>3.744755605004684</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.20400382957649</v>
+        <v>31.20400382957666</v>
       </c>
     </row>
     <row r="30">
@@ -3038,13 +3038,13 @@
         <v>7.250871791827365</v>
       </c>
       <c r="F32" t="n">
-        <v>50.51868576427529</v>
+        <v>50.51868576427508</v>
       </c>
       <c r="G32" t="n">
-        <v>50.51868576427529</v>
+        <v>50.51868576427508</v>
       </c>
       <c r="H32" t="n">
-        <v>25.75083221635725</v>
+        <v>25.7508322163572</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3056,7 +3056,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>7.182314411096456</v>
+        <v>7.182314411096119</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -3068,7 +3068,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>2.562506847132624</v>
+        <v>2.56250684713234</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>13.59008948784231</v>
+        <v>13.59008948784214</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3272,16 +3272,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>7.659184018843746</v>
+        <v>7.659184018843575</v>
       </c>
       <c r="F35" t="n">
-        <v>43.7117053357759</v>
+        <v>43.71170533577426</v>
       </c>
       <c r="G35" t="n">
-        <v>43.7117053357759</v>
+        <v>43.71170533577426</v>
       </c>
       <c r="H35" t="n">
-        <v>26.15914444337362</v>
+        <v>26.15914444337343</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3293,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>7.59062663811282</v>
+        <v>7.59062663811233</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>2.970819074149023</v>
+        <v>2.970819074148562</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>30.4300672987207</v>
+        <v>30.43006729872053</v>
       </c>
     </row>
     <row r="36">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>13.63692686349674</v>
+        <v>13.6369268634968</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3509,7 +3509,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>7.70602139449818</v>
+        <v>7.706021394498237</v>
       </c>
       <c r="F38" t="n">
         <v>43.08279737804926</v>
@@ -3530,7 +3530,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>7.637464013767271</v>
+        <v>7.637464013766991</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>3.01765644980344</v>
+        <v>3.017656449803212</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>30.47690467437513</v>
+        <v>30.47690467437519</v>
       </c>
     </row>
     <row r="39">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>14.17236626999795</v>
+        <v>14.17236626999818</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3746,16 +3746,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>8.241460800999391</v>
+        <v>8.241460800999619</v>
       </c>
       <c r="F41" t="n">
-        <v>34.33519518095459</v>
+        <v>34.33519518095394</v>
       </c>
       <c r="G41" t="n">
-        <v>34.33519518095459</v>
+        <v>34.33519518095394</v>
       </c>
       <c r="H41" t="n">
-        <v>26.74142122552928</v>
+        <v>26.74142122552945</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3767,7 +3767,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>8.172903420268426</v>
+        <v>8.172903420268373</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -3779,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>3.553095856304651</v>
+        <v>3.553095856304594</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.01234408087635</v>
+        <v>31.01234408087657</v>
       </c>
     </row>
     <row r="42">
@@ -3992,7 +3992,7 @@
         <v>31.20400382957661</v>
       </c>
       <c r="H44" t="n">
-        <v>26.93308097422954</v>
+        <v>26.93308097422948</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4004,7 +4004,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>8.364563168968683</v>
+        <v>8.364563168968289</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -4016,7 +4016,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>3.744755605004912</v>
+        <v>3.744755605004553</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13.47644610086753</v>
+        <v>11.91500726858654</v>
       </c>
       <c r="C11" t="n">
-        <v>20.21535672508193</v>
+        <v>18.65391789280235</v>
       </c>
       <c r="D11" t="n">
-        <v>26.95426734929632</v>
+        <v>25.39282851701817</v>
       </c>
       <c r="E11" t="n">
-        <v>21.17177185397508</v>
+        <v>18.51709071045171</v>
       </c>
       <c r="F11" t="n">
-        <v>14.29603404741004</v>
+        <v>11.64135290388522</v>
       </c>
       <c r="G11" t="n">
-        <v>7.420296240844996</v>
+        <v>7.420296240846556</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5445584342799515</v>
+        <v>0.544558434280066</v>
       </c>
       <c r="I11" t="n">
-        <v>6.20592771217872</v>
+        <v>6.20592771217922</v>
       </c>
       <c r="J11" t="n">
-        <v>6.505646523079307</v>
+        <v>12.94483833639504</v>
       </c>
       <c r="K11" t="n">
-        <v>13.24455714729371</v>
+        <v>13.24455714729427</v>
       </c>
       <c r="L11" t="n">
-        <v>6.368819340728662</v>
+        <v>6.368819340727782</v>
       </c>
       <c r="M11" t="n">
-        <v>6.416642925102666</v>
+        <v>6.416642925102281</v>
       </c>
       <c r="N11" t="n">
-        <v>8.517375502191657</v>
+        <v>8.517375502191957</v>
       </c>
       <c r="O11" t="n">
-        <v>7.566216583790935</v>
+        <v>7.566216583791903</v>
       </c>
       <c r="P11" t="n">
-        <v>0.6904787772258905</v>
+        <v>0.690478777225449</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.5445584342799515</v>
+        <v>0.544558434280066</v>
       </c>
       <c r="R11" t="n">
-        <v>2.441651486551962</v>
+        <v>2.441651486552473</v>
       </c>
       <c r="S11" t="n">
-        <v>7.011189841354376</v>
+        <v>7.011189841355927</v>
       </c>
       <c r="T11" t="n">
-        <v>13.75010046556878</v>
+        <v>13.75010046557174</v>
       </c>
       <c r="U11" t="n">
-        <v>20.48901108978318</v>
+        <v>20.48901108978748</v>
       </c>
       <c r="V11" t="n">
-        <v>27.22792171399757</v>
+        <v>20.48901108978748</v>
       </c>
       <c r="W11" t="n">
-        <v>27.22792171399757</v>
+        <v>27.2279217140033</v>
       </c>
       <c r="X11" t="n">
-        <v>27.22792171399757</v>
+        <v>25.66648288171951</v>
       </c>
       <c r="Y11" t="n">
-        <v>20.35218390743257</v>
+        <v>18.79074507515303</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5445584342799515</v>
+        <v>0.544558434280066</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5445584342799515</v>
+        <v>0.544558434280066</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5445584342799515</v>
+        <v>0.544558434280066</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5445584342799515</v>
+        <v>0.544558434280066</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5445584342799515</v>
+        <v>0.544558434280066</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5445584342799515</v>
+        <v>0.544558434280066</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5445584342799515</v>
+        <v>0.544558434280066</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5445584342799515</v>
+        <v>0.544558434280066</v>
       </c>
       <c r="J12" t="n">
-        <v>0.5445584342799515</v>
+        <v>0.544558434280066</v>
       </c>
       <c r="K12" t="n">
-        <v>0.5445584342799515</v>
+        <v>0.544558434280066</v>
       </c>
       <c r="L12" t="n">
-        <v>0.5445584342799515</v>
+        <v>0.544558434280066</v>
       </c>
       <c r="M12" t="n">
-        <v>0.5445584342799515</v>
+        <v>0.544558434280066</v>
       </c>
       <c r="N12" t="n">
-        <v>0.5445584342799515</v>
+        <v>0.544558434280066</v>
       </c>
       <c r="O12" t="n">
-        <v>0.5445584342799515</v>
+        <v>0.544558434280066</v>
       </c>
       <c r="P12" t="n">
-        <v>0.5445584342799515</v>
+        <v>0.544558434280066</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.5445584342799515</v>
+        <v>0.544558434280066</v>
       </c>
       <c r="R12" t="n">
-        <v>0.5445584342799515</v>
+        <v>0.544558434280066</v>
       </c>
       <c r="S12" t="n">
-        <v>0.5445584342799515</v>
+        <v>0.544558434280066</v>
       </c>
       <c r="T12" t="n">
-        <v>0.5445584342799515</v>
+        <v>0.544558434280066</v>
       </c>
       <c r="U12" t="n">
-        <v>0.5445584342799515</v>
+        <v>0.544558434280066</v>
       </c>
       <c r="V12" t="n">
-        <v>0.5445584342799515</v>
+        <v>0.544558434280066</v>
       </c>
       <c r="W12" t="n">
-        <v>0.5445584342799515</v>
+        <v>0.544558434280066</v>
       </c>
       <c r="X12" t="n">
-        <v>0.5445584342799515</v>
+        <v>0.544558434280066</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.5445584342799515</v>
+        <v>0.544558434280066</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5445584342799515</v>
+        <v>0.544558434280066</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5445584342799515</v>
+        <v>0.544558434280066</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5445584342799515</v>
+        <v>0.544558434280066</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5445584342799515</v>
+        <v>0.544558434280066</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5445584342799515</v>
+        <v>0.544558434280066</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5445584342799515</v>
+        <v>0.544558434280066</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5445584342799515</v>
+        <v>0.544558434280066</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5445584342799515</v>
+        <v>0.544558434280066</v>
       </c>
       <c r="J13" t="n">
-        <v>0.5445584342799515</v>
+        <v>0.544558434280066</v>
       </c>
       <c r="K13" t="n">
-        <v>0.5445584342799515</v>
+        <v>0.544558434280066</v>
       </c>
       <c r="L13" t="n">
-        <v>0.5445584342799515</v>
+        <v>0.544558434280066</v>
       </c>
       <c r="M13" t="n">
-        <v>0.5445584342799515</v>
+        <v>0.544558434280066</v>
       </c>
       <c r="N13" t="n">
-        <v>0.5445584342799515</v>
+        <v>0.544558434280066</v>
       </c>
       <c r="O13" t="n">
-        <v>0.5445584342799515</v>
+        <v>0.544558434280066</v>
       </c>
       <c r="P13" t="n">
-        <v>0.5445584342799515</v>
+        <v>0.544558434280066</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.5445584342799515</v>
+        <v>0.544558434280066</v>
       </c>
       <c r="R13" t="n">
-        <v>0.5445584342799515</v>
+        <v>0.544558434280066</v>
       </c>
       <c r="S13" t="n">
-        <v>0.5445584342799515</v>
+        <v>0.544558434280066</v>
       </c>
       <c r="T13" t="n">
-        <v>0.5445584342799515</v>
+        <v>0.544558434280066</v>
       </c>
       <c r="U13" t="n">
-        <v>0.5445584342799515</v>
+        <v>0.544558434280066</v>
       </c>
       <c r="V13" t="n">
-        <v>0.5445584342799515</v>
+        <v>0.544558434280066</v>
       </c>
       <c r="W13" t="n">
-        <v>0.5445584342799515</v>
+        <v>0.544558434280066</v>
       </c>
       <c r="X13" t="n">
-        <v>0.5445584342799515</v>
+        <v>0.544558434280066</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.5445584342799515</v>
+        <v>0.544558434280066</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>14.72155680505356</v>
+        <v>13.35371367852676</v>
       </c>
       <c r="C14" t="n">
-        <v>22.08308630741733</v>
+        <v>20.71524318089033</v>
       </c>
       <c r="D14" t="n">
-        <v>29.44461580978109</v>
+        <v>28.0767726832539</v>
       </c>
       <c r="E14" t="n">
-        <v>21.93361743985581</v>
+        <v>23.1278661806733</v>
       </c>
       <c r="F14" t="n">
-        <v>15.61686781074865</v>
+        <v>15.61686781074823</v>
       </c>
       <c r="G14" t="n">
-        <v>8.105869440823366</v>
+        <v>8.105869440823145</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5948710708980824</v>
+        <v>0.5948710708980662</v>
       </c>
       <c r="I14" t="n">
-        <v>6.445983500010072</v>
+        <v>6.445983500010129</v>
       </c>
       <c r="J14" t="n">
-        <v>13.80751300237384</v>
+        <v>8.794519418416485</v>
       </c>
       <c r="K14" t="n">
-        <v>14.08395529508945</v>
+        <v>16.13686428780348</v>
       </c>
       <c r="L14" t="n">
-        <v>6.57295692516402</v>
+        <v>8.6258659178784</v>
       </c>
       <c r="M14" t="n">
-        <v>6.57295692516402</v>
+        <v>8.863432653465805</v>
       </c>
       <c r="N14" t="n">
-        <v>8.863432653466251</v>
+        <v>8.863432653465805</v>
       </c>
       <c r="O14" t="n">
-        <v>8.105869440823366</v>
+        <v>8.105869440823145</v>
       </c>
       <c r="P14" t="n">
-        <v>0.5948710708980824</v>
+        <v>0.5948710708980662</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.5948710708980824</v>
+        <v>0.5948710708980662</v>
       </c>
       <c r="R14" t="n">
-        <v>0.5948710708980824</v>
+        <v>2.681707274383228</v>
       </c>
       <c r="S14" t="n">
-        <v>0.5948710708980824</v>
+        <v>2.681707274383228</v>
       </c>
       <c r="T14" t="n">
-        <v>7.956400573261853</v>
+        <v>7.658965037812607</v>
       </c>
       <c r="U14" t="n">
-        <v>15.02049454017658</v>
+        <v>15.02049454017617</v>
       </c>
       <c r="V14" t="n">
-        <v>22.38202404254035</v>
+        <v>22.38202404253974</v>
       </c>
       <c r="W14" t="n">
-        <v>29.74355354490412</v>
+        <v>29.74355354490331</v>
       </c>
       <c r="X14" t="n">
-        <v>29.74355354490412</v>
+        <v>28.37571041837692</v>
       </c>
       <c r="Y14" t="n">
-        <v>22.23255517497884</v>
+        <v>20.86471204845184</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.5948710708980824</v>
+        <v>0.5948710708980662</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5948710708980824</v>
+        <v>0.5948710708980662</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5948710708980824</v>
+        <v>0.5948710708980662</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5948710708980824</v>
+        <v>0.5948710708980662</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5948710708980824</v>
+        <v>0.5948710708980662</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5948710708980824</v>
+        <v>0.5948710708980662</v>
       </c>
       <c r="H15" t="n">
-        <v>0.5948710708980824</v>
+        <v>0.5948710708980662</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5948710708980824</v>
+        <v>0.5948710708980662</v>
       </c>
       <c r="J15" t="n">
-        <v>0.5948710708980824</v>
+        <v>0.5948710708980662</v>
       </c>
       <c r="K15" t="n">
-        <v>0.5948710708980824</v>
+        <v>0.5948710708980662</v>
       </c>
       <c r="L15" t="n">
-        <v>0.5948710708980824</v>
+        <v>0.5948710708980662</v>
       </c>
       <c r="M15" t="n">
-        <v>0.5948710708980824</v>
+        <v>0.5948710708980662</v>
       </c>
       <c r="N15" t="n">
-        <v>0.5948710708980824</v>
+        <v>0.5948710708980662</v>
       </c>
       <c r="O15" t="n">
-        <v>0.5948710708980824</v>
+        <v>0.5948710708980662</v>
       </c>
       <c r="P15" t="n">
-        <v>0.5948710708980824</v>
+        <v>0.5948710708980662</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.5948710708980824</v>
+        <v>0.5948710708980662</v>
       </c>
       <c r="R15" t="n">
-        <v>0.5948710708980824</v>
+        <v>0.5948710708980662</v>
       </c>
       <c r="S15" t="n">
-        <v>0.5948710708980824</v>
+        <v>0.5948710708980662</v>
       </c>
       <c r="T15" t="n">
-        <v>0.5948710708980824</v>
+        <v>0.5948710708980662</v>
       </c>
       <c r="U15" t="n">
-        <v>0.5948710708980824</v>
+        <v>0.5948710708980662</v>
       </c>
       <c r="V15" t="n">
-        <v>0.5948710708980824</v>
+        <v>0.5948710708980662</v>
       </c>
       <c r="W15" t="n">
-        <v>0.5948710708980824</v>
+        <v>0.5948710708980662</v>
       </c>
       <c r="X15" t="n">
-        <v>0.5948710708980824</v>
+        <v>0.5948710708980662</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.5948710708980824</v>
+        <v>0.5948710708980662</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.5948710708980824</v>
+        <v>0.5948710708980662</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5948710708980824</v>
+        <v>0.5948710708980662</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5948710708980824</v>
+        <v>0.5948710708980662</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5948710708980824</v>
+        <v>0.5948710708980662</v>
       </c>
       <c r="F16" t="n">
-        <v>0.5948710708980824</v>
+        <v>0.5948710708980662</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5948710708980824</v>
+        <v>0.5948710708980662</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5948710708980824</v>
+        <v>0.5948710708980662</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5948710708980824</v>
+        <v>0.5948710708980662</v>
       </c>
       <c r="J16" t="n">
-        <v>0.5948710708980824</v>
+        <v>0.5948710708980662</v>
       </c>
       <c r="K16" t="n">
-        <v>0.5948710708980824</v>
+        <v>0.5948710708980662</v>
       </c>
       <c r="L16" t="n">
-        <v>0.5948710708980824</v>
+        <v>0.5948710708980662</v>
       </c>
       <c r="M16" t="n">
-        <v>0.5948710708980824</v>
+        <v>0.5948710708980662</v>
       </c>
       <c r="N16" t="n">
-        <v>0.5948710708980824</v>
+        <v>0.5948710708980662</v>
       </c>
       <c r="O16" t="n">
-        <v>0.5948710708980824</v>
+        <v>0.5948710708980662</v>
       </c>
       <c r="P16" t="n">
-        <v>0.5948710708980824</v>
+        <v>0.5948710708980662</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.5948710708980824</v>
+        <v>0.5948710708980662</v>
       </c>
       <c r="R16" t="n">
-        <v>0.5948710708980824</v>
+        <v>0.5948710708980662</v>
       </c>
       <c r="S16" t="n">
-        <v>0.5948710708980824</v>
+        <v>0.5948710708980662</v>
       </c>
       <c r="T16" t="n">
-        <v>0.5948710708980824</v>
+        <v>0.5948710708980662</v>
       </c>
       <c r="U16" t="n">
-        <v>0.5948710708980824</v>
+        <v>0.5948710708980662</v>
       </c>
       <c r="V16" t="n">
-        <v>0.5948710708980824</v>
+        <v>0.5948710708980662</v>
       </c>
       <c r="W16" t="n">
-        <v>0.5948710708980824</v>
+        <v>0.5948710708980662</v>
       </c>
       <c r="X16" t="n">
-        <v>0.5948710708980824</v>
+        <v>0.5948710708980662</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.5948710708980824</v>
+        <v>0.5948710708980662</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>28.64839502733199</v>
+        <v>31.23122776438512</v>
       </c>
       <c r="C17" t="n">
-        <v>44.67005070481981</v>
+        <v>47.25288344187306</v>
       </c>
       <c r="D17" t="n">
-        <v>60.69170638230763</v>
+        <v>63.27453911936099</v>
       </c>
       <c r="E17" t="n">
-        <v>50.33555980218397</v>
+        <v>52.91839253923716</v>
       </c>
       <c r="F17" t="n">
-        <v>33.9885996170112</v>
+        <v>36.57143235406429</v>
       </c>
       <c r="G17" t="n">
-        <v>17.64163943183845</v>
+        <v>20.22447216889141</v>
       </c>
       <c r="H17" t="n">
-        <v>1.294679246665682</v>
+        <v>3.877511983718534</v>
       </c>
       <c r="I17" t="n">
-        <v>1.294679246665682</v>
+        <v>11.58157594726293</v>
       </c>
       <c r="J17" t="n">
-        <v>17.31633492415351</v>
+        <v>11.58157594726293</v>
       </c>
       <c r="K17" t="n">
-        <v>26.51163132797306</v>
+        <v>11.58157594726293</v>
       </c>
       <c r="L17" t="n">
-        <v>16.22473462737552</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="M17" t="n">
-        <v>16.22473462737552</v>
+        <v>2.771676397695678</v>
       </c>
       <c r="N17" t="n">
-        <v>16.22473462737552</v>
+        <v>6.915103660430873</v>
       </c>
       <c r="O17" t="n">
-        <v>16.22473462737552</v>
+        <v>6.915103660430873</v>
       </c>
       <c r="P17" t="n">
-        <v>10.60431021361016</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="Q17" t="n">
-        <v>10.60431021361016</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="R17" t="n">
-        <v>10.60431021361016</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="S17" t="n">
-        <v>26.62596589109798</v>
+        <v>17.31633492415363</v>
       </c>
       <c r="T17" t="n">
-        <v>28.78667555657835</v>
+        <v>33.33799060164156</v>
       </c>
       <c r="U17" t="n">
-        <v>44.80833123406617</v>
+        <v>47.39116397111948</v>
       </c>
       <c r="V17" t="n">
-        <v>60.82998691155397</v>
+        <v>47.39116397111948</v>
       </c>
       <c r="W17" t="n">
-        <v>60.82998691155397</v>
+        <v>63.41281964860742</v>
       </c>
       <c r="X17" t="n">
-        <v>61.34231539767805</v>
+        <v>63.92514813473088</v>
       </c>
       <c r="Y17" t="n">
-        <v>44.99535521250475</v>
+        <v>47.578187949558</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.294679246665682</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="C18" t="n">
-        <v>1.294679246665682</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="D18" t="n">
-        <v>1.294679246665682</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="E18" t="n">
-        <v>1.294679246665682</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="F18" t="n">
-        <v>1.294679246665682</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="G18" t="n">
-        <v>1.294679246665682</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="H18" t="n">
-        <v>1.294679246665682</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="I18" t="n">
-        <v>1.294679246665682</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="J18" t="n">
-        <v>1.294679246665682</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="K18" t="n">
-        <v>1.294679246665682</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="L18" t="n">
-        <v>1.294679246665682</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="M18" t="n">
-        <v>1.294679246665682</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="N18" t="n">
-        <v>1.294679246665682</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="O18" t="n">
-        <v>1.294679246665682</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="P18" t="n">
-        <v>1.294679246665682</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.294679246665682</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="R18" t="n">
-        <v>1.294679246665682</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="S18" t="n">
-        <v>1.294679246665682</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="T18" t="n">
-        <v>1.294679246665682</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="U18" t="n">
-        <v>1.294679246665682</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="V18" t="n">
-        <v>1.294679246665682</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="W18" t="n">
-        <v>1.294679246665682</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="X18" t="n">
-        <v>1.294679246665682</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.294679246665682</v>
+        <v>1.294679246665692</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.294679246665682</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="C19" t="n">
-        <v>1.294679246665682</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="D19" t="n">
-        <v>1.294679246665682</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="E19" t="n">
-        <v>1.294679246665682</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="F19" t="n">
-        <v>1.294679246665682</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="G19" t="n">
-        <v>1.294679246665682</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="H19" t="n">
-        <v>1.294679246665682</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="I19" t="n">
-        <v>1.294679246665682</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="J19" t="n">
-        <v>1.294679246665682</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="K19" t="n">
-        <v>1.294679246665682</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="L19" t="n">
-        <v>1.294679246665682</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="M19" t="n">
-        <v>1.294679246665682</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="N19" t="n">
-        <v>1.294679246665682</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="O19" t="n">
-        <v>1.294679246665682</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="P19" t="n">
-        <v>1.294679246665682</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.294679246665682</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="R19" t="n">
-        <v>1.294679246665682</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="S19" t="n">
-        <v>1.294679246665682</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="T19" t="n">
-        <v>1.294679246665682</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="U19" t="n">
-        <v>1.294679246665682</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="V19" t="n">
-        <v>1.294679246665682</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="W19" t="n">
-        <v>1.294679246665682</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="X19" t="n">
-        <v>1.294679246665682</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.294679246665682</v>
+        <v>1.294679246665692</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>37.12754976622512</v>
+        <v>41.81442441454817</v>
       </c>
       <c r="C20" t="n">
-        <v>50.89668862265945</v>
+        <v>60.93595952990029</v>
       </c>
       <c r="D20" t="n">
-        <v>70.01822373801151</v>
+        <v>70.01822373801019</v>
       </c>
       <c r="E20" t="n">
-        <v>60.07451375083367</v>
+        <v>60.07451375083205</v>
       </c>
       <c r="F20" t="n">
-        <v>40.56473401881443</v>
+        <v>40.56473401881334</v>
       </c>
       <c r="G20" t="n">
-        <v>21.05495428679518</v>
+        <v>21.0549542867946</v>
       </c>
       <c r="H20" t="n">
-        <v>1.545174554775925</v>
+        <v>1.545174554775882</v>
       </c>
       <c r="I20" t="n">
-        <v>9.653467623066645</v>
+        <v>1.545174554775882</v>
       </c>
       <c r="J20" t="n">
-        <v>28.77500273841867</v>
+        <v>17.62172300434553</v>
       </c>
       <c r="K20" t="n">
-        <v>28.77500273841867</v>
+        <v>27.22124851291125</v>
       </c>
       <c r="L20" t="n">
-        <v>18.90054263076699</v>
+        <v>17.3467884052596</v>
       </c>
       <c r="M20" t="n">
-        <v>18.90054263076699</v>
+        <v>19.84153578002561</v>
       </c>
       <c r="N20" t="n">
-        <v>18.90054263076699</v>
+        <v>19.84153578002561</v>
       </c>
       <c r="O20" t="n">
-        <v>20.4152355652344</v>
+        <v>19.84153578002561</v>
       </c>
       <c r="P20" t="n">
-        <v>15.2072477444148</v>
+        <v>14.63354795920606</v>
       </c>
       <c r="Q20" t="n">
-        <v>15.2072477444148</v>
+        <v>14.63354795920606</v>
       </c>
       <c r="R20" t="n">
-        <v>15.2072477444148</v>
+        <v>18.97756480186947</v>
       </c>
       <c r="S20" t="n">
-        <v>34.32878285976687</v>
+        <v>18.97756480186947</v>
       </c>
       <c r="T20" t="n">
-        <v>34.32878285976687</v>
+        <v>38.09909991722101</v>
       </c>
       <c r="U20" t="n">
-        <v>34.32878285976687</v>
+        <v>57.22063503257256</v>
       </c>
       <c r="V20" t="n">
-        <v>53.45031797511894</v>
+        <v>57.22063503257256</v>
       </c>
       <c r="W20" t="n">
-        <v>72.57185309047129</v>
+        <v>76.34217014792411</v>
       </c>
       <c r="X20" t="n">
-        <v>72.57185309047129</v>
+        <v>77.25872773879412</v>
       </c>
       <c r="Y20" t="n">
-        <v>53.06207335845205</v>
+        <v>57.74894800677538</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.545174554775925</v>
+        <v>1.545174554775882</v>
       </c>
       <c r="C21" t="n">
-        <v>1.545174554775925</v>
+        <v>1.545174554775882</v>
       </c>
       <c r="D21" t="n">
-        <v>1.545174554775925</v>
+        <v>1.545174554775882</v>
       </c>
       <c r="E21" t="n">
-        <v>1.545174554775925</v>
+        <v>1.545174554775882</v>
       </c>
       <c r="F21" t="n">
-        <v>1.545174554775925</v>
+        <v>1.545174554775882</v>
       </c>
       <c r="G21" t="n">
-        <v>1.545174554775925</v>
+        <v>1.545174554775882</v>
       </c>
       <c r="H21" t="n">
-        <v>1.545174554775925</v>
+        <v>1.545174554775882</v>
       </c>
       <c r="I21" t="n">
-        <v>1.545174554775925</v>
+        <v>1.545174554775882</v>
       </c>
       <c r="J21" t="n">
-        <v>1.545174554775925</v>
+        <v>1.545174554775882</v>
       </c>
       <c r="K21" t="n">
-        <v>1.545174554775925</v>
+        <v>1.545174554775882</v>
       </c>
       <c r="L21" t="n">
-        <v>1.545174554775925</v>
+        <v>1.545174554775882</v>
       </c>
       <c r="M21" t="n">
-        <v>1.545174554775925</v>
+        <v>1.545174554775882</v>
       </c>
       <c r="N21" t="n">
-        <v>1.545174554775925</v>
+        <v>1.545174554775882</v>
       </c>
       <c r="O21" t="n">
-        <v>1.545174554775925</v>
+        <v>1.545174554775882</v>
       </c>
       <c r="P21" t="n">
-        <v>1.545174554775925</v>
+        <v>1.545174554775882</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.545174554775925</v>
+        <v>1.545174554775882</v>
       </c>
       <c r="R21" t="n">
-        <v>1.545174554775925</v>
+        <v>1.545174554775882</v>
       </c>
       <c r="S21" t="n">
-        <v>1.545174554775925</v>
+        <v>1.545174554775882</v>
       </c>
       <c r="T21" t="n">
-        <v>1.545174554775925</v>
+        <v>1.545174554775882</v>
       </c>
       <c r="U21" t="n">
-        <v>1.545174554775925</v>
+        <v>1.545174554775882</v>
       </c>
       <c r="V21" t="n">
-        <v>1.545174554775925</v>
+        <v>1.545174554775882</v>
       </c>
       <c r="W21" t="n">
-        <v>1.545174554775925</v>
+        <v>1.545174554775882</v>
       </c>
       <c r="X21" t="n">
-        <v>1.545174554775925</v>
+        <v>1.545174554775882</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.545174554775925</v>
+        <v>1.545174554775882</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.545174554775925</v>
+        <v>1.545174554775882</v>
       </c>
       <c r="C22" t="n">
-        <v>1.545174554775925</v>
+        <v>1.545174554775882</v>
       </c>
       <c r="D22" t="n">
-        <v>1.545174554775925</v>
+        <v>1.545174554775882</v>
       </c>
       <c r="E22" t="n">
-        <v>1.545174554775925</v>
+        <v>1.545174554775882</v>
       </c>
       <c r="F22" t="n">
-        <v>1.545174554775925</v>
+        <v>1.545174554775882</v>
       </c>
       <c r="G22" t="n">
-        <v>1.545174554775925</v>
+        <v>1.545174554775882</v>
       </c>
       <c r="H22" t="n">
-        <v>1.545174554775925</v>
+        <v>1.545174554775882</v>
       </c>
       <c r="I22" t="n">
-        <v>1.545174554775925</v>
+        <v>1.545174554775882</v>
       </c>
       <c r="J22" t="n">
-        <v>1.545174554775925</v>
+        <v>1.545174554775882</v>
       </c>
       <c r="K22" t="n">
-        <v>1.545174554775925</v>
+        <v>1.545174554775882</v>
       </c>
       <c r="L22" t="n">
-        <v>1.545174554775925</v>
+        <v>1.545174554775882</v>
       </c>
       <c r="M22" t="n">
-        <v>1.545174554775925</v>
+        <v>1.545174554775882</v>
       </c>
       <c r="N22" t="n">
-        <v>1.545174554775925</v>
+        <v>1.545174554775882</v>
       </c>
       <c r="O22" t="n">
-        <v>1.545174554775925</v>
+        <v>1.545174554775882</v>
       </c>
       <c r="P22" t="n">
-        <v>1.545174554775925</v>
+        <v>1.545174554775882</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.545174554775925</v>
+        <v>1.545174554775882</v>
       </c>
       <c r="R22" t="n">
-        <v>1.545174554775925</v>
+        <v>1.545174554775882</v>
       </c>
       <c r="S22" t="n">
-        <v>1.545174554775925</v>
+        <v>1.545174554775882</v>
       </c>
       <c r="T22" t="n">
-        <v>1.545174554775925</v>
+        <v>1.545174554775882</v>
       </c>
       <c r="U22" t="n">
-        <v>1.545174554775925</v>
+        <v>1.545174554775882</v>
       </c>
       <c r="V22" t="n">
-        <v>1.545174554775925</v>
+        <v>1.545174554775882</v>
       </c>
       <c r="W22" t="n">
-        <v>1.545174554775925</v>
+        <v>1.545174554775882</v>
       </c>
       <c r="X22" t="n">
-        <v>1.545174554775925</v>
+        <v>1.545174554775882</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.545174554775925</v>
+        <v>1.545174554775882</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>51.96804997490226</v>
+        <v>49.24174873219644</v>
       </c>
       <c r="C23" t="n">
-        <v>73.09248521544986</v>
+        <v>70.3661839727441</v>
       </c>
       <c r="D23" t="n">
-        <v>103.9844490067301</v>
+        <v>101.2581477640249</v>
       </c>
       <c r="E23" t="n">
-        <v>95.46614542117487</v>
+        <v>92.73984417846974</v>
       </c>
       <c r="F23" t="n">
-        <v>63.94694963372375</v>
+        <v>61.22064839101868</v>
       </c>
       <c r="G23" t="n">
-        <v>32.42775384627262</v>
+        <v>29.70145260356756</v>
       </c>
       <c r="H23" t="n">
-        <v>5.222621549071064</v>
+        <v>2.496320306366124</v>
       </c>
       <c r="I23" t="n">
-        <v>14.72795543159203</v>
+        <v>2.496320306366124</v>
       </c>
       <c r="J23" t="n">
-        <v>14.72795543159203</v>
+        <v>2.496320306366124</v>
       </c>
       <c r="K23" t="n">
-        <v>14.72795543159203</v>
+        <v>13.49288662916255</v>
       </c>
       <c r="L23" t="n">
-        <v>6.27890172556301</v>
+        <v>5.043832923133914</v>
       </c>
       <c r="M23" t="n">
-        <v>6.27890172556301</v>
+        <v>8.935621112130514</v>
       </c>
       <c r="N23" t="n">
-        <v>6.27890172556301</v>
+        <v>14.88031829384209</v>
       </c>
       <c r="O23" t="n">
-        <v>6.27890172556301</v>
+        <v>14.88031829384209</v>
       </c>
       <c r="P23" t="n">
-        <v>2.496320306366129</v>
+        <v>11.09773687464556</v>
       </c>
       <c r="Q23" t="n">
-        <v>6.197268382867151</v>
+        <v>14.79868495114684</v>
       </c>
       <c r="R23" t="n">
-        <v>7.373424615327753</v>
+        <v>20.5397426080414</v>
       </c>
       <c r="S23" t="n">
-        <v>7.373424615327753</v>
+        <v>51.43170639932218</v>
       </c>
       <c r="T23" t="n">
-        <v>7.373424615327753</v>
+        <v>51.43170639932218</v>
       </c>
       <c r="U23" t="n">
-        <v>38.26538840660859</v>
+        <v>82.32367019060297</v>
       </c>
       <c r="V23" t="n">
-        <v>69.15735219788944</v>
+        <v>82.32367019060297</v>
       </c>
       <c r="W23" t="n">
-        <v>95.68276454785699</v>
+        <v>92.95646330515302</v>
       </c>
       <c r="X23" t="n">
-        <v>97.99636295295765</v>
+        <v>95.27006171025374</v>
       </c>
       <c r="Y23" t="n">
-        <v>66.47716716550651</v>
+        <v>63.75086592280067</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366124</v>
       </c>
       <c r="C24" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366124</v>
       </c>
       <c r="D24" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366124</v>
       </c>
       <c r="E24" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366124</v>
       </c>
       <c r="F24" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366124</v>
       </c>
       <c r="G24" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366124</v>
       </c>
       <c r="H24" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366124</v>
       </c>
       <c r="I24" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366124</v>
       </c>
       <c r="J24" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366124</v>
       </c>
       <c r="K24" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366124</v>
       </c>
       <c r="L24" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366124</v>
       </c>
       <c r="M24" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366124</v>
       </c>
       <c r="N24" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366124</v>
       </c>
       <c r="O24" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366124</v>
       </c>
       <c r="P24" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366124</v>
       </c>
       <c r="R24" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366124</v>
       </c>
       <c r="S24" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366124</v>
       </c>
       <c r="T24" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366124</v>
       </c>
       <c r="U24" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366124</v>
       </c>
       <c r="V24" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366124</v>
       </c>
       <c r="W24" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366124</v>
       </c>
       <c r="X24" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366124</v>
       </c>
       <c r="Y24" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366124</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366124</v>
       </c>
       <c r="C25" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366124</v>
       </c>
       <c r="D25" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366124</v>
       </c>
       <c r="E25" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366124</v>
       </c>
       <c r="F25" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366124</v>
       </c>
       <c r="G25" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366124</v>
       </c>
       <c r="H25" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366124</v>
       </c>
       <c r="I25" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366124</v>
       </c>
       <c r="J25" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366124</v>
       </c>
       <c r="K25" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366124</v>
       </c>
       <c r="L25" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366124</v>
       </c>
       <c r="M25" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366124</v>
       </c>
       <c r="N25" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366124</v>
       </c>
       <c r="O25" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366124</v>
       </c>
       <c r="P25" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366124</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366124</v>
       </c>
       <c r="R25" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366124</v>
       </c>
       <c r="S25" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366124</v>
       </c>
       <c r="T25" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366124</v>
       </c>
       <c r="U25" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366124</v>
       </c>
       <c r="V25" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366124</v>
       </c>
       <c r="W25" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366124</v>
       </c>
       <c r="X25" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366124</v>
       </c>
       <c r="Y25" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366124</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>57.69080243822845</v>
+        <v>78.78770234025114</v>
       </c>
       <c r="C26" t="n">
-        <v>78.81523767877621</v>
+        <v>99.91213758079869</v>
       </c>
       <c r="D26" t="n">
-        <v>109.7072014700537</v>
+        <v>101.2581477640253</v>
       </c>
       <c r="E26" t="n">
-        <v>101.1888978844987</v>
+        <v>92.73984417847005</v>
       </c>
       <c r="F26" t="n">
-        <v>69.66970209704753</v>
+        <v>61.22064839101887</v>
       </c>
       <c r="G26" t="n">
-        <v>38.15050630959641</v>
+        <v>29.70145260356769</v>
       </c>
       <c r="H26" t="n">
-        <v>10.94537401239497</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="I26" t="n">
-        <v>10.94537401239497</v>
+        <v>12.00165418888726</v>
       </c>
       <c r="J26" t="n">
-        <v>10.94537401239497</v>
+        <v>12.00165418888726</v>
       </c>
       <c r="K26" t="n">
-        <v>10.94537401239497</v>
+        <v>22.9982205116836</v>
       </c>
       <c r="L26" t="n">
-        <v>2.496320306366129</v>
+        <v>14.54916680565481</v>
       </c>
       <c r="M26" t="n">
-        <v>6.388108495362501</v>
+        <v>18.4409549946516</v>
       </c>
       <c r="N26" t="n">
-        <v>12.33280567707397</v>
+        <v>18.4409549946516</v>
       </c>
       <c r="O26" t="n">
-        <v>15.24453942577188</v>
+        <v>18.4409549946516</v>
       </c>
       <c r="P26" t="n">
-        <v>11.46195800657509</v>
+        <v>14.65837357545495</v>
       </c>
       <c r="Q26" t="n">
-        <v>11.46195800657509</v>
+        <v>14.65837357545495</v>
       </c>
       <c r="R26" t="n">
-        <v>11.46195800657509</v>
+        <v>14.65837357545495</v>
       </c>
       <c r="S26" t="n">
-        <v>11.46195800657509</v>
+        <v>34.19307698067676</v>
       </c>
       <c r="T26" t="n">
-        <v>42.35392179785593</v>
+        <v>34.19307698067676</v>
       </c>
       <c r="U26" t="n">
-        <v>73.24588558913678</v>
+        <v>65.08504077195767</v>
       </c>
       <c r="V26" t="n">
-        <v>101.4055170111827</v>
+        <v>95.97700456323855</v>
       </c>
       <c r="W26" t="n">
-        <v>101.4055170111827</v>
+        <v>122.502416913206</v>
       </c>
       <c r="X26" t="n">
-        <v>103.7191154162835</v>
+        <v>124.8160153183067</v>
       </c>
       <c r="Y26" t="n">
-        <v>72.19991962883256</v>
+        <v>93.29681953085546</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="C27" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="D27" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="E27" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="F27" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="G27" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="H27" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="I27" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="J27" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="K27" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="L27" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="M27" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="N27" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="O27" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="P27" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="R27" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="S27" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="T27" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="U27" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="V27" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="W27" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="X27" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="Y27" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="C28" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="D28" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="E28" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="F28" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="G28" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="H28" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="I28" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="J28" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="K28" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="L28" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="M28" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="N28" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="O28" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="P28" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="R28" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="S28" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="T28" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="U28" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="V28" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="W28" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="X28" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="Y28" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>78.7877023402508</v>
+        <v>78.78770234025114</v>
       </c>
       <c r="C29" t="n">
-        <v>99.91213758079851</v>
+        <v>99.91213758079869</v>
       </c>
       <c r="D29" t="n">
-        <v>101.2581477640249</v>
+        <v>101.2581477640255</v>
       </c>
       <c r="E29" t="n">
-        <v>92.73984417846981</v>
+        <v>92.73984417847011</v>
       </c>
       <c r="F29" t="n">
-        <v>61.22064839101869</v>
+        <v>61.22064839101893</v>
       </c>
       <c r="G29" t="n">
-        <v>29.70145260356757</v>
+        <v>29.70145260356769</v>
       </c>
       <c r="H29" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="I29" t="n">
-        <v>12.00165418888746</v>
+        <v>12.00165418888715</v>
       </c>
       <c r="J29" t="n">
-        <v>12.00165418888746</v>
+        <v>12.00165418888715</v>
       </c>
       <c r="K29" t="n">
-        <v>22.99822051168371</v>
+        <v>22.99822051168348</v>
       </c>
       <c r="L29" t="n">
-        <v>14.54916680565479</v>
+        <v>14.54916680565469</v>
       </c>
       <c r="M29" t="n">
-        <v>14.54916680565479</v>
+        <v>18.44095499465118</v>
       </c>
       <c r="N29" t="n">
-        <v>14.54916680565479</v>
+        <v>18.44095499465118</v>
       </c>
       <c r="O29" t="n">
-        <v>14.54916680565479</v>
+        <v>21.35268874334927</v>
       </c>
       <c r="P29" t="n">
-        <v>10.7665853864579</v>
+        <v>17.57010732415262</v>
       </c>
       <c r="Q29" t="n">
-        <v>14.46753346295907</v>
+        <v>21.27105540065372</v>
       </c>
       <c r="R29" t="n">
-        <v>20.20859111985351</v>
+        <v>27.0121130575481</v>
       </c>
       <c r="S29" t="n">
-        <v>51.10055491113435</v>
+        <v>27.0121130575481</v>
       </c>
       <c r="T29" t="n">
-        <v>81.99251870241504</v>
+        <v>57.90407684882899</v>
       </c>
       <c r="U29" t="n">
-        <v>81.99251870241504</v>
+        <v>65.08504077195735</v>
       </c>
       <c r="V29" t="n">
-        <v>112.8844824936959</v>
+        <v>95.97700456323825</v>
       </c>
       <c r="W29" t="n">
-        <v>122.5024169132056</v>
+        <v>122.502416913206</v>
       </c>
       <c r="X29" t="n">
-        <v>124.8160153183064</v>
+        <v>124.8160153183067</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.29681953085498</v>
+        <v>93.29681953085546</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="C30" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="D30" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="E30" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="F30" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="G30" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="H30" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="I30" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="J30" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="K30" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="L30" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="M30" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="N30" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="O30" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="P30" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="R30" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="S30" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="T30" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="U30" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="V30" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="W30" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="X30" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="Y30" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="C31" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="D31" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="E31" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="F31" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="G31" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="H31" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="I31" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="J31" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="K31" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="L31" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="M31" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="N31" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="O31" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="P31" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="R31" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="S31" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="T31" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="U31" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="V31" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="W31" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="X31" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
       <c r="Y31" t="n">
-        <v>2.496320306366129</v>
+        <v>2.496320306366133</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>123.1613073314999</v>
+        <v>79.1760169402863</v>
       </c>
       <c r="C32" t="n">
-        <v>139.4345004538039</v>
+        <v>101.4708784511274</v>
       </c>
       <c r="D32" t="n">
-        <v>139.4345004538039</v>
+        <v>139.4345004538033</v>
       </c>
       <c r="E32" t="n">
-        <v>132.1103875327662</v>
+        <v>132.1103875327656</v>
       </c>
       <c r="F32" t="n">
-        <v>81.08141201329617</v>
+        <v>81.08141201329582</v>
       </c>
       <c r="G32" t="n">
-        <v>30.05243649382612</v>
+        <v>30.05243649382604</v>
       </c>
       <c r="H32" t="n">
-        <v>4.041494861142024</v>
+        <v>4.041494861142007</v>
       </c>
       <c r="I32" t="n">
-        <v>4.041494861142024</v>
+        <v>11.29635790265324</v>
       </c>
       <c r="J32" t="n">
-        <v>54.05499376777456</v>
+        <v>11.29635790265324</v>
       </c>
       <c r="K32" t="n">
-        <v>66.22198636086414</v>
+        <v>11.29635790265324</v>
       </c>
       <c r="L32" t="n">
-        <v>58.96712331935257</v>
+        <v>4.041494861142007</v>
       </c>
       <c r="M32" t="n">
-        <v>58.96712331935257</v>
+        <v>9.103709320432134</v>
       </c>
       <c r="N32" t="n">
-        <v>58.96712331935257</v>
+        <v>9.103709320432134</v>
       </c>
       <c r="O32" t="n">
-        <v>58.96712331935257</v>
+        <v>13.18586933942373</v>
       </c>
       <c r="P32" t="n">
-        <v>56.37873256467315</v>
+        <v>10.5974785847446</v>
       </c>
       <c r="Q32" t="n">
-        <v>56.37873256467315</v>
+        <v>15.4688529315394</v>
       </c>
       <c r="R32" t="n">
-        <v>63.29021649186105</v>
+        <v>15.4688529315394</v>
       </c>
       <c r="S32" t="n">
-        <v>63.29021649186105</v>
+        <v>65.48235183817141</v>
       </c>
       <c r="T32" t="n">
-        <v>113.3037153984936</v>
+        <v>65.48235183817141</v>
       </c>
       <c r="U32" t="n">
-        <v>163.3172143051261</v>
+        <v>65.48235183817141</v>
       </c>
       <c r="V32" t="n">
-        <v>163.3172143051261</v>
+        <v>95.12010996904567</v>
       </c>
       <c r="W32" t="n">
-        <v>163.3172143051261</v>
+        <v>122.8159485893068</v>
       </c>
       <c r="X32" t="n">
-        <v>166.8012389805203</v>
+        <v>122.8159485893068</v>
       </c>
       <c r="Y32" t="n">
-        <v>136.4762338575867</v>
+        <v>92.49094346637312</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4.041494861142024</v>
+        <v>4.041494861142007</v>
       </c>
       <c r="C33" t="n">
-        <v>4.041494861142024</v>
+        <v>4.041494861142007</v>
       </c>
       <c r="D33" t="n">
-        <v>4.041494861142024</v>
+        <v>4.041494861142007</v>
       </c>
       <c r="E33" t="n">
-        <v>4.041494861142024</v>
+        <v>4.041494861142007</v>
       </c>
       <c r="F33" t="n">
-        <v>4.041494861142024</v>
+        <v>4.041494861142007</v>
       </c>
       <c r="G33" t="n">
-        <v>4.041494861142024</v>
+        <v>4.041494861142007</v>
       </c>
       <c r="H33" t="n">
-        <v>4.041494861142024</v>
+        <v>4.041494861142007</v>
       </c>
       <c r="I33" t="n">
-        <v>4.041494861142024</v>
+        <v>4.041494861142007</v>
       </c>
       <c r="J33" t="n">
-        <v>4.041494861142024</v>
+        <v>4.041494861142007</v>
       </c>
       <c r="K33" t="n">
-        <v>4.041494861142024</v>
+        <v>4.041494861142007</v>
       </c>
       <c r="L33" t="n">
-        <v>4.041494861142024</v>
+        <v>4.041494861142007</v>
       </c>
       <c r="M33" t="n">
-        <v>4.041494861142024</v>
+        <v>4.041494861142007</v>
       </c>
       <c r="N33" t="n">
-        <v>4.041494861142024</v>
+        <v>4.041494861142007</v>
       </c>
       <c r="O33" t="n">
-        <v>4.041494861142024</v>
+        <v>4.041494861142007</v>
       </c>
       <c r="P33" t="n">
-        <v>4.041494861142024</v>
+        <v>4.041494861142007</v>
       </c>
       <c r="Q33" t="n">
-        <v>4.041494861142024</v>
+        <v>4.041494861142007</v>
       </c>
       <c r="R33" t="n">
-        <v>4.041494861142024</v>
+        <v>4.041494861142007</v>
       </c>
       <c r="S33" t="n">
-        <v>4.041494861142024</v>
+        <v>4.041494861142007</v>
       </c>
       <c r="T33" t="n">
-        <v>4.041494861142024</v>
+        <v>4.041494861142007</v>
       </c>
       <c r="U33" t="n">
-        <v>4.041494861142024</v>
+        <v>4.041494861142007</v>
       </c>
       <c r="V33" t="n">
-        <v>4.041494861142024</v>
+        <v>4.041494861142007</v>
       </c>
       <c r="W33" t="n">
-        <v>4.041494861142024</v>
+        <v>4.041494861142007</v>
       </c>
       <c r="X33" t="n">
-        <v>4.041494861142024</v>
+        <v>4.041494861142007</v>
       </c>
       <c r="Y33" t="n">
-        <v>4.041494861142024</v>
+        <v>4.041494861142007</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4.041494861142024</v>
+        <v>4.041494861142007</v>
       </c>
       <c r="C34" t="n">
-        <v>4.041494861142024</v>
+        <v>4.041494861142007</v>
       </c>
       <c r="D34" t="n">
-        <v>4.041494861142024</v>
+        <v>4.041494861142007</v>
       </c>
       <c r="E34" t="n">
-        <v>4.041494861142024</v>
+        <v>4.041494861142007</v>
       </c>
       <c r="F34" t="n">
-        <v>4.041494861142024</v>
+        <v>4.041494861142007</v>
       </c>
       <c r="G34" t="n">
-        <v>4.041494861142024</v>
+        <v>4.041494861142007</v>
       </c>
       <c r="H34" t="n">
-        <v>4.041494861142024</v>
+        <v>4.041494861142007</v>
       </c>
       <c r="I34" t="n">
-        <v>4.041494861142024</v>
+        <v>4.041494861142007</v>
       </c>
       <c r="J34" t="n">
-        <v>4.041494861142024</v>
+        <v>4.041494861142007</v>
       </c>
       <c r="K34" t="n">
-        <v>4.041494861142024</v>
+        <v>4.041494861142007</v>
       </c>
       <c r="L34" t="n">
-        <v>4.041494861142024</v>
+        <v>4.041494861142007</v>
       </c>
       <c r="M34" t="n">
-        <v>4.041494861142024</v>
+        <v>4.041494861142007</v>
       </c>
       <c r="N34" t="n">
-        <v>4.041494861142024</v>
+        <v>4.041494861142007</v>
       </c>
       <c r="O34" t="n">
-        <v>4.041494861142024</v>
+        <v>4.041494861142007</v>
       </c>
       <c r="P34" t="n">
-        <v>4.041494861142024</v>
+        <v>4.041494861142007</v>
       </c>
       <c r="Q34" t="n">
-        <v>4.041494861142024</v>
+        <v>4.041494861142007</v>
       </c>
       <c r="R34" t="n">
-        <v>4.041494861142024</v>
+        <v>4.041494861142007</v>
       </c>
       <c r="S34" t="n">
-        <v>4.041494861142024</v>
+        <v>4.041494861142007</v>
       </c>
       <c r="T34" t="n">
-        <v>4.041494861142024</v>
+        <v>4.041494861142007</v>
       </c>
       <c r="U34" t="n">
-        <v>4.041494861142024</v>
+        <v>4.041494861142007</v>
       </c>
       <c r="V34" t="n">
-        <v>4.041494861142024</v>
+        <v>4.041494861142007</v>
       </c>
       <c r="W34" t="n">
-        <v>4.041494861142024</v>
+        <v>4.041494861142007</v>
       </c>
       <c r="X34" t="n">
-        <v>4.041494861142024</v>
+        <v>4.041494861142007</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.041494861142024</v>
+        <v>4.041494861142007</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>66.5133142882608</v>
+        <v>88.4039466943518</v>
       </c>
       <c r="C35" t="n">
-        <v>88.40394669435578</v>
+        <v>88.4039466943518</v>
       </c>
       <c r="D35" t="n">
-        <v>125.9633395922855</v>
+        <v>125.9633395922817</v>
       </c>
       <c r="E35" t="n">
-        <v>118.2267900783019</v>
+        <v>118.2267900782983</v>
       </c>
       <c r="F35" t="n">
-        <v>74.07355236539695</v>
+        <v>74.07355236539496</v>
       </c>
       <c r="G35" t="n">
-        <v>29.920314652492</v>
+        <v>29.92031465249167</v>
       </c>
       <c r="H35" t="n">
-        <v>3.496936426862072</v>
+        <v>3.496936426861941</v>
       </c>
       <c r="I35" t="n">
-        <v>3.496936426862072</v>
+        <v>3.496936426861941</v>
       </c>
       <c r="J35" t="n">
-        <v>46.77152470928021</v>
+        <v>38.071881432012</v>
       </c>
       <c r="K35" t="n">
-        <v>58.53428819762369</v>
+        <v>38.071881432012</v>
       </c>
       <c r="L35" t="n">
-        <v>50.8669885631663</v>
+        <v>30.4045817975551</v>
       </c>
       <c r="M35" t="n">
-        <v>50.8669885631663</v>
+        <v>35.0625671520992</v>
       </c>
       <c r="N35" t="n">
-        <v>50.8669885631663</v>
+        <v>41.7734614993584</v>
       </c>
       <c r="O35" t="n">
-        <v>54.54491947741145</v>
+        <v>41.7734614993584</v>
       </c>
       <c r="P35" t="n">
-        <v>51.54409212978617</v>
+        <v>38.77263415173359</v>
       </c>
       <c r="Q35" t="n">
-        <v>51.54409212978617</v>
+        <v>43.23977939378236</v>
       </c>
       <c r="R35" t="n">
-        <v>51.54409212978617</v>
+        <v>43.23977939378236</v>
       </c>
       <c r="S35" t="n">
-        <v>51.54409212978617</v>
+        <v>86.51436767619887</v>
       </c>
       <c r="T35" t="n">
-        <v>51.54409212978617</v>
+        <v>86.51436767619887</v>
       </c>
       <c r="U35" t="n">
-        <v>94.81868041220432</v>
+        <v>129.7889559586154</v>
       </c>
       <c r="V35" t="n">
-        <v>94.81868041220432</v>
+        <v>129.7889559586154</v>
       </c>
       <c r="W35" t="n">
-        <v>110.9781191231729</v>
+        <v>129.7889559586154</v>
       </c>
       <c r="X35" t="n">
-        <v>110.9781191231729</v>
+        <v>132.8687515292636</v>
       </c>
       <c r="Y35" t="n">
-        <v>80.24067740729343</v>
+        <v>102.1313098133843</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3.496936426862072</v>
+        <v>3.496936426861941</v>
       </c>
       <c r="C36" t="n">
-        <v>3.496936426862072</v>
+        <v>3.496936426861941</v>
       </c>
       <c r="D36" t="n">
-        <v>3.496936426862072</v>
+        <v>3.496936426861941</v>
       </c>
       <c r="E36" t="n">
-        <v>3.496936426862072</v>
+        <v>3.496936426861941</v>
       </c>
       <c r="F36" t="n">
-        <v>3.496936426862072</v>
+        <v>3.496936426861941</v>
       </c>
       <c r="G36" t="n">
-        <v>3.496936426862072</v>
+        <v>3.496936426861941</v>
       </c>
       <c r="H36" t="n">
-        <v>3.496936426862072</v>
+        <v>3.496936426861941</v>
       </c>
       <c r="I36" t="n">
-        <v>3.496936426862072</v>
+        <v>3.496936426861941</v>
       </c>
       <c r="J36" t="n">
-        <v>3.496936426862072</v>
+        <v>3.496936426861941</v>
       </c>
       <c r="K36" t="n">
-        <v>3.496936426862072</v>
+        <v>3.496936426861941</v>
       </c>
       <c r="L36" t="n">
-        <v>3.496936426862072</v>
+        <v>3.496936426861941</v>
       </c>
       <c r="M36" t="n">
-        <v>3.496936426862072</v>
+        <v>3.496936426861941</v>
       </c>
       <c r="N36" t="n">
-        <v>3.496936426862072</v>
+        <v>3.496936426861941</v>
       </c>
       <c r="O36" t="n">
-        <v>3.496936426862072</v>
+        <v>3.496936426861941</v>
       </c>
       <c r="P36" t="n">
-        <v>3.496936426862072</v>
+        <v>3.496936426861941</v>
       </c>
       <c r="Q36" t="n">
-        <v>3.496936426862072</v>
+        <v>3.496936426861941</v>
       </c>
       <c r="R36" t="n">
-        <v>3.496936426862072</v>
+        <v>3.496936426861941</v>
       </c>
       <c r="S36" t="n">
-        <v>3.496936426862072</v>
+        <v>3.496936426861941</v>
       </c>
       <c r="T36" t="n">
-        <v>3.496936426862072</v>
+        <v>3.496936426861941</v>
       </c>
       <c r="U36" t="n">
-        <v>3.496936426862072</v>
+        <v>3.496936426861941</v>
       </c>
       <c r="V36" t="n">
-        <v>3.496936426862072</v>
+        <v>3.496936426861941</v>
       </c>
       <c r="W36" t="n">
-        <v>3.496936426862072</v>
+        <v>3.496936426861941</v>
       </c>
       <c r="X36" t="n">
-        <v>3.496936426862072</v>
+        <v>3.496936426861941</v>
       </c>
       <c r="Y36" t="n">
-        <v>3.496936426862072</v>
+        <v>3.496936426861941</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3.496936426862072</v>
+        <v>3.496936426861941</v>
       </c>
       <c r="C37" t="n">
-        <v>3.496936426862072</v>
+        <v>3.496936426861941</v>
       </c>
       <c r="D37" t="n">
-        <v>3.496936426862072</v>
+        <v>3.496936426861941</v>
       </c>
       <c r="E37" t="n">
-        <v>3.496936426862072</v>
+        <v>3.496936426861941</v>
       </c>
       <c r="F37" t="n">
-        <v>3.496936426862072</v>
+        <v>3.496936426861941</v>
       </c>
       <c r="G37" t="n">
-        <v>3.496936426862072</v>
+        <v>3.496936426861941</v>
       </c>
       <c r="H37" t="n">
-        <v>3.496936426862072</v>
+        <v>3.496936426861941</v>
       </c>
       <c r="I37" t="n">
-        <v>3.496936426862072</v>
+        <v>3.496936426861941</v>
       </c>
       <c r="J37" t="n">
-        <v>3.496936426862072</v>
+        <v>3.496936426861941</v>
       </c>
       <c r="K37" t="n">
-        <v>3.496936426862072</v>
+        <v>3.496936426861941</v>
       </c>
       <c r="L37" t="n">
-        <v>3.496936426862072</v>
+        <v>3.496936426861941</v>
       </c>
       <c r="M37" t="n">
-        <v>3.496936426862072</v>
+        <v>3.496936426861941</v>
       </c>
       <c r="N37" t="n">
-        <v>3.496936426862072</v>
+        <v>3.496936426861941</v>
       </c>
       <c r="O37" t="n">
-        <v>3.496936426862072</v>
+        <v>3.496936426861941</v>
       </c>
       <c r="P37" t="n">
-        <v>3.496936426862072</v>
+        <v>3.496936426861941</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.496936426862072</v>
+        <v>3.496936426861941</v>
       </c>
       <c r="R37" t="n">
-        <v>3.496936426862072</v>
+        <v>3.496936426861941</v>
       </c>
       <c r="S37" t="n">
-        <v>3.496936426862072</v>
+        <v>3.496936426861941</v>
       </c>
       <c r="T37" t="n">
-        <v>3.496936426862072</v>
+        <v>3.496936426861941</v>
       </c>
       <c r="U37" t="n">
-        <v>3.496936426862072</v>
+        <v>3.496936426861941</v>
       </c>
       <c r="V37" t="n">
-        <v>3.496936426862072</v>
+        <v>3.496936426861941</v>
       </c>
       <c r="W37" t="n">
-        <v>3.496936426862072</v>
+        <v>3.496936426861941</v>
       </c>
       <c r="X37" t="n">
-        <v>3.496936426862072</v>
+        <v>3.496936426861941</v>
       </c>
       <c r="Y37" t="n">
-        <v>3.496936426862072</v>
+        <v>3.496936426861941</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>122.999108351574</v>
+        <v>65.37983948963621</v>
       </c>
       <c r="C38" t="n">
-        <v>124.7371267898649</v>
+        <v>87.22410289383323</v>
       </c>
       <c r="D38" t="n">
-        <v>124.7371267898649</v>
+        <v>124.737126789865</v>
       </c>
       <c r="E38" t="n">
-        <v>116.9532667954223</v>
+        <v>116.9532667954224</v>
       </c>
       <c r="F38" t="n">
-        <v>73.4352896458776</v>
+        <v>73.43528964587765</v>
       </c>
       <c r="G38" t="n">
-        <v>29.9173124963329</v>
+        <v>29.91731249633293</v>
       </c>
       <c r="H38" t="n">
         <v>3.446623790243941</v>
       </c>
       <c r="I38" t="n">
-        <v>13.67178583641448</v>
+        <v>13.67178583641444</v>
       </c>
       <c r="J38" t="n">
-        <v>13.67178583641448</v>
+        <v>13.67178583641444</v>
       </c>
       <c r="K38" t="n">
-        <v>13.67178583641448</v>
+        <v>13.67178583641444</v>
       </c>
       <c r="L38" t="n">
-        <v>5.957175721498039</v>
+        <v>5.957175721498288</v>
       </c>
       <c r="M38" t="n">
-        <v>5.957175721498039</v>
+        <v>10.56879207414431</v>
       </c>
       <c r="N38" t="n">
-        <v>12.62170106685878</v>
+        <v>17.2333174195054</v>
       </c>
       <c r="O38" t="n">
-        <v>12.62170106685878</v>
+        <v>17.2333174195054</v>
       </c>
       <c r="P38" t="n">
-        <v>9.573563238774433</v>
+        <v>14.18517959142133</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.573563238774433</v>
+        <v>14.18517959142133</v>
       </c>
       <c r="R38" t="n">
-        <v>16.03444905931822</v>
+        <v>14.18517959142133</v>
       </c>
       <c r="S38" t="n">
-        <v>16.03444905931822</v>
+        <v>14.18517959142133</v>
       </c>
       <c r="T38" t="n">
-        <v>58.6864184635861</v>
+        <v>56.83714899569009</v>
       </c>
       <c r="U38" t="n">
-        <v>101.3383878678549</v>
+        <v>82.69402477184929</v>
       </c>
       <c r="V38" t="n">
-        <v>137.279867065037</v>
+        <v>82.69402477184929</v>
       </c>
       <c r="W38" t="n">
-        <v>164.525107578654</v>
+        <v>109.9392652854665</v>
       </c>
       <c r="X38" t="n">
-        <v>167.5585341474041</v>
+        <v>109.9392652854665</v>
       </c>
       <c r="Y38" t="n">
-        <v>136.7737819510656</v>
+        <v>79.15451308912795</v>
       </c>
     </row>
     <row r="39">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>86.13291236255185</v>
+        <v>52.14106913340669</v>
       </c>
       <c r="C41" t="n">
-        <v>107.4470907543127</v>
+        <v>73.45524752516721</v>
       </c>
       <c r="D41" t="n">
-        <v>107.4470907543127</v>
+        <v>107.4470907543116</v>
       </c>
       <c r="E41" t="n">
-        <v>99.12238287451532</v>
+        <v>99.12238287451402</v>
       </c>
       <c r="F41" t="n">
-        <v>64.44036754021765</v>
+        <v>64.44036754021711</v>
       </c>
       <c r="G41" t="n">
-        <v>29.75835220592009</v>
+        <v>29.7583522059202</v>
       </c>
       <c r="H41" t="n">
-        <v>2.746815614476367</v>
+        <v>2.746815614476315</v>
       </c>
       <c r="I41" t="n">
-        <v>12.44189264821072</v>
+        <v>12.44189264821048</v>
       </c>
       <c r="J41" t="n">
-        <v>12.44189264821072</v>
+        <v>12.44189264821048</v>
       </c>
       <c r="K41" t="n">
-        <v>12.44189264821072</v>
+        <v>12.44189264821048</v>
       </c>
       <c r="L41" t="n">
-        <v>4.186434647939581</v>
+        <v>4.186434647939397</v>
       </c>
       <c r="M41" t="n">
-        <v>8.26796598814912</v>
+        <v>4.186434647939397</v>
       </c>
       <c r="N41" t="n">
-        <v>8.26796598814912</v>
+        <v>4.186434647939397</v>
       </c>
       <c r="O41" t="n">
-        <v>8.26796598814912</v>
+        <v>7.287911547850222</v>
       </c>
       <c r="P41" t="n">
-        <v>4.678980274710078</v>
+        <v>3.698925834411238</v>
       </c>
       <c r="Q41" t="n">
-        <v>4.678980274710078</v>
+        <v>7.589617062125496</v>
       </c>
       <c r="R41" t="n">
-        <v>4.678980274710078</v>
+        <v>13.52041787023258</v>
       </c>
       <c r="S41" t="n">
-        <v>38.67082350385512</v>
+        <v>47.51226109937695</v>
       </c>
       <c r="T41" t="n">
-        <v>72.66266673300015</v>
+        <v>47.51226109937695</v>
       </c>
       <c r="U41" t="n">
-        <v>97.78219069994651</v>
+        <v>61.28700591448884</v>
       </c>
       <c r="V41" t="n">
-        <v>131.7740339290916</v>
+        <v>95.27884914363318</v>
       </c>
       <c r="W41" t="n">
-        <v>131.7740339290916</v>
+        <v>95.27884914363318</v>
       </c>
       <c r="X41" t="n">
-        <v>131.7740339290916</v>
+        <v>97.78219069994685</v>
       </c>
       <c r="Y41" t="n">
-        <v>100.4484338473983</v>
+        <v>66.45659061825336</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2.746815614476367</v>
+        <v>2.746815614476315</v>
       </c>
       <c r="C42" t="n">
-        <v>2.746815614476367</v>
+        <v>2.746815614476315</v>
       </c>
       <c r="D42" t="n">
-        <v>2.746815614476367</v>
+        <v>2.746815614476315</v>
       </c>
       <c r="E42" t="n">
-        <v>2.746815614476367</v>
+        <v>2.746815614476315</v>
       </c>
       <c r="F42" t="n">
-        <v>2.746815614476367</v>
+        <v>2.746815614476315</v>
       </c>
       <c r="G42" t="n">
-        <v>2.746815614476367</v>
+        <v>2.746815614476315</v>
       </c>
       <c r="H42" t="n">
-        <v>2.746815614476367</v>
+        <v>2.746815614476315</v>
       </c>
       <c r="I42" t="n">
-        <v>2.746815614476367</v>
+        <v>2.746815614476315</v>
       </c>
       <c r="J42" t="n">
-        <v>2.746815614476367</v>
+        <v>2.746815614476315</v>
       </c>
       <c r="K42" t="n">
-        <v>2.746815614476367</v>
+        <v>2.746815614476315</v>
       </c>
       <c r="L42" t="n">
-        <v>2.746815614476367</v>
+        <v>2.746815614476315</v>
       </c>
       <c r="M42" t="n">
-        <v>2.746815614476367</v>
+        <v>2.746815614476315</v>
       </c>
       <c r="N42" t="n">
-        <v>2.746815614476367</v>
+        <v>2.746815614476315</v>
       </c>
       <c r="O42" t="n">
-        <v>2.746815614476367</v>
+        <v>2.746815614476315</v>
       </c>
       <c r="P42" t="n">
-        <v>2.746815614476367</v>
+        <v>2.746815614476315</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.746815614476367</v>
+        <v>2.746815614476315</v>
       </c>
       <c r="R42" t="n">
-        <v>2.746815614476367</v>
+        <v>2.746815614476315</v>
       </c>
       <c r="S42" t="n">
-        <v>2.746815614476367</v>
+        <v>2.746815614476315</v>
       </c>
       <c r="T42" t="n">
-        <v>2.746815614476367</v>
+        <v>2.746815614476315</v>
       </c>
       <c r="U42" t="n">
-        <v>2.746815614476367</v>
+        <v>2.746815614476315</v>
       </c>
       <c r="V42" t="n">
-        <v>2.746815614476367</v>
+        <v>2.746815614476315</v>
       </c>
       <c r="W42" t="n">
-        <v>2.746815614476367</v>
+        <v>2.746815614476315</v>
       </c>
       <c r="X42" t="n">
-        <v>2.746815614476367</v>
+        <v>2.746815614476315</v>
       </c>
       <c r="Y42" t="n">
-        <v>2.746815614476367</v>
+        <v>2.746815614476315</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2.746815614476367</v>
+        <v>2.746815614476315</v>
       </c>
       <c r="C43" t="n">
-        <v>2.746815614476367</v>
+        <v>2.746815614476315</v>
       </c>
       <c r="D43" t="n">
-        <v>2.746815614476367</v>
+        <v>2.746815614476315</v>
       </c>
       <c r="E43" t="n">
-        <v>2.746815614476367</v>
+        <v>2.746815614476315</v>
       </c>
       <c r="F43" t="n">
-        <v>2.746815614476367</v>
+        <v>2.746815614476315</v>
       </c>
       <c r="G43" t="n">
-        <v>2.746815614476367</v>
+        <v>2.746815614476315</v>
       </c>
       <c r="H43" t="n">
-        <v>2.746815614476367</v>
+        <v>2.746815614476315</v>
       </c>
       <c r="I43" t="n">
-        <v>2.746815614476367</v>
+        <v>2.746815614476315</v>
       </c>
       <c r="J43" t="n">
-        <v>2.746815614476367</v>
+        <v>2.746815614476315</v>
       </c>
       <c r="K43" t="n">
-        <v>2.746815614476367</v>
+        <v>2.746815614476315</v>
       </c>
       <c r="L43" t="n">
-        <v>2.746815614476367</v>
+        <v>2.746815614476315</v>
       </c>
       <c r="M43" t="n">
-        <v>2.746815614476367</v>
+        <v>2.746815614476315</v>
       </c>
       <c r="N43" t="n">
-        <v>2.746815614476367</v>
+        <v>2.746815614476315</v>
       </c>
       <c r="O43" t="n">
-        <v>2.746815614476367</v>
+        <v>2.746815614476315</v>
       </c>
       <c r="P43" t="n">
-        <v>2.746815614476367</v>
+        <v>2.746815614476315</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.746815614476367</v>
+        <v>2.746815614476315</v>
       </c>
       <c r="R43" t="n">
-        <v>2.746815614476367</v>
+        <v>2.746815614476315</v>
       </c>
       <c r="S43" t="n">
-        <v>2.746815614476367</v>
+        <v>2.746815614476315</v>
       </c>
       <c r="T43" t="n">
-        <v>2.746815614476367</v>
+        <v>2.746815614476315</v>
       </c>
       <c r="U43" t="n">
-        <v>2.746815614476367</v>
+        <v>2.746815614476315</v>
       </c>
       <c r="V43" t="n">
-        <v>2.746815614476367</v>
+        <v>2.746815614476315</v>
       </c>
       <c r="W43" t="n">
-        <v>2.746815614476367</v>
+        <v>2.746815614476315</v>
       </c>
       <c r="X43" t="n">
-        <v>2.746815614476367</v>
+        <v>2.746815614476315</v>
       </c>
       <c r="Y43" t="n">
-        <v>2.746815614476367</v>
+        <v>2.746815614476315</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>70.3661839727443</v>
+        <v>70.36618397274424</v>
       </c>
       <c r="C44" t="n">
-        <v>70.3661839727443</v>
+        <v>70.36618397274424</v>
       </c>
       <c r="D44" t="n">
         <v>101.2581477640251</v>
       </c>
       <c r="E44" t="n">
-        <v>92.73984417846994</v>
+        <v>92.73984417846988</v>
       </c>
       <c r="F44" t="n">
-        <v>61.22064839101881</v>
+        <v>61.22064839101876</v>
       </c>
       <c r="G44" t="n">
-        <v>29.70145260356769</v>
+        <v>29.70145260356763</v>
       </c>
       <c r="H44" t="n">
         <v>2.496320306366129</v>
       </c>
       <c r="I44" t="n">
-        <v>12.00165418888719</v>
+        <v>12.00165418888737</v>
       </c>
       <c r="J44" t="n">
-        <v>33.03850695348508</v>
+        <v>12.00165418888737</v>
       </c>
       <c r="K44" t="n">
-        <v>33.03850695348508</v>
+        <v>22.99822051168385</v>
       </c>
       <c r="L44" t="n">
-        <v>24.58945324745611</v>
+        <v>14.54916680565517</v>
       </c>
       <c r="M44" t="n">
-        <v>24.58945324745611</v>
+        <v>14.54916680565517</v>
       </c>
       <c r="N44" t="n">
-        <v>24.58945324745611</v>
+        <v>16.5347971854616</v>
       </c>
       <c r="O44" t="n">
-        <v>27.50118699615391</v>
+        <v>19.44653093415977</v>
       </c>
       <c r="P44" t="n">
-        <v>23.71860557695703</v>
+        <v>15.66394951496321</v>
       </c>
       <c r="Q44" t="n">
-        <v>23.71860557695703</v>
+        <v>15.66394951496321</v>
       </c>
       <c r="R44" t="n">
-        <v>23.71860557695703</v>
+        <v>21.40500717185765</v>
       </c>
       <c r="S44" t="n">
-        <v>54.61056936823787</v>
+        <v>52.29697096313849</v>
       </c>
       <c r="T44" t="n">
-        <v>85.50253315951871</v>
+        <v>83.18893475441934</v>
       </c>
       <c r="U44" t="n">
-        <v>116.3944969507995</v>
+        <v>114.080898545699</v>
       </c>
       <c r="V44" t="n">
-        <v>116.3944969507995</v>
+        <v>114.080898545699</v>
       </c>
       <c r="W44" t="n">
-        <v>116.3944969507995</v>
+        <v>114.080898545699</v>
       </c>
       <c r="X44" t="n">
-        <v>116.3944969507995</v>
+        <v>116.3944969507997</v>
       </c>
       <c r="Y44" t="n">
-        <v>84.87530116334858</v>
+        <v>84.87530116334852</v>
       </c>
     </row>
     <row r="45">
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>11.43983812012039</v>
+        <v>11.43983812011862</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,16 +23264,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>6.591242539253199</v>
+        <v>5.50893265112006</v>
       </c>
       <c r="F11" t="n">
-        <v>49.70080692547965</v>
+        <v>49.70080692547788</v>
       </c>
       <c r="G11" t="n">
-        <v>79.57611831877642</v>
+        <v>82.2042526508672</v>
       </c>
       <c r="H11" t="n">
-        <v>24.00889307565172</v>
+        <v>24.00889307564989</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23285,7 +23285,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>5.440375270390923</v>
+        <v>5.44037527038881</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -23297,7 +23297,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0.8205677064270915</v>
+        <v>0.8205677064250452</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>1.545824443961294</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>28.27981593099879</v>
+        <v>28.27981593099701</v>
       </c>
     </row>
     <row r="12">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>10.6192704136935</v>
+        <v>10.61927041369381</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23501,16 +23501,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>4.688364944694935</v>
+        <v>7.224835893366294</v>
       </c>
       <c r="F14" t="n">
-        <v>50.06254547246269</v>
+        <v>48.88023921905307</v>
       </c>
       <c r="G14" t="n">
-        <v>78.75555061234954</v>
+        <v>78.75555061234985</v>
       </c>
       <c r="H14" t="n">
-        <v>23.18832536922482</v>
+        <v>23.18832536922508</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23522,7 +23522,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>4.619807563964026</v>
+        <v>4.619807563964001</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -23558,10 +23558,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>1.354164695261019</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>27.45924822457189</v>
+        <v>27.45924822457221</v>
       </c>
     </row>
     <row r="15">
@@ -23747,7 +23747,7 @@
         <v>68.13628019865604</v>
       </c>
       <c r="H17" t="n">
-        <v>12.56905495553133</v>
+        <v>12.56905495553127</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23978,13 +23978,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>34.72146522696485</v>
+        <v>34.72146522696566</v>
       </c>
       <c r="G20" t="n">
-        <v>64.59677662026164</v>
+        <v>64.59677662026245</v>
       </c>
       <c r="H20" t="n">
-        <v>9.029551377136922</v>
+        <v>9.029551377137675</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>13.30047423248399</v>
+        <v>13.3004742324848</v>
       </c>
     </row>
     <row r="21">
@@ -24452,10 +24452,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>21.42099099448069</v>
+        <v>21.42099099448086</v>
       </c>
       <c r="G26" t="n">
-        <v>51.29630238777747</v>
+        <v>51.29630238777764</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24689,10 +24689,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>21.42099099448075</v>
+        <v>21.42099099448086</v>
       </c>
       <c r="G29" t="n">
-        <v>51.29630238777753</v>
+        <v>51.29630238777764</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24926,10 +24926,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9240603019098899</v>
+        <v>0.9240603019100959</v>
       </c>
       <c r="G32" t="n">
-        <v>30.79937169520667</v>
+        <v>30.79937169520688</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -25163,10 +25163,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>8.139352957425665</v>
+        <v>8.13935295742715</v>
       </c>
       <c r="G35" t="n">
-        <v>38.01466435072243</v>
+        <v>38.01466435072392</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25400,10 +25400,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>8.815098290806738</v>
+        <v>8.815098290806795</v>
       </c>
       <c r="G38" t="n">
-        <v>38.69040968410352</v>
+        <v>38.69040968410358</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25637,10 +25637,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>18.09813989440262</v>
+        <v>18.0981398944035</v>
       </c>
       <c r="G41" t="n">
-        <v>47.9734512876994</v>
+        <v>47.97345128770028</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1301933.716173334</v>
+        <v>1301933.716173335</v>
       </c>
     </row>
     <row r="6">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1318940.697249301</v>
+        <v>1318940.6972493</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1316839.990732815</v>
+        <v>1316839.990732814</v>
       </c>
     </row>
     <row r="16">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>423721.2764433585</v>
+        <v>423721.2764433586</v>
       </c>
       <c r="C2" t="n">
         <v>423721.2764433585</v>
       </c>
       <c r="D2" t="n">
-        <v>423721.2764433585</v>
+        <v>423721.2764433586</v>
       </c>
       <c r="E2" t="n">
-        <v>417601.380659371</v>
+        <v>417601.3806593716</v>
       </c>
       <c r="F2" t="n">
         <v>417826.5600756996</v>
@@ -26335,25 +26335,25 @@
         <v>422157.8144315091</v>
       </c>
       <c r="J2" t="n">
-        <v>422157.8144315089</v>
+        <v>422157.8144315091</v>
       </c>
       <c r="K2" t="n">
-        <v>422157.8144315089</v>
+        <v>422157.8144315091</v>
       </c>
       <c r="L2" t="n">
-        <v>423544.6367621684</v>
+        <v>423544.6367621685</v>
       </c>
       <c r="M2" t="n">
         <v>423056.4500610961</v>
       </c>
       <c r="N2" t="n">
-        <v>423010.7291318396</v>
+        <v>423010.7291318398</v>
       </c>
       <c r="O2" t="n">
         <v>422382.6385369403</v>
       </c>
       <c r="P2" t="n">
-        <v>422157.8144315091</v>
+        <v>422157.8144315092</v>
       </c>
     </row>
     <row r="3">
@@ -26372,37 +26372,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>313165.8870550296</v>
+        <v>313165.8870550307</v>
       </c>
       <c r="F3" t="n">
-        <v>333.5262804557906</v>
+        <v>333.5262804549589</v>
       </c>
       <c r="G3" t="n">
-        <v>3894.921121469584</v>
+        <v>3894.921121469666</v>
       </c>
       <c r="H3" t="n">
-        <v>1171.473388937054</v>
+        <v>1171.47338893675</v>
       </c>
       <c r="I3" t="n">
-        <v>4290.542237692884</v>
+        <v>4290.542237693281</v>
       </c>
       <c r="J3" t="n">
-        <v>271938.2519335996</v>
+        <v>271938.2519335997</v>
       </c>
       <c r="K3" t="n">
-        <v>153.3277989601856</v>
+        <v>153.3277989600009</v>
       </c>
       <c r="L3" t="n">
-        <v>7331.505745111358</v>
+        <v>7331.505745111428</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>1091.451969561604</v>
+        <v>1091.451969561695</v>
       </c>
       <c r="O3" t="n">
-        <v>271509.9004083987</v>
+        <v>271509.9004083986</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>569049.7736743361</v>
       </c>
       <c r="E4" t="n">
-        <v>543874.3908805538</v>
+        <v>543874.3908805543</v>
       </c>
       <c r="F4" t="n">
-        <v>544181.6013468582</v>
+        <v>544181.601346858</v>
       </c>
       <c r="G4" t="n">
-        <v>547182.0532655965</v>
+        <v>547182.0532655963</v>
       </c>
       <c r="H4" t="n">
-        <v>547836.6691728237</v>
+        <v>547836.6691728232</v>
       </c>
       <c r="I4" t="n">
-        <v>550099.0622793646</v>
+        <v>550099.0622793644</v>
       </c>
       <c r="J4" t="n">
-        <v>550099.0622793647</v>
+        <v>550099.0622793643</v>
       </c>
       <c r="K4" t="n">
-        <v>550099.0622793646</v>
+        <v>550099.0622793643</v>
       </c>
       <c r="L4" t="n">
         <v>551994.4717038092</v>
       </c>
       <c r="M4" t="n">
-        <v>551327.1874165752</v>
+        <v>551327.1874165749</v>
       </c>
       <c r="N4" t="n">
-        <v>551264.7649981012</v>
+        <v>551264.7649981008</v>
       </c>
       <c r="O4" t="n">
-        <v>550406.3357626768</v>
+        <v>550406.3357626766</v>
       </c>
       <c r="P4" t="n">
-        <v>550099.0622793646</v>
+        <v>550099.0622793644</v>
       </c>
     </row>
     <row r="5">
@@ -26476,22 +26476,22 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>30054.38123892584</v>
+        <v>30054.38123892597</v>
       </c>
       <c r="F5" t="n">
-        <v>30108.7314861691</v>
+        <v>30108.73148616909</v>
       </c>
       <c r="G5" t="n">
-        <v>30797.93497505369</v>
+        <v>30797.93497505371</v>
       </c>
       <c r="H5" t="n">
-        <v>31022.63780983052</v>
+        <v>31022.63780983047</v>
       </c>
       <c r="I5" t="n">
-        <v>31864.14274690931</v>
+        <v>31864.14274690932</v>
       </c>
       <c r="J5" t="n">
-        <v>31864.14274690933</v>
+        <v>31864.14274690932</v>
       </c>
       <c r="K5" t="n">
         <v>31864.14274690932</v>
@@ -26500,16 +26500,16 @@
         <v>33137.86587936455</v>
       </c>
       <c r="M5" t="n">
-        <v>32689.67506869875</v>
+        <v>32689.67506869868</v>
       </c>
       <c r="N5" t="n">
         <v>32647.49989353508</v>
       </c>
       <c r="O5" t="n">
-        <v>32070.63182448658</v>
+        <v>32070.63182448653</v>
       </c>
       <c r="P5" t="n">
-        <v>31864.14274690931</v>
+        <v>31864.14274690933</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-178956.0972309776</v>
+        <v>-178961.3711369968</v>
       </c>
       <c r="C6" t="n">
-        <v>-178956.0972309776</v>
+        <v>-178961.371136997</v>
       </c>
       <c r="D6" t="n">
-        <v>-178956.0972309776</v>
+        <v>-178961.3711369968</v>
       </c>
       <c r="E6" t="n">
-        <v>-469493.2785151381</v>
+        <v>-469534.5518081233</v>
       </c>
       <c r="F6" t="n">
-        <v>-156797.2990377835</v>
+        <v>-156837.2477459643</v>
       </c>
       <c r="G6" t="n">
-        <v>-161851.3954077825</v>
+        <v>-161878.4208578546</v>
       </c>
       <c r="H6" t="n">
-        <v>-159528.3007930255</v>
+        <v>-159552.5087982486</v>
       </c>
       <c r="I6" t="n">
-        <v>-164095.9328324577</v>
+        <v>-164110.403573841</v>
       </c>
       <c r="J6" t="n">
-        <v>-431743.6425283647</v>
+        <v>-431758.1132697474</v>
       </c>
       <c r="K6" t="n">
-        <v>-159958.7183937252</v>
+        <v>-159973.1891351076</v>
       </c>
       <c r="L6" t="n">
-        <v>-168919.2065661167</v>
+        <v>-168925.5195290842</v>
       </c>
       <c r="M6" t="n">
-        <v>-160960.4124241779</v>
+        <v>-160969.5970736218</v>
       </c>
       <c r="N6" t="n">
-        <v>-161992.9877293582</v>
+        <v>-162002.4413254448</v>
       </c>
       <c r="O6" t="n">
-        <v>-431604.2294586218</v>
+        <v>-431617.3777052666</v>
       </c>
       <c r="P6" t="n">
-        <v>-159805.3905947648</v>
+        <v>-159819.8613361476</v>
       </c>
     </row>
   </sheetData>
@@ -26692,37 +26692,37 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>339.9228149169994</v>
+        <v>339.9228149169998</v>
       </c>
       <c r="F2" t="n">
-        <v>340.1144746656997</v>
+        <v>340.1144746656996</v>
       </c>
       <c r="G2" t="n">
-        <v>341.9861428822982</v>
+        <v>341.9861428822981</v>
       </c>
       <c r="H2" t="n">
-        <v>342.3944551093145</v>
+        <v>342.3944551093143</v>
       </c>
       <c r="I2" t="n">
         <v>343.805607446921</v>
       </c>
       <c r="J2" t="n">
-        <v>343.8056074469212</v>
+        <v>343.8056074469209</v>
       </c>
       <c r="K2" t="n">
-        <v>343.8056074469211</v>
+        <v>343.8056074469209</v>
       </c>
       <c r="L2" t="n">
         <v>344.9878562047933</v>
       </c>
       <c r="M2" t="n">
-        <v>344.5795439777769</v>
+        <v>344.5795439777771</v>
       </c>
       <c r="N2" t="n">
-        <v>344.5327066021225</v>
+        <v>344.5327066021224</v>
       </c>
       <c r="O2" t="n">
-        <v>343.9972671956212</v>
+        <v>343.997267195621</v>
       </c>
       <c r="P2" t="n">
         <v>343.805607446921</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>48.78650007412165</v>
+        <v>48.78650007412216</v>
       </c>
       <c r="F3" t="n">
-        <v>48.78650007412165</v>
+        <v>48.78650007412216</v>
       </c>
       <c r="G3" t="n">
-        <v>48.78650007412165</v>
+        <v>48.78650007412228</v>
       </c>
       <c r="H3" t="n">
-        <v>48.78650007412165</v>
+        <v>48.78650007412216</v>
       </c>
       <c r="I3" t="n">
-        <v>48.78650007412165</v>
+        <v>48.78650007412216</v>
       </c>
       <c r="J3" t="n">
-        <v>48.78650007412165</v>
+        <v>48.78650007412216</v>
       </c>
       <c r="K3" t="n">
-        <v>48.78650007412165</v>
+        <v>48.78650007412216</v>
       </c>
       <c r="L3" t="n">
-        <v>48.78650007412165</v>
+        <v>48.78650007412216</v>
       </c>
       <c r="M3" t="n">
-        <v>48.78650007412165</v>
+        <v>48.78650007412216</v>
       </c>
       <c r="N3" t="n">
-        <v>48.78650007412165</v>
+        <v>48.78650007412216</v>
       </c>
       <c r="O3" t="n">
-        <v>48.7865000741217</v>
+        <v>48.78650007412216</v>
       </c>
       <c r="P3" t="n">
-        <v>48.78650007412173</v>
+        <v>48.78650007412231</v>
       </c>
     </row>
     <row r="4">
@@ -26796,37 +26796,37 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>6.806980428499394</v>
+        <v>6.806980428500824</v>
       </c>
       <c r="F4" t="n">
-        <v>7.43588838622603</v>
+        <v>7.435888386225828</v>
       </c>
       <c r="G4" t="n">
-        <v>16.18349058332103</v>
+        <v>16.18349058332115</v>
       </c>
       <c r="H4" t="n">
-        <v>19.31468193469906</v>
+        <v>19.31468193469853</v>
       </c>
       <c r="I4" t="n">
-        <v>31.20400382957661</v>
+        <v>31.20400382957655</v>
       </c>
       <c r="J4" t="n">
-        <v>31.20400382957661</v>
+        <v>31.20400382957666</v>
       </c>
       <c r="K4" t="n">
-        <v>31.20400382957661</v>
+        <v>31.20400382957666</v>
       </c>
       <c r="L4" t="n">
-        <v>50.51868576427529</v>
+        <v>50.51868576427508</v>
       </c>
       <c r="M4" t="n">
-        <v>43.7117053357759</v>
+        <v>43.71170533577426</v>
       </c>
       <c r="N4" t="n">
         <v>43.08279737804926</v>
       </c>
       <c r="O4" t="n">
-        <v>34.33519518095459</v>
+        <v>34.33519518095394</v>
       </c>
       <c r="P4" t="n">
         <v>31.20400382957661</v>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>339.9228149169994</v>
+        <v>339.9228149169998</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1916597487002605</v>
+        <v>0.1916597486998057</v>
       </c>
       <c r="G2" t="n">
         <v>1.871668216598493</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4083122270163813</v>
+        <v>0.4083122270162107</v>
       </c>
       <c r="I2" t="n">
-        <v>1.411152337606438</v>
+        <v>1.411152337606779</v>
       </c>
       <c r="J2" t="n">
         <v>339.9228149169996</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1916597487002321</v>
+        <v>0.1916597487000011</v>
       </c>
       <c r="L2" t="n">
-        <v>3.053916974470667</v>
+        <v>3.053916974470837</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.364314961952005</v>
+        <v>1.364314961952118</v>
       </c>
       <c r="O2" t="n">
-        <v>339.3873755104984</v>
+        <v>339.3873755104983</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>48.78650007412165</v>
+        <v>48.78650007412216</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,19 +27018,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>6.806980428499394</v>
+        <v>6.806980428500824</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6289079577266365</v>
+        <v>0.6289079577250032</v>
       </c>
       <c r="G4" t="n">
-        <v>8.74760219709502</v>
+        <v>8.747602197095318</v>
       </c>
       <c r="H4" t="n">
-        <v>3.131191351378007</v>
+        <v>3.131191351377385</v>
       </c>
       <c r="I4" t="n">
-        <v>11.88932189487755</v>
+        <v>11.88932189487802</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27039,7 +27039,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>19.31468193469868</v>
+        <v>19.31468193469842</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27151,25 +27151,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>339.9228149169994</v>
+        <v>339.9228149169998</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1916597487002605</v>
+        <v>0.1916597486998057</v>
       </c>
       <c r="L2" t="n">
         <v>1.871668216598493</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4083122270163813</v>
+        <v>0.4083122270162107</v>
       </c>
       <c r="N2" t="n">
-        <v>1.411152337606438</v>
+        <v>1.411152337606779</v>
       </c>
       <c r="O2" t="n">
         <v>339.9228149169996</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1916597487002321</v>
+        <v>0.1916597487000011</v>
       </c>
     </row>
     <row r="3">
@@ -27264,16 +27264,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>6.806980428499394</v>
+        <v>6.806980428500824</v>
       </c>
       <c r="N4" t="n">
-        <v>0.6289079577266365</v>
+        <v>0.6289079577250032</v>
       </c>
       <c r="O4" t="n">
-        <v>8.74760219709502</v>
+        <v>8.747602197095318</v>
       </c>
       <c r="P4" t="n">
-        <v>3.131191351378007</v>
+        <v>3.131191351377385</v>
       </c>
     </row>
   </sheetData>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>339.9228149169994</v>
+        <v>339.9228149169998</v>
       </c>
       <c r="C11" t="n">
-        <v>329.2747745011299</v>
+        <v>329.2747745011313</v>
       </c>
       <c r="D11" t="n">
-        <v>313.4477437012968</v>
+        <v>313.4477437012982</v>
       </c>
       <c r="E11" t="n">
-        <v>339.9228149169994</v>
+        <v>339.9228149169998</v>
       </c>
       <c r="F11" t="n">
-        <v>339.9228149169994</v>
+        <v>339.9228149169998</v>
       </c>
       <c r="G11" t="n">
-        <v>339.9228149169994</v>
+        <v>339.9228149169998</v>
       </c>
       <c r="H11" t="n">
-        <v>339.9228149169994</v>
+        <v>339.9228149169998</v>
       </c>
       <c r="I11" t="n">
-        <v>339.9228149169994</v>
+        <v>339.9228149169998</v>
       </c>
       <c r="J11" t="n">
-        <v>277.8563382725536</v>
+        <v>284.3605724274173</v>
       </c>
       <c r="K11" t="n">
-        <v>339.5049451251213</v>
+        <v>333.0007109702572</v>
       </c>
       <c r="L11" t="n">
-        <v>339.9228149169994</v>
+        <v>339.9228149169998</v>
       </c>
       <c r="M11" t="n">
-        <v>339.9228149169994</v>
+        <v>339.9228149169998</v>
       </c>
       <c r="N11" t="n">
-        <v>339.9228149169994</v>
+        <v>339.9228149169998</v>
       </c>
       <c r="O11" t="n">
-        <v>339.9228149169994</v>
+        <v>339.9228149169998</v>
       </c>
       <c r="P11" t="n">
-        <v>339.9228149169994</v>
+        <v>339.9228149169998</v>
       </c>
       <c r="Q11" t="n">
-        <v>339.9228149169994</v>
+        <v>339.9228149169998</v>
       </c>
       <c r="R11" t="n">
-        <v>339.9228149169994</v>
+        <v>339.9228149169998</v>
       </c>
       <c r="S11" t="n">
-        <v>288.0444758017227</v>
+        <v>288.0444758017235</v>
       </c>
       <c r="T11" t="n">
-        <v>232.3125948474177</v>
+        <v>232.3125948474191</v>
       </c>
       <c r="U11" t="n">
-        <v>254.8341764879608</v>
+        <v>254.8341764879622</v>
       </c>
       <c r="V11" t="n">
-        <v>315.0351625890238</v>
+        <v>308.2281821605244</v>
       </c>
       <c r="W11" t="n">
-        <v>317.0122616388729</v>
+        <v>323.8192420673738</v>
       </c>
       <c r="X11" t="n">
-        <v>339.9228149169994</v>
+        <v>339.9228149169998</v>
       </c>
       <c r="Y11" t="n">
-        <v>339.9228149169994</v>
+        <v>339.9228149169998</v>
       </c>
     </row>
     <row r="12">
@@ -28190,28 +28190,28 @@
         <v>158.1109049945108</v>
       </c>
       <c r="J12" t="n">
-        <v>196.1968980682706</v>
+        <v>196.1968980682705</v>
       </c>
       <c r="K12" t="n">
-        <v>207.0473140575887</v>
+        <v>207.0473140575885</v>
       </c>
       <c r="L12" t="n">
-        <v>202.3661908576786</v>
+        <v>202.3661908576784</v>
       </c>
       <c r="M12" t="n">
-        <v>204.3791625828835</v>
+        <v>204.3791625828832</v>
       </c>
       <c r="N12" t="n">
-        <v>186.1379173439512</v>
+        <v>186.1379173439509</v>
       </c>
       <c r="O12" t="n">
-        <v>206.7517154342894</v>
+        <v>206.7517154342891</v>
       </c>
       <c r="P12" t="n">
-        <v>197.6700475178422</v>
+        <v>197.670047517842</v>
       </c>
       <c r="Q12" t="n">
-        <v>214.0752668694337</v>
+        <v>214.0752668694336</v>
       </c>
       <c r="R12" t="n">
         <v>230.2138949315427</v>
@@ -28272,34 +28272,34 @@
         <v>200.147680968913</v>
       </c>
       <c r="K13" t="n">
-        <v>199.4253728722466</v>
+        <v>199.4253728722465</v>
       </c>
       <c r="L13" t="n">
-        <v>206.1080182650092</v>
+        <v>206.108018265009</v>
       </c>
       <c r="M13" t="n">
-        <v>211.9638149676766</v>
+        <v>211.9638149676764</v>
       </c>
       <c r="N13" t="n">
-        <v>194.0263350716156</v>
+        <v>194.0263350716154</v>
       </c>
       <c r="O13" t="n">
-        <v>212.5569159161717</v>
+        <v>212.5569159161716</v>
       </c>
       <c r="P13" t="n">
-        <v>213.1677508915679</v>
+        <v>213.1677508915678</v>
       </c>
       <c r="Q13" t="n">
         <v>238.8288661366571</v>
       </c>
       <c r="R13" t="n">
-        <v>270.8937786623968</v>
+        <v>270.8937786623967</v>
       </c>
       <c r="S13" t="n">
         <v>263.9631991774843</v>
       </c>
       <c r="T13" t="n">
-        <v>217.897779363449</v>
+        <v>217.8977793634489</v>
       </c>
       <c r="U13" t="n">
         <v>292.9832048200181</v>
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>340.1144746656997</v>
+        <v>340.1144746656996</v>
       </c>
       <c r="C14" t="n">
-        <v>329.9036824588565</v>
+        <v>329.9036824588563</v>
       </c>
       <c r="D14" t="n">
-        <v>314.0766516590235</v>
+        <v>314.0766516590232</v>
       </c>
       <c r="E14" t="n">
-        <v>340.1144746656997</v>
+        <v>340.1144746656996</v>
       </c>
       <c r="F14" t="n">
-        <v>340.1144746656997</v>
+        <v>340.1144746656996</v>
       </c>
       <c r="G14" t="n">
-        <v>340.1144746656997</v>
+        <v>340.1144746656996</v>
       </c>
       <c r="H14" t="n">
-        <v>340.1144746656997</v>
+        <v>340.1144746656996</v>
       </c>
       <c r="I14" t="n">
-        <v>340.1144746656997</v>
+        <v>340.1144746656996</v>
       </c>
       <c r="J14" t="n">
-        <v>284.9894803851427</v>
+        <v>279.9258505023572</v>
       </c>
       <c r="K14" t="n">
-        <v>332.9771993357285</v>
+        <v>340.1144746656996</v>
       </c>
       <c r="L14" t="n">
-        <v>340.1144746656997</v>
+        <v>340.1144746656996</v>
       </c>
       <c r="M14" t="n">
-        <v>339.8745082661167</v>
+        <v>340.1144746656996</v>
       </c>
       <c r="N14" t="n">
-        <v>340.1144746656997</v>
+        <v>337.8008628189294</v>
       </c>
       <c r="O14" t="n">
-        <v>340.1144746656997</v>
+        <v>340.1144746656996</v>
       </c>
       <c r="P14" t="n">
-        <v>340.1144746656997</v>
+        <v>340.1144746656996</v>
       </c>
       <c r="Q14" t="n">
-        <v>340.0672760565159</v>
+        <v>340.0672760565157</v>
       </c>
       <c r="R14" t="n">
-        <v>338.0065593086439</v>
+        <v>340.1144746656996</v>
       </c>
       <c r="S14" t="n">
         <v>283.4287804938413</v>
       </c>
       <c r="T14" t="n">
-        <v>232.9415028051443</v>
+        <v>230.5331475132914</v>
       </c>
       <c r="U14" t="n">
-        <v>255.1626445108904</v>
+        <v>255.4630844456872</v>
       </c>
       <c r="V14" t="n">
-        <v>315.6640705467505</v>
+        <v>315.6640705467502</v>
       </c>
       <c r="W14" t="n">
-        <v>324.448150025099</v>
+        <v>324.4481500250988</v>
       </c>
       <c r="X14" t="n">
-        <v>340.1144746656997</v>
+        <v>340.1144746656996</v>
       </c>
       <c r="Y14" t="n">
-        <v>340.1144746656997</v>
+        <v>340.1144746656996</v>
       </c>
     </row>
     <row r="15">
@@ -28427,28 +28427,28 @@
         <v>158.1109049945108</v>
       </c>
       <c r="J15" t="n">
-        <v>196.1968980682706</v>
+        <v>196.1968980682705</v>
       </c>
       <c r="K15" t="n">
-        <v>207.0473140575887</v>
+        <v>207.0473140575885</v>
       </c>
       <c r="L15" t="n">
-        <v>202.3661908576786</v>
+        <v>202.3661908576784</v>
       </c>
       <c r="M15" t="n">
-        <v>204.3791625828835</v>
+        <v>204.3791625828832</v>
       </c>
       <c r="N15" t="n">
-        <v>186.1379173439512</v>
+        <v>186.1379173439509</v>
       </c>
       <c r="O15" t="n">
-        <v>206.7517154342894</v>
+        <v>206.7517154342891</v>
       </c>
       <c r="P15" t="n">
-        <v>197.6700475178422</v>
+        <v>197.670047517842</v>
       </c>
       <c r="Q15" t="n">
-        <v>214.0752668694337</v>
+        <v>214.0752668694336</v>
       </c>
       <c r="R15" t="n">
         <v>230.2138949315427</v>
@@ -28509,34 +28509,34 @@
         <v>200.147680968913</v>
       </c>
       <c r="K16" t="n">
-        <v>199.4253728722466</v>
+        <v>199.4253728722465</v>
       </c>
       <c r="L16" t="n">
-        <v>206.1080182650092</v>
+        <v>206.108018265009</v>
       </c>
       <c r="M16" t="n">
-        <v>211.9638149676766</v>
+        <v>211.9638149676764</v>
       </c>
       <c r="N16" t="n">
-        <v>194.0263350716156</v>
+        <v>194.0263350716154</v>
       </c>
       <c r="O16" t="n">
-        <v>212.5569159161717</v>
+        <v>212.5569159161716</v>
       </c>
       <c r="P16" t="n">
-        <v>213.1677508915679</v>
+        <v>213.1677508915678</v>
       </c>
       <c r="Q16" t="n">
         <v>238.8288661366571</v>
       </c>
       <c r="R16" t="n">
-        <v>270.8937786623968</v>
+        <v>270.8937786623967</v>
       </c>
       <c r="S16" t="n">
         <v>263.9631991774843</v>
       </c>
       <c r="T16" t="n">
-        <v>217.897779363449</v>
+        <v>217.8977793634489</v>
       </c>
       <c r="U16" t="n">
         <v>292.9832048200181</v>
@@ -28561,76 +28561,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>341.9861428822982</v>
+        <v>341.9861428822981</v>
       </c>
       <c r="C17" t="n">
-        <v>338.6512846559515</v>
+        <v>338.6512846559516</v>
       </c>
       <c r="D17" t="n">
-        <v>322.8242538561184</v>
+        <v>322.8242538561186</v>
       </c>
       <c r="E17" t="n">
-        <v>341.9861428822982</v>
+        <v>341.9861428822981</v>
       </c>
       <c r="F17" t="n">
-        <v>341.9861428822982</v>
+        <v>341.9861428822981</v>
       </c>
       <c r="G17" t="n">
-        <v>341.9861428822982</v>
+        <v>341.9861428822981</v>
       </c>
       <c r="H17" t="n">
-        <v>341.9861428822982</v>
+        <v>341.9861428822981</v>
       </c>
       <c r="I17" t="n">
-        <v>334.2042600908391</v>
+        <v>341.9861428822981</v>
       </c>
       <c r="J17" t="n">
-        <v>293.7370825822376</v>
+        <v>277.5535919989164</v>
       </c>
       <c r="K17" t="n">
-        <v>341.9861428822982</v>
+        <v>332.6979646966215</v>
       </c>
       <c r="L17" t="n">
-        <v>341.9861428822982</v>
+        <v>341.9861428822981</v>
       </c>
       <c r="M17" t="n">
-        <v>339.8745082661167</v>
+        <v>341.366424580288</v>
       </c>
       <c r="N17" t="n">
-        <v>337.8008628189298</v>
+        <v>341.9861428822981</v>
       </c>
       <c r="O17" t="n">
-        <v>340.8644622462161</v>
+        <v>340.8644622462157</v>
       </c>
       <c r="P17" t="n">
-        <v>341.9861428822982</v>
+        <v>341.9861428822981</v>
       </c>
       <c r="Q17" t="n">
-        <v>340.0672760565159</v>
+        <v>340.0672760565157</v>
       </c>
       <c r="R17" t="n">
-        <v>338.0065593086439</v>
+        <v>338.0065593086438</v>
       </c>
       <c r="S17" t="n">
-        <v>299.6122710771623</v>
+        <v>299.6122710771624</v>
       </c>
       <c r="T17" t="n">
-        <v>227.688149434555</v>
+        <v>241.6891050022394</v>
       </c>
       <c r="U17" t="n">
-        <v>264.2106866427824</v>
+        <v>262.2223206750957</v>
       </c>
       <c r="V17" t="n">
-        <v>324.4116727438454</v>
+        <v>308.2281821605244</v>
       </c>
       <c r="W17" t="n">
-        <v>317.0122616388729</v>
+        <v>333.1957522221941</v>
       </c>
       <c r="X17" t="n">
-        <v>341.9861428822982</v>
+        <v>341.9861428822981</v>
       </c>
       <c r="Y17" t="n">
-        <v>341.9861428822982</v>
+        <v>341.9861428822981</v>
       </c>
     </row>
     <row r="18">
@@ -28664,31 +28664,31 @@
         <v>158.1109049945108</v>
       </c>
       <c r="J18" t="n">
-        <v>196.1968980682706</v>
+        <v>196.1968980682705</v>
       </c>
       <c r="K18" t="n">
-        <v>207.0473140575887</v>
+        <v>207.0473140575884</v>
       </c>
       <c r="L18" t="n">
-        <v>202.3661908576786</v>
+        <v>202.3661908576784</v>
       </c>
       <c r="M18" t="n">
-        <v>204.3791625828835</v>
+        <v>204.3791625828831</v>
       </c>
       <c r="N18" t="n">
-        <v>186.1379173439512</v>
+        <v>186.1379173439508</v>
       </c>
       <c r="O18" t="n">
-        <v>206.7517154342894</v>
+        <v>206.7517154342891</v>
       </c>
       <c r="P18" t="n">
-        <v>197.6700475178422</v>
+        <v>197.670047517842</v>
       </c>
       <c r="Q18" t="n">
-        <v>214.0752668694337</v>
+        <v>214.0752668694335</v>
       </c>
       <c r="R18" t="n">
-        <v>230.2138949315427</v>
+        <v>230.2138949315426</v>
       </c>
       <c r="S18" t="n">
         <v>237.7729423057121</v>
@@ -28740,40 +28740,40 @@
         <v>176.2725014119431</v>
       </c>
       <c r="I19" t="n">
-        <v>195.1030102679662</v>
+        <v>195.1030102679661</v>
       </c>
       <c r="J19" t="n">
-        <v>200.147680968913</v>
+        <v>200.1476809689129</v>
       </c>
       <c r="K19" t="n">
-        <v>199.4253728722466</v>
+        <v>199.4253728722465</v>
       </c>
       <c r="L19" t="n">
-        <v>206.1080182650092</v>
+        <v>206.108018265009</v>
       </c>
       <c r="M19" t="n">
-        <v>211.9638149676766</v>
+        <v>211.9638149676764</v>
       </c>
       <c r="N19" t="n">
-        <v>194.0263350716156</v>
+        <v>194.0263350716154</v>
       </c>
       <c r="O19" t="n">
-        <v>212.5569159161717</v>
+        <v>212.5569159161715</v>
       </c>
       <c r="P19" t="n">
-        <v>213.1677508915679</v>
+        <v>213.1677508915677</v>
       </c>
       <c r="Q19" t="n">
-        <v>238.8288661366571</v>
+        <v>238.828866136657</v>
       </c>
       <c r="R19" t="n">
-        <v>270.8937786623968</v>
+        <v>270.8937786623967</v>
       </c>
       <c r="S19" t="n">
         <v>263.9631991774843</v>
       </c>
       <c r="T19" t="n">
-        <v>217.897779363449</v>
+        <v>217.8977793634489</v>
       </c>
       <c r="U19" t="n">
         <v>292.9832048200181</v>
@@ -28798,76 +28798,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>342.3944551093145</v>
+        <v>342.3944551093143</v>
       </c>
       <c r="C20" t="n">
-        <v>336.3760151397358</v>
+        <v>341.782476007329</v>
       </c>
       <c r="D20" t="n">
-        <v>325.9554452074965</v>
+        <v>315.8147675234135</v>
       </c>
       <c r="E20" t="n">
-        <v>342.3944551093145</v>
+        <v>342.3944551093143</v>
       </c>
       <c r="F20" t="n">
-        <v>342.3944551093145</v>
+        <v>342.3944551093143</v>
       </c>
       <c r="G20" t="n">
-        <v>342.3944551093145</v>
+        <v>342.3944551093143</v>
       </c>
       <c r="H20" t="n">
-        <v>342.3944551093145</v>
+        <v>342.3944551093143</v>
       </c>
       <c r="I20" t="n">
-        <v>342.3944551093145</v>
+        <v>334.204260090839</v>
       </c>
       <c r="J20" t="n">
-        <v>296.8682739336157</v>
+        <v>293.7925298267646</v>
       </c>
       <c r="K20" t="n">
-        <v>332.6979646966219</v>
+        <v>342.3944551093143</v>
       </c>
       <c r="L20" t="n">
-        <v>342.3944551093145</v>
+        <v>342.3944551093143</v>
       </c>
       <c r="M20" t="n">
-        <v>339.8745082661167</v>
+        <v>342.3944551093143</v>
       </c>
       <c r="N20" t="n">
-        <v>337.8008628189298</v>
+        <v>337.8008628189294</v>
       </c>
       <c r="O20" t="n">
-        <v>342.3944551093145</v>
+        <v>340.8644622462158</v>
       </c>
       <c r="P20" t="n">
-        <v>342.3944551093145</v>
+        <v>342.3944551093143</v>
       </c>
       <c r="Q20" t="n">
-        <v>340.0672760565159</v>
+        <v>340.0672760565157</v>
       </c>
       <c r="R20" t="n">
-        <v>338.0065593086439</v>
+        <v>342.3944551093143</v>
       </c>
       <c r="S20" t="n">
-        <v>302.7434624285404</v>
+        <v>283.4287804938413</v>
       </c>
       <c r="T20" t="n">
-        <v>225.5056144189183</v>
+        <v>244.8202963536168</v>
       </c>
       <c r="U20" t="n">
-        <v>248.0271960594614</v>
+        <v>267.3418779941599</v>
       </c>
       <c r="V20" t="n">
-        <v>327.5428640952235</v>
+        <v>308.2281821605244</v>
       </c>
       <c r="W20" t="n">
-        <v>336.326943573572</v>
+        <v>336.3269435735714</v>
       </c>
       <c r="X20" t="n">
-        <v>341.4686393609607</v>
+        <v>342.3944551093143</v>
       </c>
       <c r="Y20" t="n">
-        <v>342.3944551093145</v>
+        <v>342.3944551093143</v>
       </c>
     </row>
     <row r="21">
@@ -28901,28 +28901,28 @@
         <v>158.1109049945108</v>
       </c>
       <c r="J21" t="n">
-        <v>196.1968980682706</v>
+        <v>196.1968980682705</v>
       </c>
       <c r="K21" t="n">
-        <v>207.0473140575887</v>
+        <v>207.0473140575885</v>
       </c>
       <c r="L21" t="n">
-        <v>202.3661908576786</v>
+        <v>202.3661908576784</v>
       </c>
       <c r="M21" t="n">
-        <v>204.3791625828835</v>
+        <v>204.3791625828832</v>
       </c>
       <c r="N21" t="n">
-        <v>186.1379173439512</v>
+        <v>186.1379173439509</v>
       </c>
       <c r="O21" t="n">
-        <v>206.7517154342894</v>
+        <v>206.7517154342891</v>
       </c>
       <c r="P21" t="n">
-        <v>197.6700475178422</v>
+        <v>197.670047517842</v>
       </c>
       <c r="Q21" t="n">
-        <v>214.0752668694337</v>
+        <v>214.0752668694336</v>
       </c>
       <c r="R21" t="n">
         <v>230.2138949315427</v>
@@ -28983,37 +28983,37 @@
         <v>200.147680968913</v>
       </c>
       <c r="K22" t="n">
-        <v>199.4253728722466</v>
+        <v>199.4253728722465</v>
       </c>
       <c r="L22" t="n">
-        <v>206.1080182650092</v>
+        <v>206.108018265009</v>
       </c>
       <c r="M22" t="n">
-        <v>211.9638149676766</v>
+        <v>211.9638149676764</v>
       </c>
       <c r="N22" t="n">
-        <v>194.0263350716156</v>
+        <v>194.0263350716154</v>
       </c>
       <c r="O22" t="n">
-        <v>212.5569159161717</v>
+        <v>212.5569159161716</v>
       </c>
       <c r="P22" t="n">
-        <v>213.1677508915679</v>
+        <v>213.1677508915678</v>
       </c>
       <c r="Q22" t="n">
         <v>238.8288661366571</v>
       </c>
       <c r="R22" t="n">
-        <v>270.8937786623968</v>
+        <v>270.8937786623967</v>
       </c>
       <c r="S22" t="n">
         <v>263.9631991774843</v>
       </c>
       <c r="T22" t="n">
-        <v>217.897779363449</v>
+        <v>217.8977793634489</v>
       </c>
       <c r="U22" t="n">
-        <v>292.9832048200182</v>
+        <v>292.9832048200181</v>
       </c>
       <c r="V22" t="n">
         <v>232.1699497460494</v>
@@ -29056,25 +29056,25 @@
         <v>343.805607446921</v>
       </c>
       <c r="I23" t="n">
+        <v>334.204260090839</v>
+      </c>
+      <c r="J23" t="n">
+        <v>277.5535919989164</v>
+      </c>
+      <c r="K23" t="n">
         <v>343.805607446921</v>
-      </c>
-      <c r="J23" t="n">
-        <v>277.5535919989166</v>
-      </c>
-      <c r="K23" t="n">
-        <v>332.6979646966219</v>
       </c>
       <c r="L23" t="n">
         <v>343.805607446921</v>
       </c>
       <c r="M23" t="n">
-        <v>339.8745082661167</v>
+        <v>343.805607446921</v>
       </c>
       <c r="N23" t="n">
-        <v>337.8008628189298</v>
+        <v>343.805607446921</v>
       </c>
       <c r="O23" t="n">
-        <v>340.8644622462161</v>
+        <v>340.8644622462158</v>
       </c>
       <c r="P23" t="n">
         <v>343.805607446921</v>
@@ -29083,10 +29083,10 @@
         <v>343.805607446921</v>
       </c>
       <c r="R23" t="n">
-        <v>339.1945959070889</v>
+        <v>343.805607446921</v>
       </c>
       <c r="S23" t="n">
-        <v>283.4287804938413</v>
+        <v>314.6327843234178</v>
       </c>
       <c r="T23" t="n">
         <v>225.5056144189183</v>
@@ -29095,10 +29095,10 @@
         <v>279.231199889038</v>
       </c>
       <c r="V23" t="n">
-        <v>339.432185990101</v>
+        <v>308.2281821605244</v>
       </c>
       <c r="W23" t="n">
-        <v>343.805607446921</v>
+        <v>327.752456704075</v>
       </c>
       <c r="X23" t="n">
         <v>343.805607446921</v>
@@ -29138,28 +29138,28 @@
         <v>158.1109049945108</v>
       </c>
       <c r="J24" t="n">
-        <v>196.1968980682706</v>
+        <v>196.1968980682705</v>
       </c>
       <c r="K24" t="n">
-        <v>207.0473140575887</v>
+        <v>207.0473140575885</v>
       </c>
       <c r="L24" t="n">
-        <v>202.3661908576786</v>
+        <v>202.3661908576784</v>
       </c>
       <c r="M24" t="n">
-        <v>204.3791625828835</v>
+        <v>204.3791625828832</v>
       </c>
       <c r="N24" t="n">
-        <v>186.1379173439512</v>
+        <v>186.1379173439509</v>
       </c>
       <c r="O24" t="n">
-        <v>206.7517154342894</v>
+        <v>206.7517154342891</v>
       </c>
       <c r="P24" t="n">
-        <v>197.6700475178422</v>
+        <v>197.670047517842</v>
       </c>
       <c r="Q24" t="n">
-        <v>214.0752668694337</v>
+        <v>214.0752668694336</v>
       </c>
       <c r="R24" t="n">
         <v>230.2138949315427</v>
@@ -29220,34 +29220,34 @@
         <v>200.147680968913</v>
       </c>
       <c r="K25" t="n">
-        <v>199.4253728722466</v>
+        <v>199.4253728722465</v>
       </c>
       <c r="L25" t="n">
-        <v>206.1080182650092</v>
+        <v>206.108018265009</v>
       </c>
       <c r="M25" t="n">
-        <v>211.9638149676766</v>
+        <v>211.9638149676764</v>
       </c>
       <c r="N25" t="n">
-        <v>194.0263350716156</v>
+        <v>194.0263350716154</v>
       </c>
       <c r="O25" t="n">
-        <v>212.5569159161717</v>
+        <v>212.5569159161716</v>
       </c>
       <c r="P25" t="n">
-        <v>213.1677508915679</v>
+        <v>213.1677508915678</v>
       </c>
       <c r="Q25" t="n">
         <v>238.8288661366571</v>
       </c>
       <c r="R25" t="n">
-        <v>270.8937786623968</v>
+        <v>270.8937786623967</v>
       </c>
       <c r="S25" t="n">
         <v>263.9631991774843</v>
       </c>
       <c r="T25" t="n">
-        <v>217.897779363449</v>
+        <v>217.8977793634489</v>
       </c>
       <c r="U25" t="n">
         <v>292.9832048200181</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>343.8056074469212</v>
+        <v>343.8056074469209</v>
       </c>
       <c r="C26" t="n">
-        <v>343.8056074469212</v>
+        <v>343.8056074469209</v>
       </c>
       <c r="D26" t="n">
-        <v>337.844767102374</v>
+        <v>308.000369518481</v>
       </c>
       <c r="E26" t="n">
-        <v>343.8056074469212</v>
+        <v>343.8056074469209</v>
       </c>
       <c r="F26" t="n">
-        <v>343.8056074469212</v>
+        <v>343.8056074469209</v>
       </c>
       <c r="G26" t="n">
-        <v>343.8056074469212</v>
+        <v>343.8056074469209</v>
       </c>
       <c r="H26" t="n">
-        <v>343.8056074469212</v>
+        <v>343.8056074469209</v>
       </c>
       <c r="I26" t="n">
-        <v>334.2042600908391</v>
+        <v>343.8056074469209</v>
       </c>
       <c r="J26" t="n">
-        <v>277.5535919989166</v>
+        <v>277.5535919989164</v>
       </c>
       <c r="K26" t="n">
-        <v>332.6979646966219</v>
+        <v>343.8056074469209</v>
       </c>
       <c r="L26" t="n">
-        <v>343.8056074469212</v>
+        <v>343.8056074469209</v>
       </c>
       <c r="M26" t="n">
-        <v>343.8056074469212</v>
+        <v>343.8056074469209</v>
       </c>
       <c r="N26" t="n">
-        <v>343.8056074469212</v>
+        <v>337.8008628189294</v>
       </c>
       <c r="O26" t="n">
-        <v>343.8056074469212</v>
+        <v>340.8644622462158</v>
       </c>
       <c r="P26" t="n">
-        <v>343.8056074469212</v>
+        <v>343.8056074469209</v>
       </c>
       <c r="Q26" t="n">
-        <v>340.0672760565159</v>
+        <v>340.0672760565157</v>
       </c>
       <c r="R26" t="n">
-        <v>338.0065593086439</v>
+        <v>338.0065593086438</v>
       </c>
       <c r="S26" t="n">
-        <v>283.4287804938413</v>
+        <v>303.1608041354795</v>
       </c>
       <c r="T26" t="n">
-        <v>256.7096182484949</v>
+        <v>225.5056144189183</v>
       </c>
       <c r="U26" t="n">
-        <v>279.231199889038</v>
+        <v>279.2311998890381</v>
       </c>
       <c r="V26" t="n">
-        <v>336.6722543040049</v>
+        <v>339.4321859901011</v>
       </c>
       <c r="W26" t="n">
-        <v>317.0122616388729</v>
+        <v>343.8056074469209</v>
       </c>
       <c r="X26" t="n">
-        <v>343.8056074469212</v>
+        <v>343.8056074469209</v>
       </c>
       <c r="Y26" t="n">
-        <v>343.8056074469212</v>
+        <v>343.8056074469209</v>
       </c>
     </row>
     <row r="27">
@@ -29375,28 +29375,28 @@
         <v>158.1109049945108</v>
       </c>
       <c r="J27" t="n">
-        <v>196.1968980682706</v>
+        <v>196.1968980682705</v>
       </c>
       <c r="K27" t="n">
-        <v>207.0473140575887</v>
+        <v>207.0473140575885</v>
       </c>
       <c r="L27" t="n">
-        <v>202.3661908576786</v>
+        <v>202.3661908576784</v>
       </c>
       <c r="M27" t="n">
-        <v>204.3791625828835</v>
+        <v>204.3791625828832</v>
       </c>
       <c r="N27" t="n">
-        <v>186.1379173439512</v>
+        <v>186.1379173439509</v>
       </c>
       <c r="O27" t="n">
-        <v>206.7517154342894</v>
+        <v>206.7517154342891</v>
       </c>
       <c r="P27" t="n">
-        <v>197.6700475178422</v>
+        <v>197.670047517842</v>
       </c>
       <c r="Q27" t="n">
-        <v>214.0752668694337</v>
+        <v>214.0752668694336</v>
       </c>
       <c r="R27" t="n">
         <v>230.2138949315427</v>
@@ -29457,34 +29457,34 @@
         <v>200.147680968913</v>
       </c>
       <c r="K28" t="n">
-        <v>199.4253728722466</v>
+        <v>199.4253728722465</v>
       </c>
       <c r="L28" t="n">
-        <v>206.1080182650092</v>
+        <v>206.108018265009</v>
       </c>
       <c r="M28" t="n">
-        <v>211.9638149676766</v>
+        <v>211.9638149676764</v>
       </c>
       <c r="N28" t="n">
-        <v>194.0263350716156</v>
+        <v>194.0263350716154</v>
       </c>
       <c r="O28" t="n">
-        <v>212.5569159161717</v>
+        <v>212.5569159161716</v>
       </c>
       <c r="P28" t="n">
-        <v>213.1677508915679</v>
+        <v>213.1677508915678</v>
       </c>
       <c r="Q28" t="n">
         <v>238.8288661366571</v>
       </c>
       <c r="R28" t="n">
-        <v>270.8937786623968</v>
+        <v>270.8937786623967</v>
       </c>
       <c r="S28" t="n">
         <v>263.9631991774843</v>
       </c>
       <c r="T28" t="n">
-        <v>217.897779363449</v>
+        <v>217.8977793634489</v>
       </c>
       <c r="U28" t="n">
         <v>292.9832048200181</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>343.8056074469211</v>
+        <v>343.8056074469209</v>
       </c>
       <c r="C29" t="n">
-        <v>343.8056074469211</v>
+        <v>343.8056074469209</v>
       </c>
       <c r="D29" t="n">
-        <v>308.0003695184806</v>
+        <v>308.000369518481</v>
       </c>
       <c r="E29" t="n">
-        <v>343.8056074469211</v>
+        <v>343.8056074469209</v>
       </c>
       <c r="F29" t="n">
-        <v>343.8056074469211</v>
+        <v>343.8056074469209</v>
       </c>
       <c r="G29" t="n">
-        <v>343.8056074469211</v>
+        <v>343.8056074469209</v>
       </c>
       <c r="H29" t="n">
-        <v>343.8056074469211</v>
+        <v>343.8056074469209</v>
       </c>
       <c r="I29" t="n">
-        <v>343.8056074469211</v>
+        <v>343.8056074469209</v>
       </c>
       <c r="J29" t="n">
-        <v>277.5535919989166</v>
+        <v>277.5535919989164</v>
       </c>
       <c r="K29" t="n">
-        <v>343.8056074469211</v>
+        <v>343.8056074469209</v>
       </c>
       <c r="L29" t="n">
-        <v>343.8056074469211</v>
+        <v>343.8056074469209</v>
       </c>
       <c r="M29" t="n">
-        <v>339.8745082661167</v>
+        <v>343.8056074469209</v>
       </c>
       <c r="N29" t="n">
-        <v>337.8008628189298</v>
+        <v>337.8008628189294</v>
       </c>
       <c r="O29" t="n">
-        <v>340.8644622462161</v>
+        <v>343.8056074469209</v>
       </c>
       <c r="P29" t="n">
-        <v>343.8056074469211</v>
+        <v>343.8056074469209</v>
       </c>
       <c r="Q29" t="n">
-        <v>343.8056074469211</v>
+        <v>343.8056074469209</v>
       </c>
       <c r="R29" t="n">
-        <v>343.8056074469211</v>
+        <v>343.8056074469209</v>
       </c>
       <c r="S29" t="n">
-        <v>314.6327843234179</v>
+        <v>283.4287804938413</v>
       </c>
       <c r="T29" t="n">
-        <v>256.7096182484949</v>
+        <v>256.709618248495</v>
       </c>
       <c r="U29" t="n">
-        <v>248.0271960594614</v>
+        <v>255.2806949717123</v>
       </c>
       <c r="V29" t="n">
-        <v>339.432185990101</v>
+        <v>339.4321859901011</v>
       </c>
       <c r="W29" t="n">
-        <v>326.727346911105</v>
+        <v>343.8056074469209</v>
       </c>
       <c r="X29" t="n">
-        <v>343.8056074469211</v>
+        <v>343.8056074469209</v>
       </c>
       <c r="Y29" t="n">
-        <v>343.8056074469211</v>
+        <v>343.8056074469209</v>
       </c>
     </row>
     <row r="30">
@@ -29612,28 +29612,28 @@
         <v>158.1109049945108</v>
       </c>
       <c r="J30" t="n">
-        <v>196.1968980682706</v>
+        <v>196.1968980682705</v>
       </c>
       <c r="K30" t="n">
-        <v>207.0473140575887</v>
+        <v>207.0473140575885</v>
       </c>
       <c r="L30" t="n">
-        <v>202.3661908576786</v>
+        <v>202.3661908576784</v>
       </c>
       <c r="M30" t="n">
-        <v>204.3791625828835</v>
+        <v>204.3791625828832</v>
       </c>
       <c r="N30" t="n">
-        <v>186.1379173439512</v>
+        <v>186.1379173439509</v>
       </c>
       <c r="O30" t="n">
-        <v>206.7517154342894</v>
+        <v>206.7517154342891</v>
       </c>
       <c r="P30" t="n">
-        <v>197.6700475178422</v>
+        <v>197.670047517842</v>
       </c>
       <c r="Q30" t="n">
-        <v>214.0752668694337</v>
+        <v>214.0752668694336</v>
       </c>
       <c r="R30" t="n">
         <v>230.2138949315427</v>
@@ -29694,34 +29694,34 @@
         <v>200.147680968913</v>
       </c>
       <c r="K31" t="n">
-        <v>199.4253728722466</v>
+        <v>199.4253728722465</v>
       </c>
       <c r="L31" t="n">
-        <v>206.1080182650092</v>
+        <v>206.108018265009</v>
       </c>
       <c r="M31" t="n">
-        <v>211.9638149676766</v>
+        <v>211.9638149676764</v>
       </c>
       <c r="N31" t="n">
-        <v>194.0263350716156</v>
+        <v>194.0263350716154</v>
       </c>
       <c r="O31" t="n">
-        <v>212.5569159161717</v>
+        <v>212.5569159161716</v>
       </c>
       <c r="P31" t="n">
-        <v>213.1677508915679</v>
+        <v>213.1677508915678</v>
       </c>
       <c r="Q31" t="n">
         <v>238.8288661366571</v>
       </c>
       <c r="R31" t="n">
-        <v>270.8937786623968</v>
+        <v>270.8937786623967</v>
       </c>
       <c r="S31" t="n">
         <v>263.9631991774843</v>
       </c>
       <c r="T31" t="n">
-        <v>217.897779363449</v>
+        <v>217.8977793634489</v>
       </c>
       <c r="U31" t="n">
         <v>292.9832048200181</v>
@@ -29749,10 +29749,10 @@
         <v>344.9878562047933</v>
       </c>
       <c r="C32" t="n">
-        <v>338.9053628830385</v>
+        <v>344.9878562047933</v>
       </c>
       <c r="D32" t="n">
-        <v>306.6407632727974</v>
+        <v>344.9878562047933</v>
       </c>
       <c r="E32" t="n">
         <v>344.9878562047933</v>
@@ -29767,52 +29767,52 @@
         <v>344.9878562047933</v>
       </c>
       <c r="I32" t="n">
-        <v>334.2042600908391</v>
+        <v>341.532404577214</v>
       </c>
       <c r="J32" t="n">
-        <v>328.0722777631919</v>
+        <v>277.5535919989164</v>
       </c>
       <c r="K32" t="n">
-        <v>344.9878562047933</v>
+        <v>332.6979646966216</v>
       </c>
       <c r="L32" t="n">
         <v>344.9878562047933</v>
       </c>
       <c r="M32" t="n">
-        <v>339.8745082661167</v>
+        <v>344.9878562047933</v>
       </c>
       <c r="N32" t="n">
-        <v>337.8008628189298</v>
+        <v>337.8008628189294</v>
       </c>
       <c r="O32" t="n">
-        <v>340.8644622462161</v>
+        <v>344.9878562047933</v>
       </c>
       <c r="P32" t="n">
         <v>344.9878562047933</v>
       </c>
       <c r="Q32" t="n">
-        <v>340.0672760565159</v>
+        <v>344.9878562047933</v>
       </c>
       <c r="R32" t="n">
+        <v>338.0065593086438</v>
+      </c>
+      <c r="S32" t="n">
+        <v>333.9474662581163</v>
+      </c>
+      <c r="T32" t="n">
+        <v>225.5056144189183</v>
+      </c>
+      <c r="U32" t="n">
+        <v>248.0271960594614</v>
+      </c>
+      <c r="V32" t="n">
+        <v>338.1653115856499</v>
+      </c>
+      <c r="W32" t="n">
         <v>344.9878562047933</v>
       </c>
-      <c r="S32" t="n">
-        <v>283.4287804938413</v>
-      </c>
-      <c r="T32" t="n">
-        <v>276.0243001831936</v>
-      </c>
-      <c r="U32" t="n">
-        <v>298.5458818237367</v>
-      </c>
-      <c r="V32" t="n">
-        <v>308.2281821605244</v>
-      </c>
-      <c r="W32" t="n">
-        <v>317.0122616388729</v>
-      </c>
       <c r="X32" t="n">
-        <v>344.9878562047933</v>
+        <v>341.4686393609607</v>
       </c>
       <c r="Y32" t="n">
         <v>344.9878562047933</v>
@@ -29849,28 +29849,28 @@
         <v>158.1109049945108</v>
       </c>
       <c r="J33" t="n">
-        <v>196.1968980682706</v>
+        <v>196.1968980682705</v>
       </c>
       <c r="K33" t="n">
-        <v>207.0473140575887</v>
+        <v>207.0473140575885</v>
       </c>
       <c r="L33" t="n">
-        <v>202.3661908576786</v>
+        <v>202.3661908576784</v>
       </c>
       <c r="M33" t="n">
-        <v>204.3791625828835</v>
+        <v>204.3791625828832</v>
       </c>
       <c r="N33" t="n">
-        <v>186.1379173439512</v>
+        <v>186.1379173439509</v>
       </c>
       <c r="O33" t="n">
-        <v>206.7517154342894</v>
+        <v>206.7517154342891</v>
       </c>
       <c r="P33" t="n">
-        <v>197.6700475178422</v>
+        <v>197.670047517842</v>
       </c>
       <c r="Q33" t="n">
-        <v>214.0752668694337</v>
+        <v>214.0752668694336</v>
       </c>
       <c r="R33" t="n">
         <v>230.2138949315427</v>
@@ -29931,34 +29931,34 @@
         <v>200.147680968913</v>
       </c>
       <c r="K34" t="n">
-        <v>199.4253728722466</v>
+        <v>199.4253728722465</v>
       </c>
       <c r="L34" t="n">
-        <v>206.1080182650092</v>
+        <v>206.108018265009</v>
       </c>
       <c r="M34" t="n">
-        <v>211.9638149676766</v>
+        <v>211.9638149676764</v>
       </c>
       <c r="N34" t="n">
-        <v>194.0263350716156</v>
+        <v>194.0263350716154</v>
       </c>
       <c r="O34" t="n">
-        <v>212.5569159161717</v>
+        <v>212.5569159161716</v>
       </c>
       <c r="P34" t="n">
-        <v>213.1677508915679</v>
+        <v>213.1677508915678</v>
       </c>
       <c r="Q34" t="n">
         <v>238.8288661366571</v>
       </c>
       <c r="R34" t="n">
-        <v>270.8937786623968</v>
+        <v>270.8937786623967</v>
       </c>
       <c r="S34" t="n">
         <v>263.9631991774843</v>
       </c>
       <c r="T34" t="n">
-        <v>217.897779363449</v>
+        <v>217.8977793634489</v>
       </c>
       <c r="U34" t="n">
         <v>292.9832048200181</v>
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>344.5795439777769</v>
+        <v>344.5795439777771</v>
       </c>
       <c r="C35" t="n">
-        <v>344.5795439777769</v>
+        <v>322.4677940726305</v>
       </c>
       <c r="D35" t="n">
-        <v>344.5795439777769</v>
+        <v>344.5795439777771</v>
       </c>
       <c r="E35" t="n">
-        <v>344.5795439777769</v>
+        <v>344.5795439777771</v>
       </c>
       <c r="F35" t="n">
-        <v>344.5795439777769</v>
+        <v>344.5795439777771</v>
       </c>
       <c r="G35" t="n">
-        <v>344.5795439777769</v>
+        <v>344.5795439777771</v>
       </c>
       <c r="H35" t="n">
-        <v>344.5795439777769</v>
+        <v>344.5795439777771</v>
       </c>
       <c r="I35" t="n">
-        <v>334.2042600908391</v>
+        <v>334.204260090839</v>
       </c>
       <c r="J35" t="n">
-        <v>321.2652973346925</v>
+        <v>312.4777788728054</v>
       </c>
       <c r="K35" t="n">
-        <v>344.5795439777769</v>
+        <v>332.6979646966216</v>
       </c>
       <c r="L35" t="n">
-        <v>344.5795439777769</v>
+        <v>344.5795439777771</v>
       </c>
       <c r="M35" t="n">
-        <v>339.8745082661167</v>
+        <v>344.5795439777771</v>
       </c>
       <c r="N35" t="n">
-        <v>337.8008628189298</v>
+        <v>344.5795439777771</v>
       </c>
       <c r="O35" t="n">
-        <v>344.5795439777769</v>
+        <v>340.8644622462158</v>
       </c>
       <c r="P35" t="n">
-        <v>344.5795439777769</v>
+        <v>344.5795439777771</v>
       </c>
       <c r="Q35" t="n">
-        <v>340.0672760565159</v>
+        <v>344.5795439777771</v>
       </c>
       <c r="R35" t="n">
-        <v>338.0065593086439</v>
+        <v>338.0065593086438</v>
       </c>
       <c r="S35" t="n">
-        <v>283.4287804938413</v>
+        <v>327.1404858296155</v>
       </c>
       <c r="T35" t="n">
         <v>225.5056144189183</v>
       </c>
       <c r="U35" t="n">
-        <v>291.7389013952373</v>
+        <v>291.7389013952356</v>
       </c>
       <c r="V35" t="n">
         <v>308.2281821605244</v>
       </c>
       <c r="W35" t="n">
-        <v>333.3349270034877</v>
+        <v>317.0122616388729</v>
       </c>
       <c r="X35" t="n">
-        <v>341.4686393609607</v>
+        <v>344.5795439777771</v>
       </c>
       <c r="Y35" t="n">
-        <v>344.5795439777769</v>
+        <v>344.5795439777771</v>
       </c>
     </row>
     <row r="36">
@@ -30086,28 +30086,28 @@
         <v>158.1109049945108</v>
       </c>
       <c r="J36" t="n">
-        <v>196.1968980682706</v>
+        <v>196.1968980682705</v>
       </c>
       <c r="K36" t="n">
-        <v>207.0473140575887</v>
+        <v>207.0473140575885</v>
       </c>
       <c r="L36" t="n">
-        <v>202.3661908576786</v>
+        <v>202.3661908576784</v>
       </c>
       <c r="M36" t="n">
-        <v>204.3791625828835</v>
+        <v>204.3791625828832</v>
       </c>
       <c r="N36" t="n">
-        <v>186.1379173439512</v>
+        <v>186.1379173439509</v>
       </c>
       <c r="O36" t="n">
-        <v>206.7517154342894</v>
+        <v>206.7517154342891</v>
       </c>
       <c r="P36" t="n">
-        <v>197.6700475178422</v>
+        <v>197.670047517842</v>
       </c>
       <c r="Q36" t="n">
-        <v>214.0752668694337</v>
+        <v>214.0752668694336</v>
       </c>
       <c r="R36" t="n">
         <v>230.2138949315427</v>
@@ -30168,34 +30168,34 @@
         <v>200.147680968913</v>
       </c>
       <c r="K37" t="n">
-        <v>199.4253728722466</v>
+        <v>199.4253728722465</v>
       </c>
       <c r="L37" t="n">
-        <v>206.1080182650092</v>
+        <v>206.108018265009</v>
       </c>
       <c r="M37" t="n">
-        <v>211.9638149676766</v>
+        <v>211.9638149676764</v>
       </c>
       <c r="N37" t="n">
-        <v>194.0263350716156</v>
+        <v>194.0263350716154</v>
       </c>
       <c r="O37" t="n">
-        <v>212.5569159161717</v>
+        <v>212.5569159161716</v>
       </c>
       <c r="P37" t="n">
-        <v>213.1677508915679</v>
+        <v>213.1677508915678</v>
       </c>
       <c r="Q37" t="n">
         <v>238.8288661366571</v>
       </c>
       <c r="R37" t="n">
-        <v>270.8937786623968</v>
+        <v>270.8937786623967</v>
       </c>
       <c r="S37" t="n">
         <v>263.9631991774843</v>
       </c>
       <c r="T37" t="n">
-        <v>217.897779363449</v>
+        <v>217.8977793634489</v>
       </c>
       <c r="U37" t="n">
         <v>292.9832048200181</v>
@@ -30220,55 +30220,55 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>344.5327066021225</v>
+        <v>344.5327066021224</v>
       </c>
       <c r="C38" t="n">
-        <v>324.2233682527223</v>
+        <v>344.5327066021224</v>
       </c>
       <c r="D38" t="n">
-        <v>306.6407632727974</v>
+        <v>344.5327066021224</v>
       </c>
       <c r="E38" t="n">
-        <v>344.5327066021225</v>
+        <v>344.5327066021224</v>
       </c>
       <c r="F38" t="n">
-        <v>344.5327066021225</v>
+        <v>344.5327066021224</v>
       </c>
       <c r="G38" t="n">
-        <v>344.5327066021225</v>
+        <v>344.5327066021224</v>
       </c>
       <c r="H38" t="n">
-        <v>344.5327066021225</v>
+        <v>344.5327066021224</v>
       </c>
       <c r="I38" t="n">
-        <v>344.5327066021225</v>
+        <v>344.5327066021224</v>
       </c>
       <c r="J38" t="n">
-        <v>277.5535919989166</v>
+        <v>277.5535919989164</v>
       </c>
       <c r="K38" t="n">
-        <v>332.6979646966219</v>
+        <v>332.6979646966216</v>
       </c>
       <c r="L38" t="n">
-        <v>344.5327066021225</v>
+        <v>344.5327066021224</v>
       </c>
       <c r="M38" t="n">
-        <v>339.8745082661167</v>
+        <v>344.5327066021224</v>
       </c>
       <c r="N38" t="n">
-        <v>344.5327066021225</v>
+        <v>344.5327066021224</v>
       </c>
       <c r="O38" t="n">
-        <v>340.8644622462161</v>
+        <v>340.8644622462158</v>
       </c>
       <c r="P38" t="n">
-        <v>344.5327066021225</v>
+        <v>344.5327066021224</v>
       </c>
       <c r="Q38" t="n">
-        <v>340.0672760565159</v>
+        <v>340.0672760565157</v>
       </c>
       <c r="R38" t="n">
-        <v>344.5327066021225</v>
+        <v>338.0065593086438</v>
       </c>
       <c r="S38" t="n">
         <v>283.4287804938413</v>
@@ -30277,19 +30277,19 @@
         <v>268.5884117969675</v>
       </c>
       <c r="U38" t="n">
-        <v>291.1099934375106</v>
+        <v>274.145252399016</v>
       </c>
       <c r="V38" t="n">
-        <v>344.5327066021225</v>
+        <v>308.2281821605244</v>
       </c>
       <c r="W38" t="n">
-        <v>344.5327066021225</v>
+        <v>344.5327066021224</v>
       </c>
       <c r="X38" t="n">
-        <v>344.5327066021225</v>
+        <v>341.4686393609607</v>
       </c>
       <c r="Y38" t="n">
-        <v>344.5327066021225</v>
+        <v>344.5327066021224</v>
       </c>
     </row>
     <row r="39">
@@ -30323,28 +30323,28 @@
         <v>158.1109049945108</v>
       </c>
       <c r="J39" t="n">
-        <v>196.1968980682706</v>
+        <v>196.1968980682705</v>
       </c>
       <c r="K39" t="n">
-        <v>207.0473140575887</v>
+        <v>207.0473140575885</v>
       </c>
       <c r="L39" t="n">
-        <v>202.3661908576786</v>
+        <v>202.3661908576784</v>
       </c>
       <c r="M39" t="n">
-        <v>204.3791625828835</v>
+        <v>204.3791625828832</v>
       </c>
       <c r="N39" t="n">
-        <v>186.1379173439512</v>
+        <v>186.1379173439509</v>
       </c>
       <c r="O39" t="n">
-        <v>206.7517154342894</v>
+        <v>206.7517154342891</v>
       </c>
       <c r="P39" t="n">
-        <v>197.6700475178422</v>
+        <v>197.670047517842</v>
       </c>
       <c r="Q39" t="n">
-        <v>214.0752668694337</v>
+        <v>214.0752668694336</v>
       </c>
       <c r="R39" t="n">
         <v>230.2138949315427</v>
@@ -30405,34 +30405,34 @@
         <v>200.147680968913</v>
       </c>
       <c r="K40" t="n">
-        <v>199.4253728722466</v>
+        <v>199.4253728722465</v>
       </c>
       <c r="L40" t="n">
-        <v>206.1080182650092</v>
+        <v>206.108018265009</v>
       </c>
       <c r="M40" t="n">
-        <v>211.9638149676766</v>
+        <v>211.9638149676764</v>
       </c>
       <c r="N40" t="n">
-        <v>194.0263350716156</v>
+        <v>194.0263350716154</v>
       </c>
       <c r="O40" t="n">
-        <v>212.5569159161717</v>
+        <v>212.5569159161716</v>
       </c>
       <c r="P40" t="n">
-        <v>213.1677508915679</v>
+        <v>213.1677508915678</v>
       </c>
       <c r="Q40" t="n">
         <v>238.8288661366571</v>
       </c>
       <c r="R40" t="n">
-        <v>270.8937786623968</v>
+        <v>270.8937786623967</v>
       </c>
       <c r="S40" t="n">
         <v>263.9631991774843</v>
       </c>
       <c r="T40" t="n">
-        <v>217.897779363449</v>
+        <v>217.8977793634489</v>
       </c>
       <c r="U40" t="n">
         <v>292.9832048200181</v>
@@ -30457,76 +30457,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>343.9972671956212</v>
+        <v>343.997267195621</v>
       </c>
       <c r="C41" t="n">
-        <v>343.9972671956212</v>
+        <v>343.997267195621</v>
       </c>
       <c r="D41" t="n">
-        <v>306.6407632727974</v>
+        <v>340.9759584537513</v>
       </c>
       <c r="E41" t="n">
-        <v>343.9972671956212</v>
+        <v>343.997267195621</v>
       </c>
       <c r="F41" t="n">
-        <v>343.9972671956212</v>
+        <v>343.997267195621</v>
       </c>
       <c r="G41" t="n">
-        <v>343.9972671956212</v>
+        <v>343.997267195621</v>
       </c>
       <c r="H41" t="n">
-        <v>343.9972671956212</v>
+        <v>343.997267195621</v>
       </c>
       <c r="I41" t="n">
-        <v>343.9972671956212</v>
+        <v>343.997267195621</v>
       </c>
       <c r="J41" t="n">
-        <v>277.5535919989165</v>
+        <v>277.5535919989164</v>
       </c>
       <c r="K41" t="n">
-        <v>332.6979646966219</v>
+        <v>332.6979646966216</v>
       </c>
       <c r="L41" t="n">
-        <v>343.9972671956212</v>
+        <v>343.997267195621</v>
       </c>
       <c r="M41" t="n">
-        <v>343.9972671956212</v>
+        <v>339.8745082661164</v>
       </c>
       <c r="N41" t="n">
-        <v>337.8008628189297</v>
+        <v>337.8008628189294</v>
       </c>
       <c r="O41" t="n">
-        <v>340.8644622462161</v>
+        <v>343.997267195621</v>
       </c>
       <c r="P41" t="n">
-        <v>343.9972671956212</v>
+        <v>343.997267195621</v>
       </c>
       <c r="Q41" t="n">
-        <v>340.0672760565159</v>
+        <v>343.997267195621</v>
       </c>
       <c r="R41" t="n">
-        <v>338.0065593086439</v>
+        <v>343.997267195621</v>
       </c>
       <c r="S41" t="n">
-        <v>317.7639756747959</v>
+        <v>317.7639756747952</v>
       </c>
       <c r="T41" t="n">
-        <v>259.8408095998729</v>
+        <v>225.5056144189183</v>
       </c>
       <c r="U41" t="n">
-        <v>273.4004525917313</v>
+        <v>261.9410797110896</v>
       </c>
       <c r="V41" t="n">
-        <v>342.563377341479</v>
+        <v>342.5633773414783</v>
       </c>
       <c r="W41" t="n">
         <v>317.0122616388729</v>
       </c>
       <c r="X41" t="n">
-        <v>341.4686393609607</v>
+        <v>343.997267195621</v>
       </c>
       <c r="Y41" t="n">
-        <v>343.9972671956212</v>
+        <v>343.997267195621</v>
       </c>
     </row>
     <row r="42">
@@ -30560,28 +30560,28 @@
         <v>158.1109049945108</v>
       </c>
       <c r="J42" t="n">
-        <v>196.1968980682706</v>
+        <v>196.1968980682705</v>
       </c>
       <c r="K42" t="n">
-        <v>207.0473140575886</v>
+        <v>207.0473140575885</v>
       </c>
       <c r="L42" t="n">
-        <v>202.3661908576786</v>
+        <v>202.3661908576784</v>
       </c>
       <c r="M42" t="n">
-        <v>204.3791625828835</v>
+        <v>204.3791625828832</v>
       </c>
       <c r="N42" t="n">
-        <v>186.1379173439511</v>
+        <v>186.1379173439509</v>
       </c>
       <c r="O42" t="n">
-        <v>206.7517154342894</v>
+        <v>206.7517154342891</v>
       </c>
       <c r="P42" t="n">
-        <v>197.6700475178422</v>
+        <v>197.670047517842</v>
       </c>
       <c r="Q42" t="n">
-        <v>214.0752668694337</v>
+        <v>214.0752668694336</v>
       </c>
       <c r="R42" t="n">
         <v>230.2138949315427</v>
@@ -30642,34 +30642,34 @@
         <v>200.147680968913</v>
       </c>
       <c r="K43" t="n">
-        <v>199.4253728722466</v>
+        <v>199.4253728722465</v>
       </c>
       <c r="L43" t="n">
-        <v>206.1080182650092</v>
+        <v>206.108018265009</v>
       </c>
       <c r="M43" t="n">
-        <v>211.9638149676766</v>
+        <v>211.9638149676764</v>
       </c>
       <c r="N43" t="n">
-        <v>194.0263350716155</v>
+        <v>194.0263350716154</v>
       </c>
       <c r="O43" t="n">
-        <v>212.5569159161717</v>
+        <v>212.5569159161716</v>
       </c>
       <c r="P43" t="n">
-        <v>213.1677508915679</v>
+        <v>213.1677508915678</v>
       </c>
       <c r="Q43" t="n">
         <v>238.8288661366571</v>
       </c>
       <c r="R43" t="n">
-        <v>270.8937786623968</v>
+        <v>270.8937786623967</v>
       </c>
       <c r="S43" t="n">
         <v>263.9631991774843</v>
       </c>
       <c r="T43" t="n">
-        <v>217.897779363449</v>
+        <v>217.8977793634489</v>
       </c>
       <c r="U43" t="n">
         <v>292.9832048200181</v>
@@ -30718,19 +30718,19 @@
         <v>343.805607446921</v>
       </c>
       <c r="J44" t="n">
-        <v>298.8029382257828</v>
+        <v>277.5535919989164</v>
       </c>
       <c r="K44" t="n">
-        <v>332.6979646966218</v>
+        <v>343.805607446921</v>
       </c>
       <c r="L44" t="n">
         <v>343.805607446921</v>
       </c>
       <c r="M44" t="n">
-        <v>339.8745082661167</v>
+        <v>339.8745082661163</v>
       </c>
       <c r="N44" t="n">
-        <v>337.8008628189297</v>
+        <v>339.806550071259</v>
       </c>
       <c r="O44" t="n">
         <v>343.805607446921</v>
@@ -30739,10 +30739,10 @@
         <v>343.805607446921</v>
       </c>
       <c r="Q44" t="n">
-        <v>340.0672760565159</v>
+        <v>340.0672760565156</v>
       </c>
       <c r="R44" t="n">
-        <v>338.0065593086439</v>
+        <v>343.805607446921</v>
       </c>
       <c r="S44" t="n">
         <v>314.6327843234179</v>
@@ -30760,7 +30760,7 @@
         <v>317.0122616388729</v>
       </c>
       <c r="X44" t="n">
-        <v>341.4686393609607</v>
+        <v>343.805607446921</v>
       </c>
       <c r="Y44" t="n">
         <v>343.805607446921</v>
@@ -30797,31 +30797,31 @@
         <v>158.1109049945108</v>
       </c>
       <c r="J45" t="n">
-        <v>196.1968980682706</v>
+        <v>196.1968980682705</v>
       </c>
       <c r="K45" t="n">
-        <v>207.0473140575886</v>
+        <v>207.0473140575884</v>
       </c>
       <c r="L45" t="n">
-        <v>202.3661908576786</v>
+        <v>202.3661908576784</v>
       </c>
       <c r="M45" t="n">
-        <v>204.3791625828835</v>
+        <v>204.3791625828831</v>
       </c>
       <c r="N45" t="n">
-        <v>186.1379173439511</v>
+        <v>186.1379173439508</v>
       </c>
       <c r="O45" t="n">
-        <v>206.7517154342894</v>
+        <v>206.7517154342891</v>
       </c>
       <c r="P45" t="n">
-        <v>197.6700475178422</v>
+        <v>197.670047517842</v>
       </c>
       <c r="Q45" t="n">
-        <v>214.0752668694337</v>
+        <v>214.0752668694335</v>
       </c>
       <c r="R45" t="n">
-        <v>230.2138949315427</v>
+        <v>230.2138949315426</v>
       </c>
       <c r="S45" t="n">
         <v>237.7729423057121</v>
@@ -30873,40 +30873,40 @@
         <v>176.2725014119431</v>
       </c>
       <c r="I46" t="n">
-        <v>195.1030102679662</v>
+        <v>195.1030102679661</v>
       </c>
       <c r="J46" t="n">
-        <v>200.147680968913</v>
+        <v>200.1476809689129</v>
       </c>
       <c r="K46" t="n">
-        <v>199.4253728722466</v>
+        <v>199.4253728722465</v>
       </c>
       <c r="L46" t="n">
-        <v>206.1080182650092</v>
+        <v>206.108018265009</v>
       </c>
       <c r="M46" t="n">
-        <v>211.9638149676765</v>
+        <v>211.9638149676764</v>
       </c>
       <c r="N46" t="n">
-        <v>194.0263350716155</v>
+        <v>194.0263350716154</v>
       </c>
       <c r="O46" t="n">
-        <v>212.5569159161717</v>
+        <v>212.5569159161715</v>
       </c>
       <c r="P46" t="n">
-        <v>213.1677508915679</v>
+        <v>213.1677508915677</v>
       </c>
       <c r="Q46" t="n">
-        <v>238.8288661366571</v>
+        <v>238.828866136657</v>
       </c>
       <c r="R46" t="n">
-        <v>270.8937786623968</v>
+        <v>270.8937786623967</v>
       </c>
       <c r="S46" t="n">
         <v>263.9631991774843</v>
       </c>
       <c r="T46" t="n">
-        <v>217.897779363449</v>
+        <v>217.8977793634489</v>
       </c>
       <c r="U46" t="n">
         <v>292.9832048200181</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1961266334638055</v>
+        <v>0.1961266334638075</v>
       </c>
       <c r="H11" t="n">
-        <v>2.008581884961198</v>
+        <v>2.008581884961219</v>
       </c>
       <c r="I11" t="n">
-        <v>7.561172036613369</v>
+        <v>7.561172036613447</v>
       </c>
       <c r="J11" t="n">
-        <v>16.64600285694868</v>
+        <v>16.64600285694885</v>
       </c>
       <c r="K11" t="n">
-        <v>24.94804325147157</v>
+        <v>24.94804325147183</v>
       </c>
       <c r="L11" t="n">
-        <v>30.95025371033951</v>
+        <v>30.95025371033983</v>
       </c>
       <c r="M11" t="n">
-        <v>34.43812072820146</v>
+        <v>34.43812072820182</v>
       </c>
       <c r="N11" t="n">
-        <v>34.9953655255305</v>
+        <v>34.99536552553086</v>
       </c>
       <c r="O11" t="n">
-        <v>33.04513131402479</v>
+        <v>33.04513131402513</v>
       </c>
       <c r="P11" t="n">
-        <v>28.20325505038708</v>
+        <v>28.20325505038737</v>
       </c>
       <c r="Q11" t="n">
-        <v>21.17946998946454</v>
+        <v>21.17946998946476</v>
       </c>
       <c r="R11" t="n">
-        <v>12.31993963932078</v>
+        <v>12.31993963932091</v>
       </c>
       <c r="S11" t="n">
-        <v>4.469235660056472</v>
+        <v>4.469235660056518</v>
       </c>
       <c r="T11" t="n">
-        <v>0.858544337987809</v>
+        <v>0.8585443379878179</v>
       </c>
       <c r="U11" t="n">
-        <v>0.01569013067710444</v>
+        <v>0.0156901306771046</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1049370001594315</v>
+        <v>0.1049370001594326</v>
       </c>
       <c r="H12" t="n">
-        <v>1.013470501539773</v>
+        <v>1.013470501539783</v>
       </c>
       <c r="I12" t="n">
-        <v>3.612962505489199</v>
+        <v>3.612962505489236</v>
       </c>
       <c r="J12" t="n">
-        <v>9.91424526506278</v>
+        <v>9.914245265062883</v>
       </c>
       <c r="K12" t="n">
-        <v>16.94502427574469</v>
+        <v>16.94502427574486</v>
       </c>
       <c r="L12" t="n">
-        <v>22.78467628461691</v>
+        <v>22.78467628461715</v>
       </c>
       <c r="M12" t="n">
-        <v>26.5886425403963</v>
+        <v>26.58864254039657</v>
       </c>
       <c r="N12" t="n">
-        <v>27.29236479146547</v>
+        <v>27.29236479146575</v>
       </c>
       <c r="O12" t="n">
-        <v>24.96718178793281</v>
+        <v>24.96718178793306</v>
       </c>
       <c r="P12" t="n">
-        <v>20.03836453044442</v>
+        <v>20.03836453044463</v>
       </c>
       <c r="Q12" t="n">
-        <v>13.39511602035129</v>
+        <v>13.39511602035143</v>
       </c>
       <c r="R12" t="n">
-        <v>6.51529900989874</v>
+        <v>6.515299009898807</v>
       </c>
       <c r="S12" t="n">
-        <v>1.949158752961369</v>
+        <v>1.949158752961389</v>
       </c>
       <c r="T12" t="n">
-        <v>0.4229697506426206</v>
+        <v>0.422969750642625</v>
       </c>
       <c r="U12" t="n">
-        <v>0.006903750010488916</v>
+        <v>0.006903750010488987</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.08797565587136691</v>
+        <v>0.08797565587136781</v>
       </c>
       <c r="H13" t="n">
-        <v>0.7821835585654263</v>
+        <v>0.7821835585654344</v>
       </c>
       <c r="I13" t="n">
-        <v>2.645667905658926</v>
+        <v>2.645667905658953</v>
       </c>
       <c r="J13" t="n">
-        <v>6.21987887010564</v>
+        <v>6.219878870105704</v>
       </c>
       <c r="K13" t="n">
-        <v>10.22117165487335</v>
+        <v>10.22117165487346</v>
       </c>
       <c r="L13" t="n">
-        <v>13.07958069200304</v>
+        <v>13.07958069200318</v>
       </c>
       <c r="M13" t="n">
-        <v>13.79058394718163</v>
+        <v>13.79058394718177</v>
       </c>
       <c r="N13" t="n">
-        <v>13.46267468438837</v>
+        <v>13.4626746843885</v>
       </c>
       <c r="O13" t="n">
-        <v>12.43495906807285</v>
+        <v>12.43495906807298</v>
       </c>
       <c r="P13" t="n">
-        <v>10.64025568829695</v>
+        <v>10.64025568829706</v>
       </c>
       <c r="Q13" t="n">
-        <v>7.36676151119237</v>
+        <v>7.366761511192446</v>
       </c>
       <c r="R13" t="n">
-        <v>3.955705399452551</v>
+        <v>3.955705399452592</v>
       </c>
       <c r="S13" t="n">
-        <v>1.533175748231003</v>
+        <v>1.533175748231019</v>
       </c>
       <c r="T13" t="n">
-        <v>0.3758959841776585</v>
+        <v>0.3758959841776624</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0047986721384382</v>
+        <v>0.00479867213843825</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1961266334638055</v>
+        <v>0.1961266334638075</v>
       </c>
       <c r="H14" t="n">
-        <v>2.008581884961198</v>
+        <v>2.008581884961219</v>
       </c>
       <c r="I14" t="n">
-        <v>7.561172036613369</v>
+        <v>7.561172036613447</v>
       </c>
       <c r="J14" t="n">
-        <v>16.64600285694868</v>
+        <v>16.64600285694885</v>
       </c>
       <c r="K14" t="n">
-        <v>24.94804325147157</v>
+        <v>24.94804325147183</v>
       </c>
       <c r="L14" t="n">
-        <v>30.95025371033951</v>
+        <v>30.95025371033983</v>
       </c>
       <c r="M14" t="n">
-        <v>34.43812072820146</v>
+        <v>34.43812072820182</v>
       </c>
       <c r="N14" t="n">
-        <v>34.9953655255305</v>
+        <v>34.99536552553086</v>
       </c>
       <c r="O14" t="n">
-        <v>33.04513131402479</v>
+        <v>33.04513131402513</v>
       </c>
       <c r="P14" t="n">
-        <v>28.20325505038708</v>
+        <v>28.20325505038737</v>
       </c>
       <c r="Q14" t="n">
-        <v>21.17946998946454</v>
+        <v>21.17946998946476</v>
       </c>
       <c r="R14" t="n">
-        <v>12.31993963932078</v>
+        <v>12.31993963932091</v>
       </c>
       <c r="S14" t="n">
-        <v>4.469235660056472</v>
+        <v>4.469235660056518</v>
       </c>
       <c r="T14" t="n">
-        <v>0.858544337987809</v>
+        <v>0.8585443379878179</v>
       </c>
       <c r="U14" t="n">
-        <v>0.01569013067710444</v>
+        <v>0.0156901306771046</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1049370001594315</v>
+        <v>0.1049370001594326</v>
       </c>
       <c r="H15" t="n">
-        <v>1.013470501539773</v>
+        <v>1.013470501539783</v>
       </c>
       <c r="I15" t="n">
-        <v>3.612962505489199</v>
+        <v>3.612962505489236</v>
       </c>
       <c r="J15" t="n">
-        <v>9.91424526506278</v>
+        <v>9.914245265062883</v>
       </c>
       <c r="K15" t="n">
-        <v>16.94502427574469</v>
+        <v>16.94502427574486</v>
       </c>
       <c r="L15" t="n">
-        <v>22.78467628461691</v>
+        <v>22.78467628461715</v>
       </c>
       <c r="M15" t="n">
-        <v>26.5886425403963</v>
+        <v>26.58864254039657</v>
       </c>
       <c r="N15" t="n">
-        <v>27.29236479146547</v>
+        <v>27.29236479146575</v>
       </c>
       <c r="O15" t="n">
-        <v>24.96718178793281</v>
+        <v>24.96718178793306</v>
       </c>
       <c r="P15" t="n">
-        <v>20.03836453044442</v>
+        <v>20.03836453044463</v>
       </c>
       <c r="Q15" t="n">
-        <v>13.39511602035129</v>
+        <v>13.39511602035143</v>
       </c>
       <c r="R15" t="n">
-        <v>6.51529900989874</v>
+        <v>6.515299009898807</v>
       </c>
       <c r="S15" t="n">
-        <v>1.949158752961369</v>
+        <v>1.949158752961389</v>
       </c>
       <c r="T15" t="n">
-        <v>0.4229697506426206</v>
+        <v>0.422969750642625</v>
       </c>
       <c r="U15" t="n">
-        <v>0.006903750010488916</v>
+        <v>0.006903750010488987</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.08797565587136691</v>
+        <v>0.08797565587136781</v>
       </c>
       <c r="H16" t="n">
-        <v>0.7821835585654263</v>
+        <v>0.7821835585654344</v>
       </c>
       <c r="I16" t="n">
-        <v>2.645667905658926</v>
+        <v>2.645667905658953</v>
       </c>
       <c r="J16" t="n">
-        <v>6.21987887010564</v>
+        <v>6.219878870105704</v>
       </c>
       <c r="K16" t="n">
-        <v>10.22117165487335</v>
+        <v>10.22117165487346</v>
       </c>
       <c r="L16" t="n">
-        <v>13.07958069200304</v>
+        <v>13.07958069200318</v>
       </c>
       <c r="M16" t="n">
-        <v>13.79058394718163</v>
+        <v>13.79058394718177</v>
       </c>
       <c r="N16" t="n">
-        <v>13.46267468438837</v>
+        <v>13.4626746843885</v>
       </c>
       <c r="O16" t="n">
-        <v>12.43495906807285</v>
+        <v>12.43495906807298</v>
       </c>
       <c r="P16" t="n">
-        <v>10.64025568829695</v>
+        <v>10.64025568829706</v>
       </c>
       <c r="Q16" t="n">
-        <v>7.36676151119237</v>
+        <v>7.366761511192446</v>
       </c>
       <c r="R16" t="n">
-        <v>3.955705399452551</v>
+        <v>3.955705399452592</v>
       </c>
       <c r="S16" t="n">
-        <v>1.533175748231003</v>
+        <v>1.533175748231019</v>
       </c>
       <c r="T16" t="n">
-        <v>0.3758959841776585</v>
+        <v>0.3758959841776624</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0047986721384382</v>
+        <v>0.00479867213843825</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1961266334638055</v>
+        <v>0.196126633463808</v>
       </c>
       <c r="H17" t="n">
-        <v>2.008581884961198</v>
+        <v>2.008581884961224</v>
       </c>
       <c r="I17" t="n">
-        <v>7.561172036613369</v>
+        <v>7.561172036613466</v>
       </c>
       <c r="J17" t="n">
-        <v>16.64600285694868</v>
+        <v>16.64600285694889</v>
       </c>
       <c r="K17" t="n">
-        <v>24.94804325147157</v>
+        <v>24.94804325147189</v>
       </c>
       <c r="L17" t="n">
-        <v>30.95025371033951</v>
+        <v>30.95025371033991</v>
       </c>
       <c r="M17" t="n">
-        <v>34.43812072820146</v>
+        <v>34.4381207282019</v>
       </c>
       <c r="N17" t="n">
-        <v>34.9953655255305</v>
+        <v>34.99536552553095</v>
       </c>
       <c r="O17" t="n">
-        <v>33.04513131402479</v>
+        <v>33.04513131402521</v>
       </c>
       <c r="P17" t="n">
-        <v>28.20325505038708</v>
+        <v>28.20325505038744</v>
       </c>
       <c r="Q17" t="n">
-        <v>21.17946998946454</v>
+        <v>21.17946998946481</v>
       </c>
       <c r="R17" t="n">
-        <v>12.31993963932078</v>
+        <v>12.31993963932094</v>
       </c>
       <c r="S17" t="n">
-        <v>4.469235660056472</v>
+        <v>4.46923566005653</v>
       </c>
       <c r="T17" t="n">
-        <v>0.858544337987809</v>
+        <v>0.85854433798782</v>
       </c>
       <c r="U17" t="n">
-        <v>0.01569013067710444</v>
+        <v>0.01569013067710464</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1049370001594315</v>
+        <v>0.1049370001594328</v>
       </c>
       <c r="H18" t="n">
-        <v>1.013470501539773</v>
+        <v>1.013470501539786</v>
       </c>
       <c r="I18" t="n">
-        <v>3.612962505489199</v>
+        <v>3.612962505489245</v>
       </c>
       <c r="J18" t="n">
-        <v>9.91424526506278</v>
+        <v>9.914245265062908</v>
       </c>
       <c r="K18" t="n">
-        <v>16.94502427574469</v>
+        <v>16.94502427574491</v>
       </c>
       <c r="L18" t="n">
-        <v>22.78467628461691</v>
+        <v>22.78467628461721</v>
       </c>
       <c r="M18" t="n">
-        <v>26.5886425403963</v>
+        <v>26.58864254039664</v>
       </c>
       <c r="N18" t="n">
-        <v>27.29236479146547</v>
+        <v>27.29236479146582</v>
       </c>
       <c r="O18" t="n">
-        <v>24.96718178793281</v>
+        <v>24.96718178793313</v>
       </c>
       <c r="P18" t="n">
-        <v>20.03836453044442</v>
+        <v>20.03836453044468</v>
       </c>
       <c r="Q18" t="n">
-        <v>13.39511602035129</v>
+        <v>13.39511602035146</v>
       </c>
       <c r="R18" t="n">
-        <v>6.51529900989874</v>
+        <v>6.515299009898824</v>
       </c>
       <c r="S18" t="n">
-        <v>1.949158752961369</v>
+        <v>1.949158752961394</v>
       </c>
       <c r="T18" t="n">
-        <v>0.4229697506426206</v>
+        <v>0.422969750642626</v>
       </c>
       <c r="U18" t="n">
-        <v>0.006903750010488916</v>
+        <v>0.006903750010489005</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.08797565587136691</v>
+        <v>0.08797565587136803</v>
       </c>
       <c r="H19" t="n">
-        <v>0.7821835585654263</v>
+        <v>0.7821835585654364</v>
       </c>
       <c r="I19" t="n">
-        <v>2.645667905658926</v>
+        <v>2.645667905658959</v>
       </c>
       <c r="J19" t="n">
-        <v>6.21987887010564</v>
+        <v>6.219878870105719</v>
       </c>
       <c r="K19" t="n">
-        <v>10.22117165487335</v>
+        <v>10.22117165487348</v>
       </c>
       <c r="L19" t="n">
-        <v>13.07958069200304</v>
+        <v>13.07958069200321</v>
       </c>
       <c r="M19" t="n">
-        <v>13.79058394718163</v>
+        <v>13.79058394718181</v>
       </c>
       <c r="N19" t="n">
-        <v>13.46267468438837</v>
+        <v>13.46267468438854</v>
       </c>
       <c r="O19" t="n">
-        <v>12.43495906807285</v>
+        <v>12.43495906807301</v>
       </c>
       <c r="P19" t="n">
-        <v>10.64025568829695</v>
+        <v>10.64025568829709</v>
       </c>
       <c r="Q19" t="n">
-        <v>7.36676151119237</v>
+        <v>7.366761511192464</v>
       </c>
       <c r="R19" t="n">
-        <v>3.955705399452551</v>
+        <v>3.955705399452602</v>
       </c>
       <c r="S19" t="n">
-        <v>1.533175748231003</v>
+        <v>1.533175748231022</v>
       </c>
       <c r="T19" t="n">
-        <v>0.3758959841776585</v>
+        <v>0.3758959841776633</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0047986721384382</v>
+        <v>0.004798672138438262</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1961266334638055</v>
+        <v>0.1961266334638075</v>
       </c>
       <c r="H20" t="n">
-        <v>2.008581884961198</v>
+        <v>2.008581884961219</v>
       </c>
       <c r="I20" t="n">
-        <v>7.561172036613369</v>
+        <v>7.561172036613447</v>
       </c>
       <c r="J20" t="n">
-        <v>16.64600285694868</v>
+        <v>16.64600285694885</v>
       </c>
       <c r="K20" t="n">
-        <v>24.94804325147157</v>
+        <v>24.94804325147183</v>
       </c>
       <c r="L20" t="n">
-        <v>30.95025371033951</v>
+        <v>30.95025371033983</v>
       </c>
       <c r="M20" t="n">
-        <v>34.43812072820146</v>
+        <v>34.43812072820182</v>
       </c>
       <c r="N20" t="n">
-        <v>34.9953655255305</v>
+        <v>34.99536552553086</v>
       </c>
       <c r="O20" t="n">
-        <v>33.04513131402479</v>
+        <v>33.04513131402513</v>
       </c>
       <c r="P20" t="n">
-        <v>28.20325505038708</v>
+        <v>28.20325505038737</v>
       </c>
       <c r="Q20" t="n">
-        <v>21.17946998946454</v>
+        <v>21.17946998946476</v>
       </c>
       <c r="R20" t="n">
-        <v>12.31993963932078</v>
+        <v>12.31993963932091</v>
       </c>
       <c r="S20" t="n">
-        <v>4.469235660056472</v>
+        <v>4.469235660056518</v>
       </c>
       <c r="T20" t="n">
-        <v>0.858544337987809</v>
+        <v>0.8585443379878179</v>
       </c>
       <c r="U20" t="n">
-        <v>0.01569013067710444</v>
+        <v>0.0156901306771046</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1049370001594315</v>
+        <v>0.1049370001594326</v>
       </c>
       <c r="H21" t="n">
-        <v>1.013470501539773</v>
+        <v>1.013470501539783</v>
       </c>
       <c r="I21" t="n">
-        <v>3.612962505489199</v>
+        <v>3.612962505489236</v>
       </c>
       <c r="J21" t="n">
-        <v>9.91424526506278</v>
+        <v>9.914245265062883</v>
       </c>
       <c r="K21" t="n">
-        <v>16.94502427574469</v>
+        <v>16.94502427574486</v>
       </c>
       <c r="L21" t="n">
-        <v>22.78467628461691</v>
+        <v>22.78467628461715</v>
       </c>
       <c r="M21" t="n">
-        <v>26.5886425403963</v>
+        <v>26.58864254039657</v>
       </c>
       <c r="N21" t="n">
-        <v>27.29236479146547</v>
+        <v>27.29236479146575</v>
       </c>
       <c r="O21" t="n">
-        <v>24.96718178793281</v>
+        <v>24.96718178793306</v>
       </c>
       <c r="P21" t="n">
-        <v>20.03836453044442</v>
+        <v>20.03836453044463</v>
       </c>
       <c r="Q21" t="n">
-        <v>13.39511602035129</v>
+        <v>13.39511602035143</v>
       </c>
       <c r="R21" t="n">
-        <v>6.51529900989874</v>
+        <v>6.515299009898807</v>
       </c>
       <c r="S21" t="n">
-        <v>1.949158752961369</v>
+        <v>1.949158752961389</v>
       </c>
       <c r="T21" t="n">
-        <v>0.4229697506426206</v>
+        <v>0.422969750642625</v>
       </c>
       <c r="U21" t="n">
-        <v>0.006903750010488916</v>
+        <v>0.006903750010488987</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.08797565587136691</v>
+        <v>0.08797565587136781</v>
       </c>
       <c r="H22" t="n">
-        <v>0.7821835585654263</v>
+        <v>0.7821835585654344</v>
       </c>
       <c r="I22" t="n">
-        <v>2.645667905658926</v>
+        <v>2.645667905658953</v>
       </c>
       <c r="J22" t="n">
-        <v>6.21987887010564</v>
+        <v>6.219878870105704</v>
       </c>
       <c r="K22" t="n">
-        <v>10.22117165487335</v>
+        <v>10.22117165487346</v>
       </c>
       <c r="L22" t="n">
-        <v>13.07958069200304</v>
+        <v>13.07958069200318</v>
       </c>
       <c r="M22" t="n">
-        <v>13.79058394718163</v>
+        <v>13.79058394718177</v>
       </c>
       <c r="N22" t="n">
-        <v>13.46267468438837</v>
+        <v>13.4626746843885</v>
       </c>
       <c r="O22" t="n">
-        <v>12.43495906807285</v>
+        <v>12.43495906807298</v>
       </c>
       <c r="P22" t="n">
-        <v>10.64025568829695</v>
+        <v>10.64025568829706</v>
       </c>
       <c r="Q22" t="n">
-        <v>7.36676151119237</v>
+        <v>7.366761511192446</v>
       </c>
       <c r="R22" t="n">
-        <v>3.955705399452551</v>
+        <v>3.955705399452592</v>
       </c>
       <c r="S22" t="n">
-        <v>1.533175748231003</v>
+        <v>1.533175748231019</v>
       </c>
       <c r="T22" t="n">
-        <v>0.3758959841776585</v>
+        <v>0.3758959841776624</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0047986721384382</v>
+        <v>0.00479867213843825</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1961266334638055</v>
+        <v>0.1961266334638075</v>
       </c>
       <c r="H23" t="n">
-        <v>2.008581884961198</v>
+        <v>2.008581884961219</v>
       </c>
       <c r="I23" t="n">
-        <v>7.561172036613369</v>
+        <v>7.561172036613447</v>
       </c>
       <c r="J23" t="n">
-        <v>16.64600285694868</v>
+        <v>16.64600285694885</v>
       </c>
       <c r="K23" t="n">
-        <v>24.94804325147157</v>
+        <v>24.94804325147183</v>
       </c>
       <c r="L23" t="n">
-        <v>30.95025371033951</v>
+        <v>30.95025371033983</v>
       </c>
       <c r="M23" t="n">
-        <v>34.43812072820146</v>
+        <v>34.43812072820182</v>
       </c>
       <c r="N23" t="n">
-        <v>34.9953655255305</v>
+        <v>34.99536552553086</v>
       </c>
       <c r="O23" t="n">
-        <v>33.04513131402479</v>
+        <v>33.04513131402513</v>
       </c>
       <c r="P23" t="n">
-        <v>28.20325505038708</v>
+        <v>28.20325505038737</v>
       </c>
       <c r="Q23" t="n">
-        <v>21.17946998946454</v>
+        <v>21.17946998946476</v>
       </c>
       <c r="R23" t="n">
-        <v>12.31993963932078</v>
+        <v>12.31993963932091</v>
       </c>
       <c r="S23" t="n">
-        <v>4.469235660056472</v>
+        <v>4.469235660056518</v>
       </c>
       <c r="T23" t="n">
-        <v>0.858544337987809</v>
+        <v>0.8585443379878179</v>
       </c>
       <c r="U23" t="n">
-        <v>0.01569013067710444</v>
+        <v>0.0156901306771046</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1049370001594315</v>
+        <v>0.1049370001594326</v>
       </c>
       <c r="H24" t="n">
-        <v>1.013470501539773</v>
+        <v>1.013470501539783</v>
       </c>
       <c r="I24" t="n">
-        <v>3.612962505489199</v>
+        <v>3.612962505489236</v>
       </c>
       <c r="J24" t="n">
-        <v>9.91424526506278</v>
+        <v>9.914245265062883</v>
       </c>
       <c r="K24" t="n">
-        <v>16.94502427574469</v>
+        <v>16.94502427574486</v>
       </c>
       <c r="L24" t="n">
-        <v>22.78467628461691</v>
+        <v>22.78467628461715</v>
       </c>
       <c r="M24" t="n">
-        <v>26.5886425403963</v>
+        <v>26.58864254039657</v>
       </c>
       <c r="N24" t="n">
-        <v>27.29236479146547</v>
+        <v>27.29236479146575</v>
       </c>
       <c r="O24" t="n">
-        <v>24.96718178793281</v>
+        <v>24.96718178793306</v>
       </c>
       <c r="P24" t="n">
-        <v>20.03836453044442</v>
+        <v>20.03836453044463</v>
       </c>
       <c r="Q24" t="n">
-        <v>13.39511602035129</v>
+        <v>13.39511602035143</v>
       </c>
       <c r="R24" t="n">
-        <v>6.51529900989874</v>
+        <v>6.515299009898807</v>
       </c>
       <c r="S24" t="n">
-        <v>1.949158752961369</v>
+        <v>1.949158752961389</v>
       </c>
       <c r="T24" t="n">
-        <v>0.4229697506426206</v>
+        <v>0.422969750642625</v>
       </c>
       <c r="U24" t="n">
-        <v>0.006903750010488916</v>
+        <v>0.006903750010488987</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.08797565587136691</v>
+        <v>0.08797565587136781</v>
       </c>
       <c r="H25" t="n">
-        <v>0.7821835585654263</v>
+        <v>0.7821835585654344</v>
       </c>
       <c r="I25" t="n">
-        <v>2.645667905658926</v>
+        <v>2.645667905658953</v>
       </c>
       <c r="J25" t="n">
-        <v>6.21987887010564</v>
+        <v>6.219878870105704</v>
       </c>
       <c r="K25" t="n">
-        <v>10.22117165487335</v>
+        <v>10.22117165487346</v>
       </c>
       <c r="L25" t="n">
-        <v>13.07958069200304</v>
+        <v>13.07958069200318</v>
       </c>
       <c r="M25" t="n">
-        <v>13.79058394718163</v>
+        <v>13.79058394718177</v>
       </c>
       <c r="N25" t="n">
-        <v>13.46267468438837</v>
+        <v>13.4626746843885</v>
       </c>
       <c r="O25" t="n">
-        <v>12.43495906807285</v>
+        <v>12.43495906807298</v>
       </c>
       <c r="P25" t="n">
-        <v>10.64025568829695</v>
+        <v>10.64025568829706</v>
       </c>
       <c r="Q25" t="n">
-        <v>7.36676151119237</v>
+        <v>7.366761511192446</v>
       </c>
       <c r="R25" t="n">
-        <v>3.955705399452551</v>
+        <v>3.955705399452592</v>
       </c>
       <c r="S25" t="n">
-        <v>1.533175748231003</v>
+        <v>1.533175748231019</v>
       </c>
       <c r="T25" t="n">
-        <v>0.3758959841776585</v>
+        <v>0.3758959841776624</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0047986721384382</v>
+        <v>0.00479867213843825</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1961266334638055</v>
+        <v>0.1961266334638075</v>
       </c>
       <c r="H26" t="n">
-        <v>2.008581884961198</v>
+        <v>2.008581884961219</v>
       </c>
       <c r="I26" t="n">
-        <v>7.561172036613369</v>
+        <v>7.561172036613447</v>
       </c>
       <c r="J26" t="n">
-        <v>16.64600285694868</v>
+        <v>16.64600285694885</v>
       </c>
       <c r="K26" t="n">
-        <v>24.94804325147157</v>
+        <v>24.94804325147183</v>
       </c>
       <c r="L26" t="n">
-        <v>30.95025371033951</v>
+        <v>30.95025371033983</v>
       </c>
       <c r="M26" t="n">
-        <v>34.43812072820146</v>
+        <v>34.43812072820182</v>
       </c>
       <c r="N26" t="n">
-        <v>34.9953655255305</v>
+        <v>34.99536552553086</v>
       </c>
       <c r="O26" t="n">
-        <v>33.04513131402479</v>
+        <v>33.04513131402513</v>
       </c>
       <c r="P26" t="n">
-        <v>28.20325505038708</v>
+        <v>28.20325505038737</v>
       </c>
       <c r="Q26" t="n">
-        <v>21.17946998946454</v>
+        <v>21.17946998946476</v>
       </c>
       <c r="R26" t="n">
-        <v>12.31993963932078</v>
+        <v>12.31993963932091</v>
       </c>
       <c r="S26" t="n">
-        <v>4.469235660056472</v>
+        <v>4.469235660056518</v>
       </c>
       <c r="T26" t="n">
-        <v>0.858544337987809</v>
+        <v>0.8585443379878179</v>
       </c>
       <c r="U26" t="n">
-        <v>0.01569013067710444</v>
+        <v>0.0156901306771046</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1049370001594315</v>
+        <v>0.1049370001594326</v>
       </c>
       <c r="H27" t="n">
-        <v>1.013470501539773</v>
+        <v>1.013470501539783</v>
       </c>
       <c r="I27" t="n">
-        <v>3.612962505489199</v>
+        <v>3.612962505489236</v>
       </c>
       <c r="J27" t="n">
-        <v>9.91424526506278</v>
+        <v>9.914245265062883</v>
       </c>
       <c r="K27" t="n">
-        <v>16.94502427574469</v>
+        <v>16.94502427574486</v>
       </c>
       <c r="L27" t="n">
-        <v>22.78467628461691</v>
+        <v>22.78467628461715</v>
       </c>
       <c r="M27" t="n">
-        <v>26.5886425403963</v>
+        <v>26.58864254039657</v>
       </c>
       <c r="N27" t="n">
-        <v>27.29236479146547</v>
+        <v>27.29236479146575</v>
       </c>
       <c r="O27" t="n">
-        <v>24.96718178793281</v>
+        <v>24.96718178793306</v>
       </c>
       <c r="P27" t="n">
-        <v>20.03836453044442</v>
+        <v>20.03836453044463</v>
       </c>
       <c r="Q27" t="n">
-        <v>13.39511602035129</v>
+        <v>13.39511602035143</v>
       </c>
       <c r="R27" t="n">
-        <v>6.51529900989874</v>
+        <v>6.515299009898807</v>
       </c>
       <c r="S27" t="n">
-        <v>1.949158752961369</v>
+        <v>1.949158752961389</v>
       </c>
       <c r="T27" t="n">
-        <v>0.4229697506426206</v>
+        <v>0.422969750642625</v>
       </c>
       <c r="U27" t="n">
-        <v>0.006903750010488916</v>
+        <v>0.006903750010488987</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.08797565587136691</v>
+        <v>0.08797565587136781</v>
       </c>
       <c r="H28" t="n">
-        <v>0.7821835585654263</v>
+        <v>0.7821835585654344</v>
       </c>
       <c r="I28" t="n">
-        <v>2.645667905658926</v>
+        <v>2.645667905658953</v>
       </c>
       <c r="J28" t="n">
-        <v>6.21987887010564</v>
+        <v>6.219878870105704</v>
       </c>
       <c r="K28" t="n">
-        <v>10.22117165487335</v>
+        <v>10.22117165487346</v>
       </c>
       <c r="L28" t="n">
-        <v>13.07958069200304</v>
+        <v>13.07958069200318</v>
       </c>
       <c r="M28" t="n">
-        <v>13.79058394718163</v>
+        <v>13.79058394718177</v>
       </c>
       <c r="N28" t="n">
-        <v>13.46267468438837</v>
+        <v>13.4626746843885</v>
       </c>
       <c r="O28" t="n">
-        <v>12.43495906807285</v>
+        <v>12.43495906807298</v>
       </c>
       <c r="P28" t="n">
-        <v>10.64025568829695</v>
+        <v>10.64025568829706</v>
       </c>
       <c r="Q28" t="n">
-        <v>7.36676151119237</v>
+        <v>7.366761511192446</v>
       </c>
       <c r="R28" t="n">
-        <v>3.955705399452551</v>
+        <v>3.955705399452592</v>
       </c>
       <c r="S28" t="n">
-        <v>1.533175748231003</v>
+        <v>1.533175748231019</v>
       </c>
       <c r="T28" t="n">
-        <v>0.3758959841776585</v>
+        <v>0.3758959841776624</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0047986721384382</v>
+        <v>0.00479867213843825</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1961266334638055</v>
+        <v>0.1961266334638075</v>
       </c>
       <c r="H29" t="n">
-        <v>2.008581884961198</v>
+        <v>2.008581884961219</v>
       </c>
       <c r="I29" t="n">
-        <v>7.561172036613369</v>
+        <v>7.561172036613447</v>
       </c>
       <c r="J29" t="n">
-        <v>16.64600285694868</v>
+        <v>16.64600285694885</v>
       </c>
       <c r="K29" t="n">
-        <v>24.94804325147157</v>
+        <v>24.94804325147183</v>
       </c>
       <c r="L29" t="n">
-        <v>30.95025371033951</v>
+        <v>30.95025371033983</v>
       </c>
       <c r="M29" t="n">
-        <v>34.43812072820146</v>
+        <v>34.43812072820182</v>
       </c>
       <c r="N29" t="n">
-        <v>34.9953655255305</v>
+        <v>34.99536552553086</v>
       </c>
       <c r="O29" t="n">
-        <v>33.04513131402479</v>
+        <v>33.04513131402513</v>
       </c>
       <c r="P29" t="n">
-        <v>28.20325505038708</v>
+        <v>28.20325505038737</v>
       </c>
       <c r="Q29" t="n">
-        <v>21.17946998946454</v>
+        <v>21.17946998946476</v>
       </c>
       <c r="R29" t="n">
-        <v>12.31993963932078</v>
+        <v>12.31993963932091</v>
       </c>
       <c r="S29" t="n">
-        <v>4.469235660056472</v>
+        <v>4.469235660056518</v>
       </c>
       <c r="T29" t="n">
-        <v>0.858544337987809</v>
+        <v>0.8585443379878179</v>
       </c>
       <c r="U29" t="n">
-        <v>0.01569013067710444</v>
+        <v>0.0156901306771046</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1049370001594315</v>
+        <v>0.1049370001594326</v>
       </c>
       <c r="H30" t="n">
-        <v>1.013470501539773</v>
+        <v>1.013470501539783</v>
       </c>
       <c r="I30" t="n">
-        <v>3.612962505489199</v>
+        <v>3.612962505489236</v>
       </c>
       <c r="J30" t="n">
-        <v>9.91424526506278</v>
+        <v>9.914245265062883</v>
       </c>
       <c r="K30" t="n">
-        <v>16.94502427574469</v>
+        <v>16.94502427574486</v>
       </c>
       <c r="L30" t="n">
-        <v>22.78467628461691</v>
+        <v>22.78467628461715</v>
       </c>
       <c r="M30" t="n">
-        <v>26.5886425403963</v>
+        <v>26.58864254039657</v>
       </c>
       <c r="N30" t="n">
-        <v>27.29236479146547</v>
+        <v>27.29236479146575</v>
       </c>
       <c r="O30" t="n">
-        <v>24.96718178793281</v>
+        <v>24.96718178793306</v>
       </c>
       <c r="P30" t="n">
-        <v>20.03836453044442</v>
+        <v>20.03836453044463</v>
       </c>
       <c r="Q30" t="n">
-        <v>13.39511602035129</v>
+        <v>13.39511602035143</v>
       </c>
       <c r="R30" t="n">
-        <v>6.51529900989874</v>
+        <v>6.515299009898807</v>
       </c>
       <c r="S30" t="n">
-        <v>1.949158752961369</v>
+        <v>1.949158752961389</v>
       </c>
       <c r="T30" t="n">
-        <v>0.4229697506426206</v>
+        <v>0.422969750642625</v>
       </c>
       <c r="U30" t="n">
-        <v>0.006903750010488916</v>
+        <v>0.006903750010488987</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.08797565587136691</v>
+        <v>0.08797565587136781</v>
       </c>
       <c r="H31" t="n">
-        <v>0.7821835585654263</v>
+        <v>0.7821835585654344</v>
       </c>
       <c r="I31" t="n">
-        <v>2.645667905658926</v>
+        <v>2.645667905658953</v>
       </c>
       <c r="J31" t="n">
-        <v>6.21987887010564</v>
+        <v>6.219878870105704</v>
       </c>
       <c r="K31" t="n">
-        <v>10.22117165487335</v>
+        <v>10.22117165487346</v>
       </c>
       <c r="L31" t="n">
-        <v>13.07958069200304</v>
+        <v>13.07958069200318</v>
       </c>
       <c r="M31" t="n">
-        <v>13.79058394718163</v>
+        <v>13.79058394718177</v>
       </c>
       <c r="N31" t="n">
-        <v>13.46267468438837</v>
+        <v>13.4626746843885</v>
       </c>
       <c r="O31" t="n">
-        <v>12.43495906807285</v>
+        <v>12.43495906807298</v>
       </c>
       <c r="P31" t="n">
-        <v>10.64025568829695</v>
+        <v>10.64025568829706</v>
       </c>
       <c r="Q31" t="n">
-        <v>7.36676151119237</v>
+        <v>7.366761511192446</v>
       </c>
       <c r="R31" t="n">
-        <v>3.955705399452551</v>
+        <v>3.955705399452592</v>
       </c>
       <c r="S31" t="n">
-        <v>1.533175748231003</v>
+        <v>1.533175748231019</v>
       </c>
       <c r="T31" t="n">
-        <v>0.3758959841776585</v>
+        <v>0.3758959841776624</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0047986721384382</v>
+        <v>0.00479867213843825</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1961266334638055</v>
+        <v>0.1961266334638075</v>
       </c>
       <c r="H32" t="n">
-        <v>2.008581884961198</v>
+        <v>2.008581884961219</v>
       </c>
       <c r="I32" t="n">
-        <v>7.561172036613369</v>
+        <v>7.561172036613447</v>
       </c>
       <c r="J32" t="n">
-        <v>16.64600285694868</v>
+        <v>16.64600285694885</v>
       </c>
       <c r="K32" t="n">
-        <v>24.94804325147157</v>
+        <v>24.94804325147183</v>
       </c>
       <c r="L32" t="n">
-        <v>30.95025371033951</v>
+        <v>30.95025371033983</v>
       </c>
       <c r="M32" t="n">
-        <v>34.43812072820146</v>
+        <v>34.43812072820182</v>
       </c>
       <c r="N32" t="n">
-        <v>34.9953655255305</v>
+        <v>34.99536552553086</v>
       </c>
       <c r="O32" t="n">
-        <v>33.04513131402479</v>
+        <v>33.04513131402513</v>
       </c>
       <c r="P32" t="n">
-        <v>28.20325505038708</v>
+        <v>28.20325505038737</v>
       </c>
       <c r="Q32" t="n">
-        <v>21.17946998946454</v>
+        <v>21.17946998946476</v>
       </c>
       <c r="R32" t="n">
-        <v>12.31993963932078</v>
+        <v>12.31993963932091</v>
       </c>
       <c r="S32" t="n">
-        <v>4.469235660056472</v>
+        <v>4.469235660056518</v>
       </c>
       <c r="T32" t="n">
-        <v>0.858544337987809</v>
+        <v>0.8585443379878179</v>
       </c>
       <c r="U32" t="n">
-        <v>0.01569013067710444</v>
+        <v>0.0156901306771046</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1049370001594315</v>
+        <v>0.1049370001594326</v>
       </c>
       <c r="H33" t="n">
-        <v>1.013470501539773</v>
+        <v>1.013470501539783</v>
       </c>
       <c r="I33" t="n">
-        <v>3.612962505489199</v>
+        <v>3.612962505489236</v>
       </c>
       <c r="J33" t="n">
-        <v>9.91424526506278</v>
+        <v>9.914245265062883</v>
       </c>
       <c r="K33" t="n">
-        <v>16.94502427574469</v>
+        <v>16.94502427574486</v>
       </c>
       <c r="L33" t="n">
-        <v>22.78467628461691</v>
+        <v>22.78467628461715</v>
       </c>
       <c r="M33" t="n">
-        <v>26.5886425403963</v>
+        <v>26.58864254039657</v>
       </c>
       <c r="N33" t="n">
-        <v>27.29236479146547</v>
+        <v>27.29236479146575</v>
       </c>
       <c r="O33" t="n">
-        <v>24.96718178793281</v>
+        <v>24.96718178793306</v>
       </c>
       <c r="P33" t="n">
-        <v>20.03836453044442</v>
+        <v>20.03836453044463</v>
       </c>
       <c r="Q33" t="n">
-        <v>13.39511602035129</v>
+        <v>13.39511602035143</v>
       </c>
       <c r="R33" t="n">
-        <v>6.51529900989874</v>
+        <v>6.515299009898807</v>
       </c>
       <c r="S33" t="n">
-        <v>1.949158752961369</v>
+        <v>1.949158752961389</v>
       </c>
       <c r="T33" t="n">
-        <v>0.4229697506426206</v>
+        <v>0.422969750642625</v>
       </c>
       <c r="U33" t="n">
-        <v>0.006903750010488916</v>
+        <v>0.006903750010488987</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.08797565587136691</v>
+        <v>0.08797565587136781</v>
       </c>
       <c r="H34" t="n">
-        <v>0.7821835585654263</v>
+        <v>0.7821835585654344</v>
       </c>
       <c r="I34" t="n">
-        <v>2.645667905658926</v>
+        <v>2.645667905658953</v>
       </c>
       <c r="J34" t="n">
-        <v>6.21987887010564</v>
+        <v>6.219878870105704</v>
       </c>
       <c r="K34" t="n">
-        <v>10.22117165487335</v>
+        <v>10.22117165487346</v>
       </c>
       <c r="L34" t="n">
-        <v>13.07958069200304</v>
+        <v>13.07958069200318</v>
       </c>
       <c r="M34" t="n">
-        <v>13.79058394718163</v>
+        <v>13.79058394718177</v>
       </c>
       <c r="N34" t="n">
-        <v>13.46267468438837</v>
+        <v>13.4626746843885</v>
       </c>
       <c r="O34" t="n">
-        <v>12.43495906807285</v>
+        <v>12.43495906807298</v>
       </c>
       <c r="P34" t="n">
-        <v>10.64025568829695</v>
+        <v>10.64025568829706</v>
       </c>
       <c r="Q34" t="n">
-        <v>7.36676151119237</v>
+        <v>7.366761511192446</v>
       </c>
       <c r="R34" t="n">
-        <v>3.955705399452551</v>
+        <v>3.955705399452592</v>
       </c>
       <c r="S34" t="n">
-        <v>1.533175748231003</v>
+        <v>1.533175748231019</v>
       </c>
       <c r="T34" t="n">
-        <v>0.3758959841776585</v>
+        <v>0.3758959841776624</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0047986721384382</v>
+        <v>0.00479867213843825</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1961266334638055</v>
+        <v>0.1961266334638075</v>
       </c>
       <c r="H35" t="n">
-        <v>2.008581884961198</v>
+        <v>2.008581884961219</v>
       </c>
       <c r="I35" t="n">
-        <v>7.561172036613369</v>
+        <v>7.561172036613447</v>
       </c>
       <c r="J35" t="n">
-        <v>16.64600285694868</v>
+        <v>16.64600285694885</v>
       </c>
       <c r="K35" t="n">
-        <v>24.94804325147157</v>
+        <v>24.94804325147183</v>
       </c>
       <c r="L35" t="n">
-        <v>30.95025371033951</v>
+        <v>30.95025371033983</v>
       </c>
       <c r="M35" t="n">
-        <v>34.43812072820146</v>
+        <v>34.43812072820182</v>
       </c>
       <c r="N35" t="n">
-        <v>34.9953655255305</v>
+        <v>34.99536552553086</v>
       </c>
       <c r="O35" t="n">
-        <v>33.04513131402479</v>
+        <v>33.04513131402513</v>
       </c>
       <c r="P35" t="n">
-        <v>28.20325505038708</v>
+        <v>28.20325505038737</v>
       </c>
       <c r="Q35" t="n">
-        <v>21.17946998946454</v>
+        <v>21.17946998946476</v>
       </c>
       <c r="R35" t="n">
-        <v>12.31993963932078</v>
+        <v>12.31993963932091</v>
       </c>
       <c r="S35" t="n">
-        <v>4.469235660056472</v>
+        <v>4.469235660056518</v>
       </c>
       <c r="T35" t="n">
-        <v>0.858544337987809</v>
+        <v>0.8585443379878179</v>
       </c>
       <c r="U35" t="n">
-        <v>0.01569013067710444</v>
+        <v>0.0156901306771046</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.1049370001594315</v>
+        <v>0.1049370001594326</v>
       </c>
       <c r="H36" t="n">
-        <v>1.013470501539773</v>
+        <v>1.013470501539783</v>
       </c>
       <c r="I36" t="n">
-        <v>3.612962505489199</v>
+        <v>3.612962505489236</v>
       </c>
       <c r="J36" t="n">
-        <v>9.91424526506278</v>
+        <v>9.914245265062883</v>
       </c>
       <c r="K36" t="n">
-        <v>16.94502427574469</v>
+        <v>16.94502427574486</v>
       </c>
       <c r="L36" t="n">
-        <v>22.78467628461691</v>
+        <v>22.78467628461715</v>
       </c>
       <c r="M36" t="n">
-        <v>26.5886425403963</v>
+        <v>26.58864254039657</v>
       </c>
       <c r="N36" t="n">
-        <v>27.29236479146547</v>
+        <v>27.29236479146575</v>
       </c>
       <c r="O36" t="n">
-        <v>24.96718178793281</v>
+        <v>24.96718178793306</v>
       </c>
       <c r="P36" t="n">
-        <v>20.03836453044442</v>
+        <v>20.03836453044463</v>
       </c>
       <c r="Q36" t="n">
-        <v>13.39511602035129</v>
+        <v>13.39511602035143</v>
       </c>
       <c r="R36" t="n">
-        <v>6.51529900989874</v>
+        <v>6.515299009898807</v>
       </c>
       <c r="S36" t="n">
-        <v>1.949158752961369</v>
+        <v>1.949158752961389</v>
       </c>
       <c r="T36" t="n">
-        <v>0.4229697506426206</v>
+        <v>0.422969750642625</v>
       </c>
       <c r="U36" t="n">
-        <v>0.006903750010488916</v>
+        <v>0.006903750010488987</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.08797565587136691</v>
+        <v>0.08797565587136781</v>
       </c>
       <c r="H37" t="n">
-        <v>0.7821835585654263</v>
+        <v>0.7821835585654344</v>
       </c>
       <c r="I37" t="n">
-        <v>2.645667905658926</v>
+        <v>2.645667905658953</v>
       </c>
       <c r="J37" t="n">
-        <v>6.21987887010564</v>
+        <v>6.219878870105704</v>
       </c>
       <c r="K37" t="n">
-        <v>10.22117165487335</v>
+        <v>10.22117165487346</v>
       </c>
       <c r="L37" t="n">
-        <v>13.07958069200304</v>
+        <v>13.07958069200318</v>
       </c>
       <c r="M37" t="n">
-        <v>13.79058394718163</v>
+        <v>13.79058394718177</v>
       </c>
       <c r="N37" t="n">
-        <v>13.46267468438837</v>
+        <v>13.4626746843885</v>
       </c>
       <c r="O37" t="n">
-        <v>12.43495906807285</v>
+        <v>12.43495906807298</v>
       </c>
       <c r="P37" t="n">
-        <v>10.64025568829695</v>
+        <v>10.64025568829706</v>
       </c>
       <c r="Q37" t="n">
-        <v>7.36676151119237</v>
+        <v>7.366761511192446</v>
       </c>
       <c r="R37" t="n">
-        <v>3.955705399452551</v>
+        <v>3.955705399452592</v>
       </c>
       <c r="S37" t="n">
-        <v>1.533175748231003</v>
+        <v>1.533175748231019</v>
       </c>
       <c r="T37" t="n">
-        <v>0.3758959841776585</v>
+        <v>0.3758959841776624</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0047986721384382</v>
+        <v>0.00479867213843825</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1961266334638055</v>
+        <v>0.1961266334638075</v>
       </c>
       <c r="H38" t="n">
-        <v>2.008581884961198</v>
+        <v>2.008581884961219</v>
       </c>
       <c r="I38" t="n">
-        <v>7.561172036613369</v>
+        <v>7.561172036613447</v>
       </c>
       <c r="J38" t="n">
-        <v>16.64600285694868</v>
+        <v>16.64600285694885</v>
       </c>
       <c r="K38" t="n">
-        <v>24.94804325147157</v>
+        <v>24.94804325147183</v>
       </c>
       <c r="L38" t="n">
-        <v>30.95025371033951</v>
+        <v>30.95025371033983</v>
       </c>
       <c r="M38" t="n">
-        <v>34.43812072820146</v>
+        <v>34.43812072820182</v>
       </c>
       <c r="N38" t="n">
-        <v>34.9953655255305</v>
+        <v>34.99536552553086</v>
       </c>
       <c r="O38" t="n">
-        <v>33.04513131402479</v>
+        <v>33.04513131402513</v>
       </c>
       <c r="P38" t="n">
-        <v>28.20325505038708</v>
+        <v>28.20325505038737</v>
       </c>
       <c r="Q38" t="n">
-        <v>21.17946998946454</v>
+        <v>21.17946998946476</v>
       </c>
       <c r="R38" t="n">
-        <v>12.31993963932078</v>
+        <v>12.31993963932091</v>
       </c>
       <c r="S38" t="n">
-        <v>4.469235660056472</v>
+        <v>4.469235660056518</v>
       </c>
       <c r="T38" t="n">
-        <v>0.858544337987809</v>
+        <v>0.8585443379878179</v>
       </c>
       <c r="U38" t="n">
-        <v>0.01569013067710444</v>
+        <v>0.0156901306771046</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.1049370001594315</v>
+        <v>0.1049370001594326</v>
       </c>
       <c r="H39" t="n">
-        <v>1.013470501539773</v>
+        <v>1.013470501539783</v>
       </c>
       <c r="I39" t="n">
-        <v>3.612962505489199</v>
+        <v>3.612962505489236</v>
       </c>
       <c r="J39" t="n">
-        <v>9.91424526506278</v>
+        <v>9.914245265062883</v>
       </c>
       <c r="K39" t="n">
-        <v>16.94502427574469</v>
+        <v>16.94502427574486</v>
       </c>
       <c r="L39" t="n">
-        <v>22.78467628461691</v>
+        <v>22.78467628461715</v>
       </c>
       <c r="M39" t="n">
-        <v>26.5886425403963</v>
+        <v>26.58864254039657</v>
       </c>
       <c r="N39" t="n">
-        <v>27.29236479146547</v>
+        <v>27.29236479146575</v>
       </c>
       <c r="O39" t="n">
-        <v>24.96718178793281</v>
+        <v>24.96718178793306</v>
       </c>
       <c r="P39" t="n">
-        <v>20.03836453044442</v>
+        <v>20.03836453044463</v>
       </c>
       <c r="Q39" t="n">
-        <v>13.39511602035129</v>
+        <v>13.39511602035143</v>
       </c>
       <c r="R39" t="n">
-        <v>6.51529900989874</v>
+        <v>6.515299009898807</v>
       </c>
       <c r="S39" t="n">
-        <v>1.949158752961369</v>
+        <v>1.949158752961389</v>
       </c>
       <c r="T39" t="n">
-        <v>0.4229697506426206</v>
+        <v>0.422969750642625</v>
       </c>
       <c r="U39" t="n">
-        <v>0.006903750010488916</v>
+        <v>0.006903750010488987</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.08797565587136691</v>
+        <v>0.08797565587136781</v>
       </c>
       <c r="H40" t="n">
-        <v>0.7821835585654263</v>
+        <v>0.7821835585654344</v>
       </c>
       <c r="I40" t="n">
-        <v>2.645667905658926</v>
+        <v>2.645667905658953</v>
       </c>
       <c r="J40" t="n">
-        <v>6.21987887010564</v>
+        <v>6.219878870105704</v>
       </c>
       <c r="K40" t="n">
-        <v>10.22117165487335</v>
+        <v>10.22117165487346</v>
       </c>
       <c r="L40" t="n">
-        <v>13.07958069200304</v>
+        <v>13.07958069200318</v>
       </c>
       <c r="M40" t="n">
-        <v>13.79058394718163</v>
+        <v>13.79058394718177</v>
       </c>
       <c r="N40" t="n">
-        <v>13.46267468438837</v>
+        <v>13.4626746843885</v>
       </c>
       <c r="O40" t="n">
-        <v>12.43495906807285</v>
+        <v>12.43495906807298</v>
       </c>
       <c r="P40" t="n">
-        <v>10.64025568829695</v>
+        <v>10.64025568829706</v>
       </c>
       <c r="Q40" t="n">
-        <v>7.36676151119237</v>
+        <v>7.366761511192446</v>
       </c>
       <c r="R40" t="n">
-        <v>3.955705399452551</v>
+        <v>3.955705399452592</v>
       </c>
       <c r="S40" t="n">
-        <v>1.533175748231003</v>
+        <v>1.533175748231019</v>
       </c>
       <c r="T40" t="n">
-        <v>0.3758959841776585</v>
+        <v>0.3758959841776624</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0047986721384382</v>
+        <v>0.00479867213843825</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1961266334638057</v>
+        <v>0.1961266334638075</v>
       </c>
       <c r="H41" t="n">
-        <v>2.008581884961201</v>
+        <v>2.008581884961219</v>
       </c>
       <c r="I41" t="n">
-        <v>7.561172036613376</v>
+        <v>7.561172036613447</v>
       </c>
       <c r="J41" t="n">
-        <v>16.64600285694869</v>
+        <v>16.64600285694885</v>
       </c>
       <c r="K41" t="n">
-        <v>24.9480432514716</v>
+        <v>24.94804325147183</v>
       </c>
       <c r="L41" t="n">
-        <v>30.95025371033955</v>
+        <v>30.95025371033983</v>
       </c>
       <c r="M41" t="n">
-        <v>34.4381207282015</v>
+        <v>34.43812072820182</v>
       </c>
       <c r="N41" t="n">
-        <v>34.99536552553054</v>
+        <v>34.99536552553086</v>
       </c>
       <c r="O41" t="n">
-        <v>33.04513131402482</v>
+        <v>33.04513131402513</v>
       </c>
       <c r="P41" t="n">
-        <v>28.20325505038711</v>
+        <v>28.20325505038737</v>
       </c>
       <c r="Q41" t="n">
-        <v>21.17946998946456</v>
+        <v>21.17946998946476</v>
       </c>
       <c r="R41" t="n">
-        <v>12.3199396393208</v>
+        <v>12.31993963932091</v>
       </c>
       <c r="S41" t="n">
-        <v>4.469235660056476</v>
+        <v>4.469235660056518</v>
       </c>
       <c r="T41" t="n">
-        <v>0.8585443379878099</v>
+        <v>0.8585443379878179</v>
       </c>
       <c r="U41" t="n">
-        <v>0.01569013067710445</v>
+        <v>0.0156901306771046</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1049370001594316</v>
+        <v>0.1049370001594326</v>
       </c>
       <c r="H42" t="n">
-        <v>1.013470501539774</v>
+        <v>1.013470501539783</v>
       </c>
       <c r="I42" t="n">
-        <v>3.612962505489202</v>
+        <v>3.612962505489236</v>
       </c>
       <c r="J42" t="n">
-        <v>9.914245265062791</v>
+        <v>9.914245265062883</v>
       </c>
       <c r="K42" t="n">
-        <v>16.94502427574471</v>
+        <v>16.94502427574486</v>
       </c>
       <c r="L42" t="n">
-        <v>22.78467628461694</v>
+        <v>22.78467628461715</v>
       </c>
       <c r="M42" t="n">
-        <v>26.58864254039633</v>
+        <v>26.58864254039657</v>
       </c>
       <c r="N42" t="n">
-        <v>27.2923647914655</v>
+        <v>27.29236479146575</v>
       </c>
       <c r="O42" t="n">
-        <v>24.96718178793283</v>
+        <v>24.96718178793306</v>
       </c>
       <c r="P42" t="n">
-        <v>20.03836453044444</v>
+        <v>20.03836453044463</v>
       </c>
       <c r="Q42" t="n">
-        <v>13.3951160203513</v>
+        <v>13.39511602035143</v>
       </c>
       <c r="R42" t="n">
-        <v>6.515299009898746</v>
+        <v>6.515299009898807</v>
       </c>
       <c r="S42" t="n">
-        <v>1.949158752961371</v>
+        <v>1.949158752961389</v>
       </c>
       <c r="T42" t="n">
-        <v>0.422969750642621</v>
+        <v>0.422969750642625</v>
       </c>
       <c r="U42" t="n">
-        <v>0.006903750010488923</v>
+        <v>0.006903750010488987</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.08797565587136699</v>
+        <v>0.08797565587136781</v>
       </c>
       <c r="H43" t="n">
-        <v>0.7821835585654272</v>
+        <v>0.7821835585654344</v>
       </c>
       <c r="I43" t="n">
-        <v>2.645667905658928</v>
+        <v>2.645667905658953</v>
       </c>
       <c r="J43" t="n">
-        <v>6.219878870105647</v>
+        <v>6.219878870105704</v>
       </c>
       <c r="K43" t="n">
-        <v>10.22117165487336</v>
+        <v>10.22117165487346</v>
       </c>
       <c r="L43" t="n">
-        <v>13.07958069200306</v>
+        <v>13.07958069200318</v>
       </c>
       <c r="M43" t="n">
-        <v>13.79058394718164</v>
+        <v>13.79058394718177</v>
       </c>
       <c r="N43" t="n">
-        <v>13.46267468438838</v>
+        <v>13.4626746843885</v>
       </c>
       <c r="O43" t="n">
-        <v>12.43495906807286</v>
+        <v>12.43495906807298</v>
       </c>
       <c r="P43" t="n">
-        <v>10.64025568829696</v>
+        <v>10.64025568829706</v>
       </c>
       <c r="Q43" t="n">
-        <v>7.366761511192377</v>
+        <v>7.366761511192446</v>
       </c>
       <c r="R43" t="n">
-        <v>3.955705399452555</v>
+        <v>3.955705399452592</v>
       </c>
       <c r="S43" t="n">
-        <v>1.533175748231004</v>
+        <v>1.533175748231019</v>
       </c>
       <c r="T43" t="n">
-        <v>0.3758959841776589</v>
+        <v>0.3758959841776624</v>
       </c>
       <c r="U43" t="n">
-        <v>0.004798672138438206</v>
+        <v>0.00479867213843825</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1961266334638058</v>
+        <v>0.1961266334638081</v>
       </c>
       <c r="H44" t="n">
-        <v>2.008581884961202</v>
+        <v>2.008581884961226</v>
       </c>
       <c r="I44" t="n">
-        <v>7.56117203661338</v>
+        <v>7.56117203661347</v>
       </c>
       <c r="J44" t="n">
-        <v>16.6460028569487</v>
+        <v>16.6460028569489</v>
       </c>
       <c r="K44" t="n">
-        <v>24.94804325147161</v>
+        <v>24.9480432514719</v>
       </c>
       <c r="L44" t="n">
-        <v>30.95025371033956</v>
+        <v>30.95025371033993</v>
       </c>
       <c r="M44" t="n">
-        <v>34.43812072820151</v>
+        <v>34.43812072820192</v>
       </c>
       <c r="N44" t="n">
-        <v>34.99536552553055</v>
+        <v>34.99536552553097</v>
       </c>
       <c r="O44" t="n">
-        <v>33.04513131402484</v>
+        <v>33.04513131402523</v>
       </c>
       <c r="P44" t="n">
-        <v>28.20325505038712</v>
+        <v>28.20325505038746</v>
       </c>
       <c r="Q44" t="n">
-        <v>21.17946998946457</v>
+        <v>21.17946998946482</v>
       </c>
       <c r="R44" t="n">
-        <v>12.3199396393208</v>
+        <v>12.31993963932095</v>
       </c>
       <c r="S44" t="n">
-        <v>4.469235660056479</v>
+        <v>4.469235660056532</v>
       </c>
       <c r="T44" t="n">
-        <v>0.8585443379878103</v>
+        <v>0.8585443379878205</v>
       </c>
       <c r="U44" t="n">
-        <v>0.01569013067710446</v>
+        <v>0.01569013067710465</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.1049370001594316</v>
+        <v>0.1049370001594329</v>
       </c>
       <c r="H45" t="n">
-        <v>1.013470501539774</v>
+        <v>1.013470501539786</v>
       </c>
       <c r="I45" t="n">
-        <v>3.612962505489204</v>
+        <v>3.612962505489247</v>
       </c>
       <c r="J45" t="n">
-        <v>9.914245265062796</v>
+        <v>9.914245265062913</v>
       </c>
       <c r="K45" t="n">
-        <v>16.94502427574471</v>
+        <v>16.94502427574492</v>
       </c>
       <c r="L45" t="n">
-        <v>22.78467628461695</v>
+        <v>22.78467628461722</v>
       </c>
       <c r="M45" t="n">
-        <v>26.58864254039634</v>
+        <v>26.58864254039666</v>
       </c>
       <c r="N45" t="n">
-        <v>27.29236479146551</v>
+        <v>27.29236479146584</v>
       </c>
       <c r="O45" t="n">
-        <v>24.96718178793284</v>
+        <v>24.96718178793314</v>
       </c>
       <c r="P45" t="n">
-        <v>20.03836453044445</v>
+        <v>20.03836453044469</v>
       </c>
       <c r="Q45" t="n">
-        <v>13.39511602035131</v>
+        <v>13.39511602035147</v>
       </c>
       <c r="R45" t="n">
-        <v>6.515299009898749</v>
+        <v>6.515299009898827</v>
       </c>
       <c r="S45" t="n">
-        <v>1.949158752961371</v>
+        <v>1.949158752961395</v>
       </c>
       <c r="T45" t="n">
-        <v>0.4229697506426212</v>
+        <v>0.4229697506426263</v>
       </c>
       <c r="U45" t="n">
-        <v>0.006903750010488927</v>
+        <v>0.006903750010489009</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.08797565587136703</v>
+        <v>0.08797565587136809</v>
       </c>
       <c r="H46" t="n">
-        <v>0.7821835585654275</v>
+        <v>0.7821835585654369</v>
       </c>
       <c r="I46" t="n">
-        <v>2.64566790565893</v>
+        <v>2.645667905658961</v>
       </c>
       <c r="J46" t="n">
-        <v>6.219878870105649</v>
+        <v>6.219878870105723</v>
       </c>
       <c r="K46" t="n">
-        <v>10.22117165487337</v>
+        <v>10.22117165487349</v>
       </c>
       <c r="L46" t="n">
-        <v>13.07958069200306</v>
+        <v>13.07958069200322</v>
       </c>
       <c r="M46" t="n">
-        <v>13.79058394718165</v>
+        <v>13.79058394718182</v>
       </c>
       <c r="N46" t="n">
-        <v>13.46267468438839</v>
+        <v>13.46267468438855</v>
       </c>
       <c r="O46" t="n">
-        <v>12.43495906807287</v>
+        <v>12.43495906807301</v>
       </c>
       <c r="P46" t="n">
-        <v>10.64025568829697</v>
+        <v>10.6402556882971</v>
       </c>
       <c r="Q46" t="n">
-        <v>7.36676151119238</v>
+        <v>7.366761511192468</v>
       </c>
       <c r="R46" t="n">
-        <v>3.955705399452557</v>
+        <v>3.955705399452604</v>
       </c>
       <c r="S46" t="n">
-        <v>1.533175748231005</v>
+        <v>1.533175748231023</v>
       </c>
       <c r="T46" t="n">
-        <v>0.3758959841776591</v>
+        <v>0.3758959841776636</v>
       </c>
       <c r="U46" t="n">
-        <v>0.004798672138438207</v>
+        <v>0.004798672138438265</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35386,10 +35386,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>6.806980428499394</v>
+        <v>6.806980428500824</v>
       </c>
       <c r="D11" t="n">
-        <v>6.806980428499394</v>
+        <v>6.806980428500824</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -35404,22 +35404,22 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>5.7185548261603</v>
+        <v>5.718554826160755</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3027462736369557</v>
+        <v>6.806980428500824</v>
       </c>
       <c r="K11" t="n">
-        <v>6.806980428499394</v>
+        <v>0.3027462736355915</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0483066508826937</v>
+        <v>0.04830665088337582</v>
       </c>
       <c r="N11" t="n">
-        <v>2.121952098069642</v>
+        <v>2.121952098070381</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -35431,22 +35431,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>1.916255608355527</v>
+        <v>1.916255608355982</v>
       </c>
       <c r="S11" t="n">
-        <v>4.615695307881356</v>
+        <v>4.615695307882277</v>
       </c>
       <c r="T11" t="n">
-        <v>6.806980428499394</v>
+        <v>6.806980428500824</v>
       </c>
       <c r="U11" t="n">
-        <v>6.806980428499394</v>
+        <v>6.806980428500824</v>
       </c>
       <c r="V11" t="n">
-        <v>6.806980428499394</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>6.806980428500824</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -35623,10 +35623,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>7.43588838622603</v>
+        <v>7.435888386225828</v>
       </c>
       <c r="D14" t="n">
-        <v>7.43588838622603</v>
+        <v>7.435888386225828</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -35644,19 +35644,19 @@
         <v>5.910214574860561</v>
       </c>
       <c r="J14" t="n">
-        <v>7.43588838622603</v>
+        <v>2.372258503440801</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2792346391066758</v>
+        <v>7.416509969077936</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>0.2399663995831816</v>
       </c>
       <c r="N14" t="n">
-        <v>2.31361184676993</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -35668,22 +35668,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>2.107915357055788</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>7.43588838622603</v>
+        <v>5.027533094373107</v>
       </c>
       <c r="U14" t="n">
-        <v>7.135448451428999</v>
+        <v>7.435888386225828</v>
       </c>
       <c r="V14" t="n">
-        <v>7.43588838622603</v>
+        <v>7.435888386225828</v>
       </c>
       <c r="W14" t="n">
-        <v>7.43588838622603</v>
+        <v>7.435888386225828</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -35860,10 +35860,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>16.18349058332103</v>
+        <v>16.18349058332115</v>
       </c>
       <c r="D17" t="n">
-        <v>16.18349058332103</v>
+        <v>16.18349058332115</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -35878,22 +35878,22 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>7.781882791459054</v>
       </c>
       <c r="J17" t="n">
-        <v>16.18349058332103</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>9.288178185676315</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1.491916314171704</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>4.185280063368737</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -35908,22 +35908,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>16.18349058332103</v>
+        <v>16.18349058332115</v>
       </c>
       <c r="T17" t="n">
-        <v>2.182535015636745</v>
+        <v>16.18349058332115</v>
       </c>
       <c r="U17" t="n">
-        <v>16.18349058332103</v>
+        <v>14.1951246156343</v>
       </c>
       <c r="V17" t="n">
-        <v>16.18349058332103</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>16.18349058332115</v>
       </c>
       <c r="X17" t="n">
-        <v>0.5175035213374599</v>
+        <v>0.5175035213373462</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -36097,10 +36097,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>13.90822106710539</v>
+        <v>19.31468193469853</v>
       </c>
       <c r="D20" t="n">
-        <v>19.31468193469906</v>
+        <v>9.174004250616065</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -36115,25 +36115,25 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>8.190195018475436</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>19.31468193469906</v>
+        <v>16.23893782784813</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>9.69649041269264</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>2.519946843197886</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1.529992863098414</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36142,25 +36142,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>4.387895800670481</v>
       </c>
       <c r="S20" t="n">
-        <v>19.31468193469906</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>19.31468193469853</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>19.31468193469853</v>
       </c>
       <c r="V20" t="n">
-        <v>19.31468193469906</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>19.31468193469906</v>
+        <v>19.31468193469853</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>0.925815748353557</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -36334,10 +36334,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>21.33781337429053</v>
+        <v>21.33781337429059</v>
       </c>
       <c r="D23" t="n">
-        <v>31.20400382957661</v>
+        <v>31.20400382957655</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -36352,22 +36352,22 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>9.601347356081874</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>11.10764275029942</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>3.931099180804665</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>6.00474462799167</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -36376,28 +36376,28 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>3.738331390405108</v>
+        <v>3.738331390405335</v>
       </c>
       <c r="R23" t="n">
-        <v>1.188036598445024</v>
+        <v>5.799048138277261</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>31.20400382957655</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>31.20400382957661</v>
+        <v>31.20400382957655</v>
       </c>
       <c r="V23" t="n">
-        <v>31.20400382957661</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>26.79334580804806</v>
+        <v>10.7401950652021</v>
       </c>
       <c r="X23" t="n">
-        <v>2.336968085960279</v>
+        <v>2.336968085960336</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -36571,10 +36571,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>21.3378133742907</v>
+        <v>21.33781337429048</v>
       </c>
       <c r="D26" t="n">
-        <v>31.20400382957661</v>
+        <v>1.359606245683551</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -36589,25 +36589,25 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>9.601347356081931</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>11.10764275029933</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>3.931099180804438</v>
+        <v>3.931099180804551</v>
       </c>
       <c r="N26" t="n">
-        <v>6.004744627991386</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>2.941145200705023</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -36619,22 +36619,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>19.73202364163819</v>
       </c>
       <c r="T26" t="n">
-        <v>31.20400382957661</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>31.20400382957661</v>
+        <v>31.20400382957666</v>
       </c>
       <c r="V26" t="n">
-        <v>28.44407214348053</v>
+        <v>31.20400382957666</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>26.793345808048</v>
       </c>
       <c r="X26" t="n">
-        <v>2.33696808596045</v>
+        <v>2.336968085960223</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -36808,10 +36808,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>21.33781337429065</v>
+        <v>21.33781337429048</v>
       </c>
       <c r="D29" t="n">
-        <v>1.35960624568321</v>
+        <v>1.359606245683608</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -36826,25 +36826,25 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>9.601347356081988</v>
+        <v>9.601347356081931</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>11.10764275029924</v>
+        <v>11.10764275029933</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>3.931099180804551</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>2.941145200705137</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -36853,25 +36853,25 @@
         <v>3.738331390405222</v>
       </c>
       <c r="R29" t="n">
-        <v>5.79904813827719</v>
+        <v>5.799048138277158</v>
       </c>
       <c r="S29" t="n">
-        <v>31.20400382957661</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>31.20400382957661</v>
+        <v>31.20400382957666</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>7.253498912250895</v>
       </c>
       <c r="V29" t="n">
-        <v>31.20400382957661</v>
+        <v>31.20400382957666</v>
       </c>
       <c r="W29" t="n">
-        <v>9.715085272232102</v>
+        <v>26.793345808048</v>
       </c>
       <c r="X29" t="n">
-        <v>2.336968085960393</v>
+        <v>2.336968085960223</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -37045,10 +37045,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>16.4375688104081</v>
+        <v>22.52006213216282</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>38.34709293199586</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -37063,52 +37063,52 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>7.328144486375021</v>
       </c>
       <c r="J32" t="n">
-        <v>50.51868576427529</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>12.28989150817142</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>5.113347938676895</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>4.123393958577481</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>4.92058014827759</v>
       </c>
       <c r="R32" t="n">
-        <v>6.981296896149388</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>50.51868576427508</v>
       </c>
       <c r="T32" t="n">
-        <v>50.51868576427529</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>50.51868576427529</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>29.93712942512553</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>27.97559456592035</v>
       </c>
       <c r="X32" t="n">
-        <v>3.519216843832567</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -37282,10 +37282,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>22.11174990514644</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>37.93878070497948</v>
+        <v>37.93878070497965</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -37303,49 +37303,49 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>43.7117053357759</v>
+        <v>34.92418687388894</v>
       </c>
       <c r="K35" t="n">
-        <v>11.88157928115503</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>4.705035711660706</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>6.778681158847682</v>
       </c>
       <c r="O35" t="n">
-        <v>3.715081731560758</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>4.51226792126138</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>43.71170533577426</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>43.7117053357759</v>
+        <v>43.71170533577426</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>16.32266536461476</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>3.110904616816356</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -37519,10 +37519,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>1.755574180091855</v>
+        <v>22.06491252949195</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>37.89194332932499</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>10.32844651128335</v>
+        <v>10.3284465112834</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -37549,10 +37549,10 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>4.658198336006024</v>
       </c>
       <c r="N38" t="n">
-        <v>6.731843783192687</v>
+        <v>6.731843783193028</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>6.526147293478573</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37573,16 +37573,16 @@
         <v>43.08279737804926</v>
       </c>
       <c r="U38" t="n">
-        <v>43.08279737804926</v>
+        <v>26.11805633955457</v>
       </c>
       <c r="V38" t="n">
-        <v>36.30452444159806</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>27.52044496324953</v>
+        <v>27.52044496324947</v>
       </c>
       <c r="X38" t="n">
-        <v>3.064067241161752</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -37756,10 +37756,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>21.52947312299079</v>
+        <v>21.52947312299057</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>34.33519518095394</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>9.793007104782134</v>
+        <v>9.793007104782021</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -37786,40 +37786,40 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>4.122758929504585</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>3.132804949405227</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>3.929991139105312</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>5.990707886977237</v>
       </c>
       <c r="S41" t="n">
-        <v>34.33519518095459</v>
+        <v>34.33519518095394</v>
       </c>
       <c r="T41" t="n">
-        <v>34.33519518095459</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>25.37325653226992</v>
+        <v>13.91388365162817</v>
       </c>
       <c r="V41" t="n">
-        <v>34.33519518095459</v>
+        <v>34.33519518095394</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>2.528627834660313</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -38011,13 +38011,13 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>9.601347356081897</v>
+        <v>9.601347356081988</v>
       </c>
       <c r="J44" t="n">
-        <v>21.24934622686629</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>11.10764275029948</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -38026,10 +38026,10 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>2.005687252329722</v>
       </c>
       <c r="O44" t="n">
-        <v>2.941145200704909</v>
+        <v>2.941145200705307</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38038,7 +38038,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>5.799048138277241</v>
       </c>
       <c r="S44" t="n">
         <v>31.20400382957661</v>
@@ -38056,7 +38056,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>2.336968085960279</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
